--- a/ML Results/Model11b_Results.xlsx
+++ b/ML Results/Model11b_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Documents\Papers\Journal Papers\2023 Geosciences Special Issue (ML in Engineering Geology)\ML Models Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Dropbox\Beverly - Files\Geosciences 2023 - ML Special Issue\ML Models Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B4163C-D098-4AC9-8022-A5C265D54FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A5D50A-EDC2-43E0-BD44-2B7FE4171B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
         <v>0.98557993327182669</v>
       </c>
       <c r="E2">
-        <v>0.98768576056551405</v>
+        <v>0.67309777529477754</v>
       </c>
       <c r="F2">
-        <v>4.8500234301214751E-2</v>
+        <v>0.33840462929765469</v>
       </c>
       <c r="G2">
         <v>0.76818181818181819</v>
@@ -579,10 +579,10 @@
         <v>0.43815382544633652</v>
       </c>
       <c r="I2">
-        <v>0.87210551623615684</v>
+        <v>0.71646680206709168</v>
       </c>
       <c r="J2">
-        <v>0.16773897470881249</v>
+        <v>0.3115296068843813</v>
       </c>
       <c r="K2">
         <v>1100</v>
@@ -594,10 +594,10 @@
         <v>0.98014651688559407</v>
       </c>
       <c r="N2">
-        <v>0.98473262044349186</v>
+        <v>0.6687569432570919</v>
       </c>
       <c r="O2">
-        <v>5.4460160584679618E-2</v>
+        <v>0.35060816647232412</v>
       </c>
       <c r="P2">
         <v>0.8136363636363636</v>
@@ -606,10 +606,10 @@
         <v>0.54462570109628938</v>
       </c>
       <c r="R2">
-        <v>0.9151855092265222</v>
+        <v>0.88180832880977633</v>
       </c>
       <c r="S2">
-        <v>0.1324592561713018</v>
+        <v>0.17494135606401071</v>
       </c>
       <c r="T2">
         <v>1100</v>
@@ -621,10 +621,10 @@
         <v>0.98054559276439568</v>
       </c>
       <c r="W2">
-        <v>0.98419922699905216</v>
+        <v>0.66857690906502465</v>
       </c>
       <c r="X2">
-        <v>5.539117094069973E-2</v>
+        <v>0.35205889457819223</v>
       </c>
       <c r="Y2">
         <v>0.79545454545454541</v>
@@ -633,10 +633,10 @@
         <v>0.45515228190315288</v>
       </c>
       <c r="AA2">
-        <v>0.78074108181465696</v>
+        <v>0.71393854953641223</v>
       </c>
       <c r="AB2">
-        <v>0.2118103783189963</v>
+        <v>0.26512327366310418</v>
       </c>
       <c r="AC2">
         <v>1100</v>
@@ -648,10 +648,10 @@
         <v>0.98723467281346067</v>
       </c>
       <c r="AF2">
-        <v>0.98960008656089571</v>
+        <v>0.67251339631759466</v>
       </c>
       <c r="AG2">
-        <v>4.5226701686664553E-2</v>
+        <v>0.35324250051030059</v>
       </c>
       <c r="AH2">
         <v>0.80454545454545456</v>
@@ -660,10 +660,10 @@
         <v>0.50479009304871381</v>
       </c>
       <c r="AJ2">
-        <v>0.7897468193397601</v>
+        <v>0.79664129550107776</v>
       </c>
       <c r="AK2">
-        <v>0.20326874284597179</v>
+        <v>0.21009333844894471</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>0.98332609795633208</v>
       </c>
       <c r="E3">
-        <v>0.98701317503981467</v>
+        <v>0.90434258497861197</v>
       </c>
       <c r="F3">
-        <v>5.0432908510907502E-2</v>
+        <v>0.15142484625647909</v>
       </c>
       <c r="G3">
         <v>0.83043478260869563</v>
@@ -692,10 +692,10 @@
         <v>0.58570960271816186</v>
       </c>
       <c r="I3">
-        <v>0.91487871283199185</v>
+        <v>0.44628177942094183</v>
       </c>
       <c r="J3">
-        <v>0.12734752178329911</v>
+        <v>0.6397874416947914</v>
       </c>
       <c r="K3">
         <v>1150</v>
@@ -707,10 +707,10 @@
         <v>0.99111019882599882</v>
       </c>
       <c r="N3">
-        <v>0.99079425152150569</v>
+        <v>0.67382148948544773</v>
       </c>
       <c r="O3">
-        <v>4.1962716370814127E-2</v>
+        <v>0.34396833006511651</v>
       </c>
       <c r="P3">
         <v>0.82173913043478264</v>
@@ -719,10 +719,10 @@
         <v>0.51866728018047203</v>
       </c>
       <c r="R3">
-        <v>0.89712023585742795</v>
+        <v>0.87537583145543296</v>
       </c>
       <c r="S3">
-        <v>0.14655463441858541</v>
+        <v>0.17596945373902689</v>
       </c>
       <c r="T3">
         <v>1150</v>
@@ -734,10 +734,10 @@
         <v>0.98157302679385106</v>
       </c>
       <c r="W3">
-        <v>0.98546770513385451</v>
+        <v>0.67758053026068521</v>
       </c>
       <c r="X3">
-        <v>5.3263087797640232E-2</v>
+        <v>0.3449478258214933</v>
       </c>
       <c r="Y3">
         <v>0.83043478260869563</v>
@@ -746,10 +746,10 @@
         <v>0.56354504611689782</v>
       </c>
       <c r="AA3">
-        <v>0.84550262052497049</v>
+        <v>0.7788017841929894</v>
       </c>
       <c r="AB3">
-        <v>0.17232426461155451</v>
+        <v>0.2220671816269798</v>
       </c>
       <c r="AC3">
         <v>1150</v>
@@ -761,10 +761,10 @@
         <v>0.98795048014624176</v>
       </c>
       <c r="AF3">
-        <v>0.99031337858124224</v>
+        <v>0.68584362867099002</v>
       </c>
       <c r="AG3">
-        <v>4.4232586846469142E-2</v>
+        <v>0.34803124199063112</v>
       </c>
       <c r="AH3">
         <v>0.83913043478260874</v>
@@ -773,10 +773,10 @@
         <v>0.48027804511558603</v>
       </c>
       <c r="AJ3">
-        <v>0.80118949825729002</v>
+        <v>0.7781927190851784</v>
       </c>
       <c r="AK3">
-        <v>0.17997584378973219</v>
+        <v>0.18308270266830859</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -793,10 +793,10 @@
         <v>0.98280955941608794</v>
       </c>
       <c r="E4">
-        <v>0.98597245926168375</v>
+        <v>0.91278972698791727</v>
       </c>
       <c r="F4">
-        <v>5.3033008588991071E-2</v>
+        <v>0.1433096857600426</v>
       </c>
       <c r="G4">
         <v>0.80833333333333335</v>
@@ -805,10 +805,10 @@
         <v>0.63753788312729776</v>
       </c>
       <c r="I4">
-        <v>0.84650085529602326</v>
+        <v>0.42913173026758061</v>
       </c>
       <c r="J4">
-        <v>0.1678292783356547</v>
+        <v>0.64709564509876794</v>
       </c>
       <c r="K4">
         <v>1200</v>
@@ -820,10 +820,10 @@
         <v>0.96597246710091356</v>
       </c>
       <c r="N4">
-        <v>0.97146582048065333</v>
+        <v>0.67316369459567993</v>
       </c>
       <c r="O4">
-        <v>7.3739406018763123E-2</v>
+        <v>0.34256646207300051</v>
       </c>
       <c r="P4">
         <v>0.79583333333333328</v>
@@ -832,10 +832,10 @@
         <v>0.4210463695032991</v>
       </c>
       <c r="R4">
-        <v>0.86226032425437671</v>
+        <v>0.84322695836620842</v>
       </c>
       <c r="S4">
-        <v>0.17535677916750181</v>
+        <v>0.1940353761810158</v>
       </c>
       <c r="T4">
         <v>1200</v>
@@ -847,10 +847,10 @@
         <v>0.98474116528692424</v>
       </c>
       <c r="W4">
-        <v>0.98490895264594402</v>
+        <v>0.68671451483227985</v>
       </c>
       <c r="X4">
-        <v>5.477225575051662E-2</v>
+        <v>0.34124775403892171</v>
       </c>
       <c r="Y4">
         <v>0.83333333333333337</v>
@@ -859,10 +859,10 @@
         <v>0.47037779471989999</v>
       </c>
       <c r="AA4">
-        <v>0.86423500378955698</v>
+        <v>0.86865957881813971</v>
       </c>
       <c r="AB4">
-        <v>0.16046806535881211</v>
+        <v>0.15776463362417559</v>
       </c>
       <c r="AC4">
         <v>1200</v>
@@ -874,10 +874,10 @@
         <v>0.97143650576435603</v>
       </c>
       <c r="AF4">
-        <v>0.98373784898841243</v>
+        <v>0.67949813754903299</v>
       </c>
       <c r="AG4">
-        <v>5.6457948953181077E-2</v>
+        <v>0.33590061574870878</v>
       </c>
       <c r="AH4">
         <v>0.80833333333333335</v>
@@ -886,10 +886,10 @@
         <v>0.49631260031565028</v>
       </c>
       <c r="AJ4">
-        <v>0.84841569028757702</v>
+        <v>0.76271126006111389</v>
       </c>
       <c r="AK4">
-        <v>0.17464249196572981</v>
+        <v>0.25214156957139328</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -906,10 +906,10 @@
         <v>0.98455743822253616</v>
       </c>
       <c r="E5">
-        <v>0.99086889745589224</v>
+        <v>0.91164499997668569</v>
       </c>
       <c r="F5">
-        <v>4.2426406871192847E-2</v>
+        <v>0.14324003671933039</v>
       </c>
       <c r="G5">
         <v>0.82</v>
@@ -918,10 +918,10 @@
         <v>0.50476573755903364</v>
       </c>
       <c r="I5">
-        <v>0.8796857083836046</v>
+        <v>0.44276219809045042</v>
       </c>
       <c r="J5">
-        <v>0.16037456157383559</v>
+        <v>0.63806687490790437</v>
       </c>
       <c r="K5">
         <v>1250</v>
@@ -933,10 +933,10 @@
         <v>0.9714928377485833</v>
       </c>
       <c r="N5">
-        <v>0.98554730837688043</v>
+        <v>0.6986252794107547</v>
       </c>
       <c r="O5">
-        <v>5.3665631459994957E-2</v>
+        <v>0.32310409716864202</v>
       </c>
       <c r="P5">
         <v>0.80400000000000005</v>
@@ -945,10 +945,10 @@
         <v>0.42146306385666021</v>
       </c>
       <c r="R5">
-        <v>0.87264807873853834</v>
+        <v>0.72045954735491602</v>
       </c>
       <c r="S5">
-        <v>0.16174053295324581</v>
+        <v>0.27810449668933168</v>
       </c>
       <c r="T5">
         <v>1250</v>
@@ -960,10 +960,10 @@
         <v>0.97493014703383918</v>
       </c>
       <c r="W5">
-        <v>0.98721213994181523</v>
+        <v>0.70176008976331716</v>
       </c>
       <c r="X5">
-        <v>5.1961524227066319E-2</v>
+        <v>0.33230773884017839</v>
       </c>
       <c r="Y5">
         <v>0.84799999999999998</v>
@@ -972,10 +972,10 @@
         <v>0.45770635199206627</v>
       </c>
       <c r="AA5">
-        <v>0.89555145292228322</v>
+        <v>0.85089768666657517</v>
       </c>
       <c r="AB5">
-        <v>0.12853015210447699</v>
+        <v>0.1643514695432001</v>
       </c>
       <c r="AC5">
         <v>1250</v>
@@ -987,10 +987,10 @@
         <v>0.98775395898445206</v>
       </c>
       <c r="AF5">
-        <v>0.99156619714058569</v>
+        <v>0.69585912070755407</v>
       </c>
       <c r="AG5">
-        <v>4.1352146256270657E-2</v>
+        <v>0.33009514789424071</v>
       </c>
       <c r="AH5">
         <v>0.84399999999999997</v>
@@ -999,10 +999,10 @@
         <v>0.57203695877597283</v>
       </c>
       <c r="AJ5">
-        <v>0.88238323959060105</v>
+        <v>0.81356973890420492</v>
       </c>
       <c r="AK5">
-        <v>0.1495326051401499</v>
+        <v>0.2060818960822213</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1019,10 +1019,10 @@
         <v>0.98826649418566315</v>
       </c>
       <c r="E6">
-        <v>0.99014518141806385</v>
+        <v>0.69998162654258178</v>
       </c>
       <c r="F6">
-        <v>4.461372675964894E-2</v>
+        <v>0.32671076407079469</v>
       </c>
       <c r="G6">
         <v>0.83076923076923082</v>
@@ -1031,10 +1031,10 @@
         <v>0.52862102028654867</v>
       </c>
       <c r="I6">
-        <v>0.85748676139134106</v>
+        <v>0.85014567144757436</v>
       </c>
       <c r="J6">
-        <v>0.15726019595170679</v>
+        <v>0.1689054843361944</v>
       </c>
       <c r="K6">
         <v>1300</v>
@@ -1046,10 +1046,10 @@
         <v>0.98419315721896117</v>
       </c>
       <c r="N6">
-        <v>0.98619484790353518</v>
+        <v>0.69447928949187632</v>
       </c>
       <c r="O6">
-        <v>5.179471312491564E-2</v>
+        <v>0.32710644791151922</v>
       </c>
       <c r="P6">
         <v>0.82307692307692304</v>
@@ -1058,10 +1058,10 @@
         <v>0.51342749003738675</v>
       </c>
       <c r="R6">
-        <v>0.91362621213802686</v>
+        <v>0.89339505256465412</v>
       </c>
       <c r="S6">
-        <v>0.13272296189953189</v>
+        <v>0.1508161337825914</v>
       </c>
       <c r="T6">
         <v>1300</v>
@@ -1073,10 +1073,10 @@
         <v>0.98077386587971138</v>
       </c>
       <c r="W6">
-        <v>0.98586453096973359</v>
+        <v>0.70047061545924683</v>
       </c>
       <c r="X6">
-        <v>5.3439397739581902E-2</v>
+        <v>0.32857205843695109</v>
       </c>
       <c r="Y6">
         <v>0.87307692307692308</v>
@@ -1085,10 +1085,10 @@
         <v>0.63820943762120241</v>
       </c>
       <c r="AA6">
-        <v>0.85009603542564338</v>
+        <v>0.86240641673320528</v>
       </c>
       <c r="AB6">
-        <v>0.161245154965971</v>
+        <v>0.15383875956611109</v>
       </c>
       <c r="AC6">
         <v>1300</v>
@@ -1100,10 +1100,10 @@
         <v>0.9889986203222495</v>
       </c>
       <c r="AF6">
-        <v>0.98747866708003118</v>
+        <v>0.69197833566050482</v>
       </c>
       <c r="AG6">
-        <v>4.9224759248542027E-2</v>
+        <v>0.32461501343817839</v>
       </c>
       <c r="AH6">
         <v>0.8</v>
@@ -1112,10 +1112,10 @@
         <v>0.45744143670227261</v>
       </c>
       <c r="AJ6">
-        <v>0.80813655030800824</v>
+        <v>0.75554478232747624</v>
       </c>
       <c r="AK6">
-        <v>0.19951865152835291</v>
+        <v>0.24518999305716049</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1132,10 +1132,10 @@
         <v>0.98830478183022952</v>
       </c>
       <c r="E7">
-        <v>0.98901154339062569</v>
+        <v>0.69477912926782381</v>
       </c>
       <c r="F7">
-        <v>4.4721359549995787E-2</v>
+        <v>0.31065201021191591</v>
       </c>
       <c r="G7">
         <v>0.8481481481481481</v>
@@ -1144,10 +1144,10 @@
         <v>0.5590709671620806</v>
       </c>
       <c r="I7">
-        <v>0.89027964254262493</v>
+        <v>0.70774413762016164</v>
       </c>
       <c r="J7">
-        <v>0.16777409856157219</v>
+        <v>0.33137513184649942</v>
       </c>
       <c r="K7">
         <v>1350</v>
@@ -1159,10 +1159,10 @@
         <v>0.98441431589865702</v>
       </c>
       <c r="N7">
-        <v>0.98878794798463232</v>
+        <v>0.69653640704414421</v>
       </c>
       <c r="O7">
-        <v>4.6547466812563137E-2</v>
+        <v>0.32784243774857003</v>
       </c>
       <c r="P7">
         <v>0.8481481481481481</v>
@@ -1171,10 +1171,10 @@
         <v>0.55096042493511377</v>
       </c>
       <c r="R7">
-        <v>0.8995789781686363</v>
+        <v>0.88971418456165141</v>
       </c>
       <c r="S7">
-        <v>0.14555131461166951</v>
+        <v>0.1573458933051716</v>
       </c>
       <c r="T7">
         <v>1350</v>
@@ -1186,10 +1186,10 @@
         <v>0.98468177364817266</v>
       </c>
       <c r="W7">
-        <v>0.98928276702914575</v>
+        <v>0.70965344538059205</v>
       </c>
       <c r="X7">
-        <v>4.7434164902525687E-2</v>
+        <v>0.32961767151389332</v>
       </c>
       <c r="Y7">
         <v>0.85185185185185186</v>
@@ -1198,10 +1198,10 @@
         <v>0.50266180475306288</v>
       </c>
       <c r="AA7">
-        <v>0.89090898864186052</v>
+        <v>0.89455904193154134</v>
       </c>
       <c r="AB7">
-        <v>0.12634461984177631</v>
+        <v>0.1233771832484863</v>
       </c>
       <c r="AC7">
         <v>1350</v>
@@ -1213,10 +1213,10 @@
         <v>0.98772351065306963</v>
       </c>
       <c r="AF7">
-        <v>0.99019327615639596</v>
+        <v>0.69604893767927623</v>
       </c>
       <c r="AG7">
-        <v>4.3779751788545658E-2</v>
+        <v>0.32399548069376261</v>
       </c>
       <c r="AH7">
         <v>0.81111111111111112</v>
@@ -1225,10 +1225,10 @@
         <v>0.41342996777063679</v>
       </c>
       <c r="AJ7">
-        <v>0.80146473299389498</v>
+        <v>0.75521891609139158</v>
       </c>
       <c r="AK7">
-        <v>0.20156792807793009</v>
+        <v>0.25283540422546658</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>0.9891059874738406</v>
       </c>
       <c r="E8">
-        <v>0.98709889630289949</v>
+        <v>0.70302319420416237</v>
       </c>
       <c r="F8">
-        <v>4.9099025303098287E-2</v>
+        <v>0.30311875176585251</v>
       </c>
       <c r="G8">
         <v>0.84285714285714286</v>
@@ -1257,10 +1257,10 @@
         <v>0.56500470860506069</v>
       </c>
       <c r="I8">
-        <v>0.91102568474571011</v>
+        <v>0.77272130446155529</v>
       </c>
       <c r="J8">
-        <v>0.14317821063276351</v>
+        <v>0.28966494913773139</v>
       </c>
       <c r="K8">
         <v>1400</v>
@@ -1272,10 +1272,10 @@
         <v>0.98307450560810739</v>
       </c>
       <c r="N8">
-        <v>0.98658949207349056</v>
+        <v>0.70987294373930876</v>
       </c>
       <c r="O8">
-        <v>5.2269903932787722E-2</v>
+        <v>0.32444553671633708</v>
       </c>
       <c r="P8">
         <v>0.86428571428571432</v>
@@ -1284,10 +1284,10 @@
         <v>0.47437802982222188</v>
       </c>
       <c r="R8">
-        <v>0.91540955436257376</v>
+        <v>0.91808374341473387</v>
       </c>
       <c r="S8">
-        <v>0.1181705788861412</v>
+        <v>0.11435361169974689</v>
       </c>
       <c r="T8">
         <v>1400</v>
@@ -1299,10 +1299,10 @@
         <v>0.98489164571278454</v>
       </c>
       <c r="W8">
-        <v>0.98935020896340975</v>
+        <v>0.71306336633573042</v>
       </c>
       <c r="X8">
-        <v>4.6579425255608917E-2</v>
+        <v>0.31482715545446721</v>
       </c>
       <c r="Y8">
         <v>0.88214285714285712</v>
@@ -1311,10 +1311,10 @@
         <v>0.57026355284914665</v>
       </c>
       <c r="AA8">
-        <v>0.93189965268203212</v>
+        <v>0.83962586238748038</v>
       </c>
       <c r="AB8">
-        <v>0.1058975245899814</v>
+        <v>0.1911435609358379</v>
       </c>
       <c r="AC8">
         <v>1400</v>
@@ -1326,10 +1326,10 @@
         <v>0.98490301797103752</v>
       </c>
       <c r="AF8">
-        <v>0.98550177799789329</v>
+        <v>0.7059447119309441</v>
       </c>
       <c r="AG8">
-        <v>5.378528742004772E-2</v>
+        <v>0.32284432229897297</v>
       </c>
       <c r="AH8">
         <v>0.85</v>
@@ -1338,10 +1338,10 @@
         <v>0.51808104260560983</v>
       </c>
       <c r="AJ8">
-        <v>0.84672954577472437</v>
+        <v>0.83191533748409874</v>
       </c>
       <c r="AK8">
-        <v>0.16701154793264189</v>
+        <v>0.17940718264702871</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1358,10 +1358,10 @@
         <v>0.98230615736970073</v>
       </c>
       <c r="E9">
-        <v>0.98471596415463647</v>
+        <v>0.70376221375618542</v>
       </c>
       <c r="F9">
-        <v>5.4298028160044323E-2</v>
+        <v>0.31644334801660279</v>
       </c>
       <c r="G9">
         <v>0.82413793103448274</v>
@@ -1370,10 +1370,10 @@
         <v>0.52056759874935854</v>
       </c>
       <c r="I9">
-        <v>0.88021708043636537</v>
+        <v>0.8617000925778423</v>
       </c>
       <c r="J9">
-        <v>0.1566898980085539</v>
+        <v>0.17893438816119059</v>
       </c>
       <c r="K9">
         <v>1450</v>
@@ -1385,10 +1385,10 @@
         <v>0.98657665082580981</v>
       </c>
       <c r="N9">
-        <v>0.98780256159774227</v>
+        <v>0.71409679552333749</v>
       </c>
       <c r="O9">
-        <v>4.9042557170207828E-2</v>
+        <v>0.30645846009562772</v>
       </c>
       <c r="P9">
         <v>0.87241379310344824</v>
@@ -1397,10 +1397,10 @@
         <v>0.52942277753703437</v>
       </c>
       <c r="R9">
-        <v>0.89422581091448772</v>
+        <v>0.73911024572597306</v>
       </c>
       <c r="S9">
-        <v>0.1414213562373095</v>
+        <v>0.26563940393717711</v>
       </c>
       <c r="T9">
         <v>1450</v>
@@ -1412,10 +1412,10 @@
         <v>0.98987834094720717</v>
       </c>
       <c r="W9">
-        <v>0.99043322895131869</v>
+        <v>0.7106858158296816</v>
       </c>
       <c r="X9">
-        <v>4.3151697133684573E-2</v>
+        <v>0.31215999048944548</v>
       </c>
       <c r="Y9">
         <v>0.8655172413793103</v>
@@ -1424,10 +1424,10 @@
         <v>0.5483764284981324</v>
       </c>
       <c r="AA9">
-        <v>0.88863745457039023</v>
+        <v>0.82734675824299497</v>
       </c>
       <c r="AB9">
-        <v>0.14901978577264199</v>
+        <v>0.20241627499669959</v>
       </c>
       <c r="AC9">
         <v>1450</v>
@@ -1439,10 +1439,10 @@
         <v>0.98545856531842413</v>
       </c>
       <c r="AF9">
-        <v>0.98942634905201754</v>
+        <v>0.70766515651799411</v>
       </c>
       <c r="AG9">
-        <v>4.5769286494404697E-2</v>
+        <v>0.31350020362238318</v>
       </c>
       <c r="AH9">
         <v>0.85172413793103452</v>
@@ -1451,10 +1451,10 @@
         <v>0.54825000504521104</v>
       </c>
       <c r="AJ9">
-        <v>0.86828836457411185</v>
+        <v>0.8234844246942713</v>
       </c>
       <c r="AK9">
-        <v>0.15624913792865641</v>
+        <v>0.2054720400555449</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>0.98742747826705168</v>
       </c>
       <c r="E10">
-        <v>0.98743893885852174</v>
+        <v>0.71484217115239823</v>
       </c>
       <c r="F10">
-        <v>5.0497524691810403E-2</v>
+        <v>0.31311223920580072</v>
       </c>
       <c r="G10">
         <v>0.85666666666666669</v>
@@ -1483,10 +1483,10 @@
         <v>0.5822272316672541</v>
       </c>
       <c r="I10">
-        <v>0.90800399054643066</v>
+        <v>0.89251246533900486</v>
       </c>
       <c r="J10">
-        <v>0.1230176139149729</v>
+        <v>0.14124978411045261</v>
       </c>
       <c r="K10">
         <v>1500</v>
@@ -1498,10 +1498,10 @@
         <v>0.98706160532938303</v>
       </c>
       <c r="N10">
-        <v>0.98645300693251248</v>
+        <v>0.70778471800647569</v>
       </c>
       <c r="O10">
-        <v>5.1234753829798002E-2</v>
+        <v>0.31267089978801271</v>
       </c>
       <c r="P10">
         <v>0.83333333333333337</v>
@@ -1510,10 +1510,10 @@
         <v>0.4972848410577021</v>
       </c>
       <c r="R10">
-        <v>0.83370645963534551</v>
+        <v>0.83412834546836379</v>
       </c>
       <c r="S10">
-        <v>0.18303005217723131</v>
+        <v>0.19196449950139369</v>
       </c>
       <c r="T10">
         <v>1500</v>
@@ -1525,10 +1525,10 @@
         <v>0.98799061821519862</v>
       </c>
       <c r="W10">
-        <v>0.98916249625773933</v>
+        <v>0.71905330802784873</v>
       </c>
       <c r="X10">
-        <v>4.6636895265444081E-2</v>
+        <v>0.31141289491500768</v>
       </c>
       <c r="Y10">
         <v>0.87666666666666671</v>
@@ -1537,10 +1537,10 @@
         <v>0.52162669071352941</v>
       </c>
       <c r="AA10">
-        <v>0.90099365897131001</v>
+        <v>0.83308816813070286</v>
       </c>
       <c r="AB10">
-        <v>0.13089435944047911</v>
+        <v>0.17291049035499709</v>
       </c>
       <c r="AC10">
         <v>1500</v>
@@ -1552,10 +1552,10 @@
         <v>0.98992668875555467</v>
       </c>
       <c r="AF10">
-        <v>0.98855776428830389</v>
+        <v>0.71749436334506567</v>
       </c>
       <c r="AG10">
-        <v>4.8218253804964778E-2</v>
+        <v>0.31267654233503611</v>
       </c>
       <c r="AH10">
         <v>0.87333333333333329</v>
@@ -1564,10 +1564,10 @@
         <v>0.54410917024352112</v>
       </c>
       <c r="AJ10">
-        <v>0.90663459600224461</v>
+        <v>0.8772154966274115</v>
       </c>
       <c r="AK10">
-        <v>0.1234233905438241</v>
+        <v>0.14651790432940329</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>0.97514865122688188</v>
       </c>
       <c r="E11">
-        <v>0.98350060827250607</v>
+        <v>0.70453978366093306</v>
       </c>
       <c r="F11">
-        <v>5.5212200615209983E-2</v>
+        <v>0.308557979092145</v>
       </c>
       <c r="G11">
         <v>0.8193548387096774</v>
@@ -1596,10 +1596,10 @@
         <v>0.49764543367765213</v>
       </c>
       <c r="I11">
-        <v>0.86780999769846501</v>
+        <v>0.84850026515043731</v>
       </c>
       <c r="J11">
-        <v>0.1709555686475667</v>
+        <v>0.1893153976476086</v>
       </c>
       <c r="K11">
         <v>1550</v>
@@ -1611,10 +1611,10 @@
         <v>0.98519951996512167</v>
       </c>
       <c r="N11">
-        <v>0.98787806210293627</v>
+        <v>0.71969590777800252</v>
       </c>
       <c r="O11">
-        <v>4.8193159734149928E-2</v>
+        <v>0.29717420558462238</v>
       </c>
       <c r="P11">
         <v>0.86774193548387102</v>
@@ -1623,10 +1623,10 @@
         <v>0.59977265119666268</v>
       </c>
       <c r="R11">
-        <v>0.86896319028606772</v>
+        <v>0.73817682385918393</v>
       </c>
       <c r="S11">
-        <v>0.1594344844715524</v>
+        <v>0.2634148707600979</v>
       </c>
       <c r="T11">
         <v>1550</v>
@@ -1638,10 +1638,10 @@
         <v>0.98517192127737674</v>
       </c>
       <c r="W11">
-        <v>0.98541356655942502</v>
+        <v>0.71274444692499095</v>
       </c>
       <c r="X11">
-        <v>5.2517278262768273E-2</v>
+        <v>0.29922070823757019</v>
       </c>
       <c r="Y11">
         <v>0.88387096774193552</v>
@@ -1650,10 +1650,10 @@
         <v>0.55381447970208009</v>
       </c>
       <c r="AA11">
-        <v>0.91402242067262018</v>
+        <v>0.78858392498891772</v>
       </c>
       <c r="AB11">
-        <v>0.13234851352492799</v>
+        <v>0.24260797045237559</v>
       </c>
       <c r="AC11">
         <v>1550</v>
@@ -1665,10 +1665,10 @@
         <v>0.98644257662262125</v>
       </c>
       <c r="AF11">
-        <v>0.98855073980809216</v>
+        <v>0.72188535806947041</v>
       </c>
       <c r="AG11">
-        <v>4.8193159734149928E-2</v>
+        <v>0.30765004211461849</v>
       </c>
       <c r="AH11">
         <v>0.89032258064516134</v>
@@ -1677,10 +1677,10 @@
         <v>0.61185406713790624</v>
       </c>
       <c r="AJ11">
-        <v>0.91158351080012168</v>
+        <v>0.88726611787414356</v>
       </c>
       <c r="AK11">
-        <v>0.11430011430017149</v>
+        <v>0.13473898328515679</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -1697,10 +1697,10 @@
         <v>0.9921688440081029</v>
       </c>
       <c r="E12">
-        <v>0.99176149528860513</v>
+        <v>0.72152561801634307</v>
       </c>
       <c r="F12">
-        <v>3.9330331806380688E-2</v>
+        <v>0.2938177068841023</v>
       </c>
       <c r="G12">
         <v>0.828125</v>
@@ -1709,10 +1709,10 @@
         <v>0.56658654416159826</v>
       </c>
       <c r="I12">
-        <v>0.88537250961669944</v>
+        <v>0.82178131032810164</v>
       </c>
       <c r="J12">
-        <v>0.1503121751555741</v>
+        <v>0.21342181798361459</v>
       </c>
       <c r="K12">
         <v>1600</v>
@@ -1724,10 +1724,10 @@
         <v>0.98390846866944626</v>
       </c>
       <c r="N12">
-        <v>0.98467161585158469</v>
+        <v>0.72182980938629782</v>
       </c>
       <c r="O12">
-        <v>5.3691828987286333E-2</v>
+        <v>0.2943530036227624</v>
       </c>
       <c r="P12">
         <v>0.85624999999999996</v>
@@ -1736,10 +1736,10 @@
         <v>0.56252065587075539</v>
       </c>
       <c r="R12">
-        <v>0.88258638330420025</v>
+        <v>0.80511679954465298</v>
       </c>
       <c r="S12">
-        <v>0.1513481086766531</v>
+        <v>0.22035405751874751</v>
       </c>
       <c r="T12">
         <v>1600</v>
@@ -1751,10 +1751,10 @@
         <v>0.99034031893309948</v>
       </c>
       <c r="W12">
-        <v>0.98890034742360133</v>
+        <v>0.72163537622018725</v>
       </c>
       <c r="X12">
-        <v>4.6687123492457752E-2</v>
+        <v>0.304465460721345</v>
       </c>
       <c r="Y12">
         <v>0.88124999999999998</v>
@@ -1763,10 +1763,10 @@
         <v>0.52198768058400535</v>
       </c>
       <c r="AA12">
-        <v>0.91978122151321784</v>
+        <v>0.90907281126502704</v>
       </c>
       <c r="AB12">
-        <v>0.1142912945066246</v>
+        <v>0.12178193810879941</v>
       </c>
       <c r="AC12">
         <v>1600</v>
@@ -1778,10 +1778,10 @@
         <v>0.99063021068486878</v>
       </c>
       <c r="AF12">
-        <v>0.9910515253172234</v>
+        <v>0.7221783235624335</v>
       </c>
       <c r="AG12">
-        <v>4.1926274578121057E-2</v>
+        <v>0.30294142108550642</v>
       </c>
       <c r="AH12">
         <v>0.88749999999999996</v>
@@ -1790,10 +1790,10 @@
         <v>0.45462708849360189</v>
       </c>
       <c r="AJ12">
-        <v>0.91159877501159658</v>
+        <v>0.88315326168626485</v>
       </c>
       <c r="AK12">
-        <v>0.11924240017711819</v>
+        <v>0.14082961974090041</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -1810,10 +1810,10 @@
         <v>0.98427417431960273</v>
       </c>
       <c r="E13">
-        <v>0.98430471501195693</v>
+        <v>0.71327042681629527</v>
       </c>
       <c r="F13">
-        <v>5.3512955100950693E-2</v>
+        <v>0.30060001132933939</v>
       </c>
       <c r="G13">
         <v>0.84545454545454546</v>
@@ -1822,10 +1822,10 @@
         <v>0.51500859774799579</v>
       </c>
       <c r="I13">
-        <v>0.91599382725802803</v>
+        <v>0.90940205570173394</v>
       </c>
       <c r="J13">
-        <v>0.13257359305592339</v>
+        <v>0.13707374327195879</v>
       </c>
       <c r="K13">
         <v>1650</v>
@@ -1837,10 +1837,10 @@
         <v>0.98692357689222876</v>
       </c>
       <c r="N13">
-        <v>0.99147518930868184</v>
+        <v>0.72223624118165131</v>
       </c>
       <c r="O13">
-        <v>4.0451991747794527E-2</v>
+        <v>0.29879054337180139</v>
       </c>
       <c r="P13">
         <v>0.88181818181818183</v>
@@ -1849,10 +1849,10 @@
         <v>0.60871914073407474</v>
       </c>
       <c r="R13">
-        <v>0.91374003066949572</v>
+        <v>0.87760771090510759</v>
       </c>
       <c r="S13">
-        <v>0.1214807629115645</v>
+        <v>0.14915102716604811</v>
       </c>
       <c r="T13">
         <v>1650</v>
@@ -1864,10 +1864,10 @@
         <v>0.98697749901801513</v>
       </c>
       <c r="W13">
-        <v>0.98911448775725697</v>
+        <v>0.724723966336281</v>
       </c>
       <c r="X13">
-        <v>4.597430112178285E-2</v>
+        <v>0.2974603306735436</v>
       </c>
       <c r="Y13">
         <v>0.88484848484848488</v>
@@ -1876,10 +1876,10 @@
         <v>0.5205230591263218</v>
       </c>
       <c r="AA13">
-        <v>0.92801067463006426</v>
+        <v>0.8712060141300918</v>
       </c>
       <c r="AB13">
-        <v>0.1081525297760977</v>
+        <v>0.15295359224036961</v>
       </c>
       <c r="AC13">
         <v>1650</v>
@@ -1891,10 +1891,10 @@
         <v>0.98628310313879519</v>
       </c>
       <c r="AF13">
-        <v>0.98784337089913909</v>
+        <v>0.72234315980213337</v>
       </c>
       <c r="AG13">
-        <v>4.8147500643146768E-2</v>
+        <v>0.29902421030842619</v>
       </c>
       <c r="AH13">
         <v>0.8606060606060606</v>
@@ -1903,10 +1903,10 @@
         <v>0.44921928715393677</v>
       </c>
       <c r="AJ13">
-        <v>0.892330488797065</v>
+        <v>0.86133123102510145</v>
       </c>
       <c r="AK13">
-        <v>0.13773052301395269</v>
+        <v>0.15791432366617589</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -1923,10 +1923,10 @@
         <v>0.98293516023522121</v>
       </c>
       <c r="E14">
-        <v>0.9873521688786594</v>
+        <v>0.71821216422222223</v>
       </c>
       <c r="F14">
-        <v>4.8126671093981097E-2</v>
+        <v>0.29797196180265778</v>
       </c>
       <c r="G14">
         <v>0.8411764705882353</v>
@@ -1935,10 +1935,10 @@
         <v>0.56112155534188735</v>
       </c>
       <c r="I14">
-        <v>0.90526922569398627</v>
+        <v>0.88011529821227841</v>
       </c>
       <c r="J14">
-        <v>0.14162917612346601</v>
+        <v>0.1626370179935237</v>
       </c>
       <c r="K14">
         <v>1700</v>
@@ -1950,10 +1950,10 @@
         <v>0.98907862672970848</v>
       </c>
       <c r="N14">
-        <v>0.99052380330973544</v>
+        <v>0.72741038093298238</v>
       </c>
       <c r="O14">
-        <v>4.2270139648247593E-2</v>
+        <v>0.29191913229057692</v>
       </c>
       <c r="P14">
         <v>0.87058823529411766</v>
@@ -1962,10 +1962,10 @@
         <v>0.57293010584223691</v>
       </c>
       <c r="R14">
-        <v>0.88419471077326617</v>
+        <v>0.8340344183397248</v>
       </c>
       <c r="S14">
-        <v>0.14842308366526369</v>
+        <v>0.19555087983532651</v>
       </c>
       <c r="T14">
         <v>1700</v>
@@ -1977,10 +1977,10 @@
         <v>0.98718688288911705</v>
       </c>
       <c r="W14">
-        <v>0.98917340039810309</v>
+        <v>0.72912225537428055</v>
       </c>
       <c r="X14">
-        <v>4.601789933084223E-2</v>
+        <v>0.29889699596483132</v>
       </c>
       <c r="Y14">
         <v>0.88823529411764701</v>
@@ -1989,10 +1989,10 @@
         <v>0.65190301181147858</v>
       </c>
       <c r="AA14">
-        <v>0.92003008072193726</v>
+        <v>0.9103790724893015</v>
       </c>
       <c r="AB14">
-        <v>0.11388849035479449</v>
+        <v>0.1200309048497995</v>
       </c>
       <c r="AC14">
         <v>1700</v>
@@ -2004,10 +2004,10 @@
         <v>0.98804146066781906</v>
       </c>
       <c r="AF14">
-        <v>0.98703015491845314</v>
+        <v>0.72352866840048757</v>
       </c>
       <c r="AG14">
-        <v>4.9482617268741008E-2</v>
+        <v>0.29678794370455552</v>
       </c>
       <c r="AH14">
         <v>0.88529411764705879</v>
@@ -2016,10 +2016,10 @@
         <v>0.58519908535751131</v>
       </c>
       <c r="AJ14">
-        <v>0.90809530965374929</v>
+        <v>0.86291638640013635</v>
       </c>
       <c r="AK14">
-        <v>0.13173056280328641</v>
+        <v>0.1677606191278089</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>0.98321070635172414</v>
       </c>
       <c r="E15">
-        <v>0.98720967457223463</v>
+        <v>0.73824517011269997</v>
       </c>
       <c r="F15">
-        <v>4.9425268262874841E-2</v>
+        <v>0.27922745461995729</v>
       </c>
       <c r="G15">
         <v>0.86285714285714288</v>
@@ -2048,10 +2048,10 @@
         <v>0.59118730019888999</v>
       </c>
       <c r="I15">
-        <v>0.91819736059965296</v>
+        <v>0.80701936220233139</v>
       </c>
       <c r="J15">
-        <v>0.12047524938461721</v>
+        <v>0.2272222206322316</v>
       </c>
       <c r="K15">
         <v>1750</v>
@@ -2063,10 +2063,10 @@
         <v>0.98404121625808705</v>
       </c>
       <c r="N15">
-        <v>0.98881081124282577</v>
+        <v>0.72797680768043205</v>
       </c>
       <c r="O15">
-        <v>4.6058968414724309E-2</v>
+        <v>0.29543197938317312</v>
       </c>
       <c r="P15">
         <v>0.88</v>
@@ -2075,10 +2075,10 @@
         <v>0.54510146175323304</v>
       </c>
       <c r="R15">
-        <v>0.8618787613373029</v>
+        <v>0.8522004554349808</v>
       </c>
       <c r="S15">
-        <v>0.15892495983055291</v>
+        <v>0.16108763941041371</v>
       </c>
       <c r="T15">
         <v>1750</v>
@@ -2090,10 +2090,10 @@
         <v>0.98800752370300393</v>
       </c>
       <c r="W15">
-        <v>0.98979975317282909</v>
+        <v>0.74025254700650889</v>
       </c>
       <c r="X15">
-        <v>4.46414285485707E-2</v>
+        <v>0.28309433537723039</v>
       </c>
       <c r="Y15">
         <v>0.87428571428571433</v>
@@ -2102,10 +2102,10 @@
         <v>0.52867390708733741</v>
       </c>
       <c r="AA15">
-        <v>0.85919814415189855</v>
+        <v>0.71453772779938241</v>
       </c>
       <c r="AB15">
-        <v>0.15004761149143869</v>
+        <v>0.25332344249536071</v>
       </c>
       <c r="AC15">
         <v>1750</v>
@@ -2117,10 +2117,10 @@
         <v>0.98911078254461449</v>
       </c>
       <c r="AF15">
-        <v>0.99003259728037751</v>
+        <v>0.72592141416734113</v>
       </c>
       <c r="AG15">
-        <v>4.3177375027735471E-2</v>
+        <v>0.2895509128703887</v>
       </c>
       <c r="AH15">
         <v>0.86857142857142855</v>
@@ -2129,10 +2129,10 @@
         <v>0.57579190931979363</v>
       </c>
       <c r="AJ15">
-        <v>0.92890694426812237</v>
+        <v>0.87219293571767276</v>
       </c>
       <c r="AK15">
-        <v>0.117108008753824</v>
+        <v>0.17329126155496941</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2149,10 +2149,10 @@
         <v>0.98433451872445699</v>
       </c>
       <c r="E16">
-        <v>0.98820818825773027</v>
+        <v>0.71891185936077906</v>
       </c>
       <c r="F16">
-        <v>4.7434164902525687E-2</v>
+        <v>0.30864698030925469</v>
       </c>
       <c r="G16">
         <v>0.87777777777777777</v>
@@ -2161,10 +2161,10 @@
         <v>0.60507646282293148</v>
       </c>
       <c r="I16">
-        <v>0.91887865661070733</v>
+        <v>0.91172624234424093</v>
       </c>
       <c r="J16">
-        <v>0.1230401921686117</v>
+        <v>0.1246450748750966</v>
       </c>
       <c r="K16">
         <v>1800</v>
@@ -2176,10 +2176,10 @@
         <v>0.98264360673609796</v>
       </c>
       <c r="N16">
-        <v>0.98610530236691807</v>
+        <v>0.7162293932934769</v>
       </c>
       <c r="O16">
-        <v>5.1234753829798002E-2</v>
+        <v>0.30881341663142969</v>
       </c>
       <c r="P16">
         <v>0.84444444444444444</v>
@@ -2188,10 +2188,10 @@
         <v>0.52196281213942086</v>
       </c>
       <c r="R16">
-        <v>0.91227972543887959</v>
+        <v>0.90545606329671169</v>
       </c>
       <c r="S16">
-        <v>0.13049052754042251</v>
+        <v>0.1332685366623208</v>
       </c>
       <c r="T16">
         <v>1800</v>
@@ -2203,10 +2203,10 @@
         <v>0.98530640113752166</v>
       </c>
       <c r="W16">
-        <v>0.98713797646428336</v>
+        <v>0.74265399602776427</v>
       </c>
       <c r="X16">
-        <v>0.05</v>
+        <v>0.28199128447670219</v>
       </c>
       <c r="Y16">
         <v>0.875</v>
@@ -2215,10 +2215,10 @@
         <v>0.56136008562099637</v>
       </c>
       <c r="AA16">
-        <v>0.86644446194714342</v>
+        <v>0.66631113365207573</v>
       </c>
       <c r="AB16">
-        <v>0.15174906186786721</v>
+        <v>0.31434926414713421</v>
       </c>
       <c r="AC16">
         <v>1800</v>
@@ -2230,10 +2230,10 @@
         <v>0.9858831139865003</v>
       </c>
       <c r="AF16">
-        <v>0.98665364848161052</v>
+        <v>0.72801865363145302</v>
       </c>
       <c r="AG16">
-        <v>0.05</v>
+        <v>0.29005417174601122</v>
       </c>
       <c r="AH16">
         <v>0.85833333333333328</v>
@@ -2242,10 +2242,10 @@
         <v>0.58167220002912134</v>
       </c>
       <c r="AJ16">
-        <v>0.89299491199035308</v>
+        <v>0.77343005323217406</v>
       </c>
       <c r="AK16">
-        <v>0.14653403093555509</v>
+        <v>0.25845992814463592</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>0.98862733990066209</v>
       </c>
       <c r="E17">
-        <v>0.98861458805359637</v>
+        <v>0.73942049302061696</v>
       </c>
       <c r="F17">
-        <v>4.6134351392193421E-2</v>
+        <v>0.27850671004192412</v>
       </c>
       <c r="G17">
         <v>0.86486486486486491</v>
@@ -2274,10 +2274,10 @@
         <v>0.62630029793372599</v>
       </c>
       <c r="I17">
-        <v>0.90895492516403276</v>
+        <v>0.71024915025663504</v>
       </c>
       <c r="J17">
-        <v>0.1334571497178432</v>
+        <v>0.30356636298904721</v>
       </c>
       <c r="K17">
         <v>1850</v>
@@ -2289,10 +2289,10 @@
         <v>0.98745401582869086</v>
       </c>
       <c r="N17">
-        <v>0.98845953880444948</v>
+        <v>0.73108237360995232</v>
       </c>
       <c r="O17">
-        <v>4.7434164902525687E-2</v>
+        <v>0.29615739169248911</v>
       </c>
       <c r="P17">
         <v>0.86756756756756759</v>
@@ -2301,10 +2301,10 @@
         <v>0.49125779586882162</v>
       </c>
       <c r="R17">
-        <v>0.87783574060769831</v>
+        <v>0.73049927345573518</v>
       </c>
       <c r="S17">
-        <v>0.14132576896296359</v>
+        <v>0.2342831906873257</v>
       </c>
       <c r="T17">
         <v>1850</v>
@@ -2316,10 +2316,10 @@
         <v>0.9845987338436174</v>
       </c>
       <c r="W17">
-        <v>0.98818748544176893</v>
+        <v>0.73999527997541947</v>
       </c>
       <c r="X17">
-        <v>4.8070893592805322E-2</v>
+        <v>0.2857860104767993</v>
       </c>
       <c r="Y17">
         <v>0.88108108108108107</v>
@@ -2328,10 +2328,10 @@
         <v>0.58800346374382895</v>
       </c>
       <c r="AA17">
-        <v>0.8759060984124315</v>
+        <v>0.73646597538101055</v>
       </c>
       <c r="AB17">
-        <v>0.14084685952422879</v>
+        <v>0.25724410796372282</v>
       </c>
       <c r="AC17">
         <v>1850</v>
@@ -2343,10 +2343,10 @@
         <v>0.98852980244685296</v>
       </c>
       <c r="AF17">
-        <v>0.98987120918192595</v>
+        <v>0.7156550293755517</v>
       </c>
       <c r="AG17">
-        <v>4.3418142925914463E-2</v>
+        <v>0.30330601840119209</v>
       </c>
       <c r="AH17">
         <v>0.8540540540540541</v>
@@ -2355,10 +2355,10 @@
         <v>0.53514510569161422</v>
       </c>
       <c r="AJ17">
-        <v>0.91452548846775383</v>
+        <v>0.90503445885385103</v>
       </c>
       <c r="AK17">
-        <v>0.13038404810405299</v>
+        <v>0.1427435905451403</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2375,10 +2375,10 @@
         <v>0.99234952375609442</v>
       </c>
       <c r="E18">
-        <v>0.99338625541490555</v>
+        <v>0.73073175006103086</v>
       </c>
       <c r="F18">
-        <v>3.5262175948622049E-2</v>
+        <v>0.2926433354764999</v>
       </c>
       <c r="G18">
         <v>0.86052631578947369</v>
@@ -2387,10 +2387,10 @@
         <v>0.60283980533603798</v>
       </c>
       <c r="I18">
-        <v>0.92781835626618747</v>
+        <v>0.85366759088635269</v>
       </c>
       <c r="J18">
-        <v>0.12008768726051371</v>
+        <v>0.187838219241697</v>
       </c>
       <c r="K18">
         <v>1900</v>
@@ -2402,10 +2402,10 @@
         <v>0.98870526397533287</v>
       </c>
       <c r="N18">
-        <v>0.98859967031479024</v>
+        <v>0.7295892235390169</v>
       </c>
       <c r="O18">
-        <v>4.6805870077205179E-2</v>
+        <v>0.29465389585441071</v>
       </c>
       <c r="P18">
         <v>0.87631578947368416</v>
@@ -2414,10 +2414,10 @@
         <v>0.53709841262795754</v>
       </c>
       <c r="R18">
-        <v>0.9201964325648504</v>
+        <v>0.80445619868130447</v>
       </c>
       <c r="S18">
-        <v>0.1208522368758424</v>
+        <v>0.21149427604810289</v>
       </c>
       <c r="T18">
         <v>1900</v>
@@ -2429,10 +2429,10 @@
         <v>0.98337348169439076</v>
       </c>
       <c r="W18">
-        <v>0.98826871813170591</v>
+        <v>0.73503294779047312</v>
       </c>
       <c r="X18">
-        <v>4.8666426339228762E-2</v>
+        <v>0.30188519366493399</v>
       </c>
       <c r="Y18">
         <v>0.88421052631578945</v>
@@ -2441,10 +2441,10 @@
         <v>0.53168323542171048</v>
       </c>
       <c r="AA18">
-        <v>0.86503118615947006</v>
+        <v>0.85931565879456739</v>
       </c>
       <c r="AB18">
-        <v>0.13888654968790359</v>
+        <v>0.13766478175437441</v>
       </c>
       <c r="AC18">
         <v>1900</v>
@@ -2456,10 +2456,10 @@
         <v>0.98645121836975491</v>
       </c>
       <c r="AF18">
-        <v>0.98755003194399693</v>
+        <v>0.87424644810366992</v>
       </c>
       <c r="AG18">
-        <v>4.8666426339228762E-2</v>
+        <v>0.17565971325767449</v>
       </c>
       <c r="AH18">
         <v>0.85263157894736841</v>
@@ -2468,10 +2468,10 @@
         <v>0.56386625826602477</v>
       </c>
       <c r="AJ18">
-        <v>0.88349644194287735</v>
+        <v>0.50434137461281181</v>
       </c>
       <c r="AK18">
-        <v>0.14912022701586511</v>
+        <v>0.51335494334758314</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2488,10 +2488,10 @@
         <v>0.9881859963708669</v>
       </c>
       <c r="E19">
-        <v>0.99130508617291724</v>
+        <v>0.74574332603508564</v>
       </c>
       <c r="F19">
-        <v>4.0191847623425023E-2</v>
+        <v>0.27233995572712377</v>
       </c>
       <c r="G19">
         <v>0.86410256410256414</v>
@@ -2500,10 +2500,10 @@
         <v>0.60019778565830295</v>
       </c>
       <c r="I19">
-        <v>0.91883270551164764</v>
+        <v>0.76518854968665773</v>
       </c>
       <c r="J19">
-        <v>0.12830252710503581</v>
+        <v>0.27627722650476361</v>
       </c>
       <c r="K19">
         <v>1950</v>
@@ -2515,10 +2515,10 @@
         <v>0.98878563524568297</v>
       </c>
       <c r="N19">
-        <v>0.98861145116086557</v>
+        <v>0.74406006547022585</v>
       </c>
       <c r="O19">
-        <v>4.6201898062908461E-2</v>
+        <v>0.27419665601707172</v>
       </c>
       <c r="P19">
         <v>0.86410256410256414</v>
@@ -2527,10 +2527,10 @@
         <v>0.56775955385596166</v>
       </c>
       <c r="R19">
-        <v>0.88097218099537222</v>
+        <v>0.72070262417661257</v>
       </c>
       <c r="S19">
-        <v>0.1529202909512514</v>
+        <v>0.29773896871244332</v>
       </c>
       <c r="T19">
         <v>1950</v>
@@ -2542,10 +2542,10 @@
         <v>0.98835507380121634</v>
       </c>
       <c r="W19">
-        <v>0.99102057863456561</v>
+        <v>0.74197654169456873</v>
       </c>
       <c r="X19">
-        <v>4.0903262988139753E-2</v>
+        <v>0.27256436591985761</v>
       </c>
       <c r="Y19">
         <v>0.88717948717948714</v>
@@ -2554,10 +2554,10 @@
         <v>0.6166274987726299</v>
       </c>
       <c r="AA19">
-        <v>0.92922353525907231</v>
+        <v>0.75607035183194771</v>
       </c>
       <c r="AB19">
-        <v>0.1192927878405448</v>
+        <v>0.28842905610889041</v>
       </c>
       <c r="AC19">
         <v>1950</v>
@@ -2569,10 +2569,10 @@
         <v>0.9874095117236823</v>
       </c>
       <c r="AF19">
-        <v>0.98737781359458021</v>
+        <v>0.88488439280982933</v>
       </c>
       <c r="AG19">
-        <v>4.8038446141526137E-2</v>
+        <v>0.1596815876621657</v>
       </c>
       <c r="AH19">
         <v>0.85897435897435892</v>
@@ -2581,10 +2581,10 @@
         <v>0.57321484307146542</v>
       </c>
       <c r="AJ19">
-        <v>0.9363209818787237</v>
+        <v>0.55806441865367129</v>
       </c>
       <c r="AK19">
-        <v>0.11701413458342411</v>
+        <v>0.51714199551052809</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2601,10 +2601,10 @@
         <v>0.98804649543794798</v>
       </c>
       <c r="E20">
-        <v>0.98946037802842723</v>
+        <v>0.73919343817886485</v>
       </c>
       <c r="F20">
-        <v>4.3732139211339748E-2</v>
+        <v>0.27577186494012851</v>
       </c>
       <c r="G20">
         <v>0.87</v>
@@ -2613,10 +2613,10 @@
         <v>0.62690264025034137</v>
       </c>
       <c r="I20">
-        <v>0.92497047282961842</v>
+        <v>0.79939206472006852</v>
       </c>
       <c r="J20">
-        <v>0.12519984025548911</v>
+        <v>0.24526643848698751</v>
       </c>
       <c r="K20">
         <v>2000</v>
@@ -2628,10 +2628,10 @@
         <v>0.98653277215327417</v>
       </c>
       <c r="N20">
-        <v>0.98964781511809741</v>
+        <v>0.73151216072879477</v>
       </c>
       <c r="O20">
-        <v>4.3732139211339748E-2</v>
+        <v>0.28761614952427272</v>
       </c>
       <c r="P20">
         <v>0.86750000000000005</v>
@@ -2640,10 +2640,10 @@
         <v>0.55193107439714328</v>
       </c>
       <c r="R20">
-        <v>0.88203448384820371</v>
+        <v>0.80992343312215032</v>
       </c>
       <c r="S20">
-        <v>0.1519868415357066</v>
+        <v>0.21090881743370529</v>
       </c>
       <c r="T20">
         <v>2000</v>
@@ -2655,10 +2655,10 @@
         <v>0.987586970905172</v>
       </c>
       <c r="W20">
-        <v>0.98831522890822354</v>
+        <v>0.72675715402415753</v>
       </c>
       <c r="X20">
-        <v>4.6837484987987989E-2</v>
+        <v>0.29319851214622911</v>
       </c>
       <c r="Y20">
         <v>0.89</v>
@@ -2667,10 +2667,10 @@
         <v>0.63427045722179742</v>
       </c>
       <c r="AA20">
-        <v>0.93138130120075924</v>
+        <v>0.8946148979010089</v>
       </c>
       <c r="AB20">
-        <v>0.1123610252712211</v>
+        <v>0.14805007865733269</v>
       </c>
       <c r="AC20">
         <v>2000</v>
@@ -2682,10 +2682,10 @@
         <v>0.98690313640004879</v>
       </c>
       <c r="AF20">
-        <v>0.98857617656821828</v>
+        <v>0.8845381901137932</v>
       </c>
       <c r="AG20">
-        <v>4.6233105022267323E-2</v>
+        <v>0.16314739895812161</v>
       </c>
       <c r="AH20">
         <v>0.89</v>
@@ -2694,10 +2694,10 @@
         <v>0.74246750358371694</v>
       </c>
       <c r="AJ20">
-        <v>0.93953593832665705</v>
+        <v>0.53600598848204495</v>
       </c>
       <c r="AK20">
-        <v>0.1060660171779821</v>
+        <v>0.502576963974673</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -2714,10 +2714,10 @@
         <v>0.98851950416581535</v>
       </c>
       <c r="E21">
-        <v>0.99125317282365533</v>
+        <v>0.7340614215534873</v>
       </c>
       <c r="F21">
-        <v>4.0575133560034463E-2</v>
+        <v>0.28915732921557069</v>
       </c>
       <c r="G21">
         <v>0.86829268292682926</v>
@@ -2726,10 +2726,10 @@
         <v>0.59261253335555741</v>
       </c>
       <c r="I21">
-        <v>0.93389641287441538</v>
+        <v>0.90807892064734386</v>
       </c>
       <c r="J21">
-        <v>0.1077485781695563</v>
+        <v>0.132097256279438</v>
       </c>
       <c r="K21">
         <v>2050</v>
@@ -2741,10 +2741,10 @@
         <v>0.98592270610907651</v>
       </c>
       <c r="N21">
-        <v>0.98979847968911072</v>
+        <v>0.73379510691982697</v>
       </c>
       <c r="O21">
-        <v>4.3826153234308322E-2</v>
+        <v>0.2898473021401623</v>
       </c>
       <c r="P21">
         <v>0.88048780487804879</v>
@@ -2753,10 +2753,10 @@
         <v>0.56835967949604249</v>
       </c>
       <c r="R21">
-        <v>0.86841391027746195</v>
+        <v>0.82471916346542518</v>
       </c>
       <c r="S21">
-        <v>0.1518985540803707</v>
+        <v>0.18022922936288971</v>
       </c>
       <c r="T21">
         <v>2050</v>
@@ -2768,10 +2768,10 @@
         <v>0.98939802168817881</v>
       </c>
       <c r="W21">
-        <v>0.99049763737296315</v>
+        <v>0.74984724507541656</v>
       </c>
       <c r="X21">
-        <v>4.2555559093449803E-2</v>
+        <v>0.2730298780020407</v>
       </c>
       <c r="Y21">
         <v>0.86585365853658536</v>
@@ -2780,10 +2780,10 @@
         <v>0.63508092935171323</v>
       </c>
       <c r="AA21">
-        <v>0.8850358611620821</v>
+        <v>0.76980601728946385</v>
       </c>
       <c r="AB21">
-        <v>0.13819392524857871</v>
+        <v>0.24259710558573891</v>
       </c>
       <c r="AC21">
         <v>2050</v>
@@ -2795,10 +2795,10 @@
         <v>0.98361618515816862</v>
       </c>
       <c r="AF21">
-        <v>0.98707450288065191</v>
+        <v>0.88533288582404912</v>
       </c>
       <c r="AG21">
-        <v>4.9138926996236537E-2</v>
+        <v>0.16236121917574489</v>
       </c>
       <c r="AH21">
         <v>0.90487804878048783</v>
@@ -2807,10 +2807,10 @@
         <v>0.61322820990907356</v>
       </c>
       <c r="AJ21">
-        <v>0.91216832774958945</v>
+        <v>0.49790308597477329</v>
       </c>
       <c r="AK21">
-        <v>0.12600812981902321</v>
+        <v>0.51493630097084453</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -2827,10 +2827,10 @@
         <v>0.98873899027141365</v>
       </c>
       <c r="E22">
-        <v>0.9889496792866358</v>
+        <v>0.74642252325563585</v>
       </c>
       <c r="F22">
-        <v>4.5118890563867878E-2</v>
+        <v>0.26939648216859291</v>
       </c>
       <c r="G22">
         <v>0.87619047619047619</v>
@@ -2839,10 +2839,10 @@
         <v>0.63630793626588411</v>
       </c>
       <c r="I22">
-        <v>0.93607959612197189</v>
+        <v>0.80225332425333806</v>
       </c>
       <c r="J22">
-        <v>0.11041048949477671</v>
+        <v>0.23932841666001889</v>
       </c>
       <c r="K22">
         <v>2100</v>
@@ -2854,10 +2854,10 @@
         <v>0.98635893040917499</v>
       </c>
       <c r="N22">
-        <v>0.98865273752805882</v>
+        <v>0.73327205813161722</v>
       </c>
       <c r="O22">
-        <v>4.5118890563867878E-2</v>
+        <v>0.27884830810760208</v>
       </c>
       <c r="P22">
         <v>0.8833333333333333</v>
@@ -2866,10 +2866,10 @@
         <v>0.61847728288810366</v>
       </c>
       <c r="R22">
-        <v>0.89712030053184855</v>
+        <v>0.79896090673687692</v>
       </c>
       <c r="S22">
-        <v>0.14670995032311041</v>
+        <v>0.23189736031852759</v>
       </c>
       <c r="T22">
         <v>2100</v>
@@ -2881,10 +2881,10 @@
         <v>0.98854200848845009</v>
       </c>
       <c r="W22">
-        <v>0.99069532532405813</v>
+        <v>0.75140808661939484</v>
       </c>
       <c r="X22">
-        <v>4.0751862358845467E-2</v>
+        <v>0.25422037856482238</v>
       </c>
       <c r="Y22">
         <v>0.87142857142857144</v>
@@ -2893,10 +2893,10 @@
         <v>0.58879024118809475</v>
       </c>
       <c r="AA22">
-        <v>0.91277568979546742</v>
+        <v>0.69061357818964908</v>
       </c>
       <c r="AB22">
-        <v>0.136451631060415</v>
+        <v>0.34886647412197319</v>
       </c>
       <c r="AC22">
         <v>2100</v>
@@ -2908,10 +2908,10 @@
         <v>0.98680420141018887</v>
       </c>
       <c r="AF22">
-        <v>0.98986192738208933</v>
+        <v>0.87957807827878964</v>
       </c>
       <c r="AG22">
-        <v>4.3301270189221933E-2</v>
+        <v>0.16716214888726141</v>
       </c>
       <c r="AH22">
         <v>0.8928571428571429</v>
@@ -2920,10 +2920,10 @@
         <v>0.63593019619638613</v>
       </c>
       <c r="AJ22">
-        <v>0.93352832657380924</v>
+        <v>0.52842322235435191</v>
       </c>
       <c r="AK22">
-        <v>0.1116968686946526</v>
+        <v>0.48860734028881642</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -2940,10 +2940,10 @@
         <v>0.99079027912882101</v>
       </c>
       <c r="E23">
-        <v>0.99198531405028789</v>
+        <v>0.74207334375870504</v>
       </c>
       <c r="F23">
-        <v>3.8954356116679897E-2</v>
+        <v>0.28379052806491623</v>
       </c>
       <c r="G23">
         <v>0.89302325581395348</v>
@@ -2952,10 +2952,10 @@
         <v>0.59574581699582185</v>
       </c>
       <c r="I23">
-        <v>0.9317278930740448</v>
+        <v>0.89215739468058119</v>
       </c>
       <c r="J23">
-        <v>0.11422132737762671</v>
+        <v>0.151686700349903</v>
       </c>
       <c r="K23">
         <v>2150</v>
@@ -2967,10 +2967,10 @@
         <v>0.98584106623597312</v>
       </c>
       <c r="N23">
-        <v>0.98863284420031883</v>
+        <v>0.73259190919575867</v>
       </c>
       <c r="O23">
-        <v>4.5174081887943279E-2</v>
+        <v>0.28148484702842202</v>
       </c>
       <c r="P23">
         <v>0.87674418604651161</v>
@@ -2979,10 +2979,10 @@
         <v>0.59153079218715354</v>
       </c>
       <c r="R23">
-        <v>0.89877455341088464</v>
+        <v>0.86132909905002242</v>
       </c>
       <c r="S23">
-        <v>0.1521168461536096</v>
+        <v>0.19543516173869599</v>
       </c>
       <c r="T23">
         <v>2150</v>
@@ -2994,10 +2994,10 @@
         <v>0.9847200761418049</v>
       </c>
       <c r="W23">
-        <v>0.98820286663135659</v>
+        <v>0.76004158010511813</v>
       </c>
       <c r="X23">
-        <v>4.7982554969440178E-2</v>
+        <v>0.26901296777350359</v>
       </c>
       <c r="Y23">
         <v>0.89302325581395348</v>
@@ -3006,10 +3006,10 @@
         <v>0.64374161278733222</v>
       </c>
       <c r="AA23">
-        <v>0.92488429348944756</v>
+        <v>0.78845715479742595</v>
       </c>
       <c r="AB23">
-        <v>0.11247738790840441</v>
+        <v>0.23273907844410069</v>
       </c>
       <c r="AC23">
         <v>2150</v>
@@ -3021,10 +3021,10 @@
         <v>0.99152366769872935</v>
       </c>
       <c r="AF23">
-        <v>0.99243792891579907</v>
+        <v>0.88109212636864254</v>
       </c>
       <c r="AG23">
-        <v>3.8276837370265687E-2</v>
+        <v>0.17196573794709349</v>
       </c>
       <c r="AH23">
         <v>0.91162790697674423</v>
@@ -3033,10 +3033,10 @@
         <v>0.70934115062354741</v>
       </c>
       <c r="AJ23">
-        <v>0.92661057563770799</v>
+        <v>0.51725956454433075</v>
       </c>
       <c r="AK23">
-        <v>0.11299310536694319</v>
+        <v>0.47514273886813108</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3053,10 +3053,10 @@
         <v>0.99141296961603798</v>
       </c>
       <c r="E24">
-        <v>0.99095001801530214</v>
+        <v>0.75699377929630907</v>
       </c>
       <c r="F24">
-        <v>4.1079191812887467E-2</v>
+        <v>0.26655330570280938</v>
       </c>
       <c r="G24">
         <v>0.87272727272727268</v>
@@ -3065,10 +3065,10 @@
         <v>0.57511526996982165</v>
       </c>
       <c r="I24">
-        <v>0.9308248126286256</v>
+        <v>0.80537421748184335</v>
       </c>
       <c r="J24">
-        <v>0.1165800544300314</v>
+        <v>0.23081906830690971</v>
       </c>
       <c r="K24">
         <v>2200</v>
@@ -3080,10 +3080,10 @@
         <v>0.98836717089478032</v>
       </c>
       <c r="N24">
-        <v>0.98963646846960784</v>
+        <v>0.74195924738103747</v>
       </c>
       <c r="O24">
-        <v>4.3497648839281589E-2</v>
+        <v>0.27585762521648882</v>
       </c>
       <c r="P24">
         <v>0.85681818181818181</v>
@@ -3092,10 +3092,10 @@
         <v>0.6133352360710852</v>
       </c>
       <c r="R24">
-        <v>0.88879807278671596</v>
+        <v>0.84084294076380972</v>
       </c>
       <c r="S24">
-        <v>0.1532970971675589</v>
+        <v>0.2046246559992452</v>
       </c>
       <c r="T24">
         <v>2200</v>
@@ -3107,10 +3107,10 @@
         <v>0.99202110158837442</v>
       </c>
       <c r="W24">
-        <v>0.99215527351267152</v>
+        <v>0.74153513867243204</v>
       </c>
       <c r="X24">
-        <v>3.7839373433213482E-2</v>
+        <v>0.27527320162071739</v>
       </c>
       <c r="Y24">
         <v>0.86818181818181817</v>
@@ -3119,10 +3119,10 @@
         <v>0.62422141973234457</v>
       </c>
       <c r="AA24">
-        <v>0.92708390874440705</v>
+        <v>0.84220190744185164</v>
       </c>
       <c r="AB24">
-        <v>0.1238584235767156</v>
+        <v>0.205822838258296</v>
       </c>
       <c r="AC24">
         <v>2200</v>
@@ -3134,10 +3134,10 @@
         <v>0.9930408362965979</v>
       </c>
       <c r="AF24">
-        <v>0.99334734601777175</v>
+        <v>0.88295695754522863</v>
       </c>
       <c r="AG24">
-        <v>3.5754847096709723E-2</v>
+        <v>0.16890301672544181</v>
       </c>
       <c r="AH24">
         <v>0.91136363636363638</v>
@@ -3146,10 +3146,10 @@
         <v>0.67084988078716057</v>
       </c>
       <c r="AJ24">
-        <v>0.93998157023186835</v>
+        <v>0.5256638171917497</v>
       </c>
       <c r="AK24">
-        <v>0.1015784515445171</v>
+        <v>0.47093817066922439</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>0.98715849666044642</v>
       </c>
       <c r="E25">
-        <v>0.99038722904634524</v>
+        <v>0.75719701240064885</v>
       </c>
       <c r="F25">
-        <v>4.123105625617661E-2</v>
+        <v>0.25434736533378388</v>
       </c>
       <c r="G25">
         <v>0.88222222222222224</v>
@@ -3178,10 +3178,10 @@
         <v>0.63925782583197777</v>
       </c>
       <c r="I25">
-        <v>0.90643139690086394</v>
+        <v>0.7607409143570254</v>
       </c>
       <c r="J25">
-        <v>0.14598325626972131</v>
+        <v>0.29238556660702342</v>
       </c>
       <c r="K25">
         <v>2250</v>
@@ -3193,10 +3193,10 @@
         <v>0.98964820609574145</v>
       </c>
       <c r="N25">
-        <v>0.99064124385821006</v>
+        <v>0.73918951104918729</v>
       </c>
       <c r="O25">
-        <v>4.123105625617661E-2</v>
+        <v>0.2754453510764327</v>
       </c>
       <c r="P25">
         <v>0.93111111111111111</v>
@@ -3205,10 +3205,10 @@
         <v>0.76712807093647528</v>
       </c>
       <c r="R25">
-        <v>0.93416642283860307</v>
+        <v>0.88564017231877679</v>
       </c>
       <c r="S25">
-        <v>0.1185092588975412</v>
+        <v>0.17428965062608071</v>
       </c>
       <c r="T25">
         <v>2250</v>
@@ -3220,10 +3220,10 @@
         <v>0.98989430750729179</v>
       </c>
       <c r="W25">
-        <v>0.99233177372159709</v>
+        <v>0.74204922582456057</v>
       </c>
       <c r="X25">
-        <v>3.7416573867739417E-2</v>
+        <v>0.27865997248891938</v>
       </c>
       <c r="Y25">
         <v>0.88666666666666671</v>
@@ -3232,10 +3232,10 @@
         <v>0.67483393114413104</v>
       </c>
       <c r="AA25">
-        <v>0.94318483512982532</v>
+        <v>0.9184686924943507</v>
       </c>
       <c r="AB25">
-        <v>0.1090361815586408</v>
+        <v>0.1353808018960585</v>
       </c>
       <c r="AC25">
         <v>2250</v>
@@ -3247,10 +3247,10 @@
         <v>0.98709178925565733</v>
       </c>
       <c r="AF25">
-        <v>0.9876341579767014</v>
+        <v>0.88589538981531912</v>
       </c>
       <c r="AG25">
-        <v>4.8476798574163288E-2</v>
+        <v>0.16545456258123559</v>
       </c>
       <c r="AH25">
         <v>0.88888888888888884</v>
@@ -3259,10 +3259,10 @@
         <v>0.6393506712102357</v>
       </c>
       <c r="AJ25">
-        <v>0.93456445415088607</v>
+        <v>0.53209180948181944</v>
       </c>
       <c r="AK25">
-        <v>0.1081151649348457</v>
+        <v>0.4685539658553563</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3279,10 +3279,10 @@
         <v>0.98905988099735931</v>
       </c>
       <c r="E26">
-        <v>0.99097191659430717</v>
+        <v>0.7412119436282758</v>
       </c>
       <c r="F26">
-        <v>4.0176242168508111E-2</v>
+        <v>0.27351835102483368</v>
       </c>
       <c r="G26">
         <v>0.87173913043478257</v>
@@ -3291,10 +3291,10 @@
         <v>0.6074211377968225</v>
       </c>
       <c r="I26">
-        <v>0.9207009236823126</v>
+        <v>0.86963168010289982</v>
       </c>
       <c r="J26">
-        <v>0.13933069826230279</v>
+        <v>0.19217194782486449</v>
       </c>
       <c r="K26">
         <v>2300</v>
@@ -3306,10 +3306,10 @@
         <v>0.98896597579966949</v>
       </c>
       <c r="N26">
-        <v>0.99066591412791305</v>
+        <v>0.76356065666683792</v>
       </c>
       <c r="O26">
-        <v>4.196271637081412E-2</v>
+        <v>0.26197046054275841</v>
       </c>
       <c r="P26">
         <v>0.90652173913043477</v>
@@ -3318,10 +3318,10 @@
         <v>0.71097932056136381</v>
       </c>
       <c r="R26">
-        <v>0.94575669659148964</v>
+        <v>0.81446936342173593</v>
       </c>
       <c r="S26">
-        <v>0.1060147651734541</v>
+        <v>0.22804647289603239</v>
       </c>
       <c r="T26">
         <v>2300</v>
@@ -3333,10 +3333,10 @@
         <v>0.98997734388445013</v>
       </c>
       <c r="W26">
-        <v>0.99255790300600188</v>
+        <v>0.75180505509815287</v>
       </c>
       <c r="X26">
-        <v>3.7662690568645858E-2</v>
+        <v>0.27611315096725503</v>
       </c>
       <c r="Y26">
         <v>0.86739130434782608</v>
@@ -3345,10 +3345,10 @@
         <v>0.69123923586871761</v>
       </c>
       <c r="AA26">
-        <v>0.91794558439220264</v>
+        <v>0.87926595935281426</v>
       </c>
       <c r="AB26">
-        <v>0.127858617570176</v>
+        <v>0.16019132383487769</v>
       </c>
       <c r="AC26">
         <v>2300</v>
@@ -3360,10 +3360,10 @@
         <v>0.98779238408396242</v>
       </c>
       <c r="AF26">
-        <v>0.98957320010200134</v>
+        <v>0.76636474035859548</v>
       </c>
       <c r="AG26">
-        <v>4.4782081043746681E-2</v>
+        <v>0.26232725669336748</v>
       </c>
       <c r="AH26">
         <v>0.89782608695652177</v>
@@ -3372,10 +3372,10 @@
         <v>0.64685221489552203</v>
       </c>
       <c r="AJ26">
-        <v>0.92373545035327598</v>
+        <v>0.79594207719026777</v>
       </c>
       <c r="AK26">
-        <v>0.12095633419796049</v>
+        <v>0.23145079427545079</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3392,10 +3392,10 @@
         <v>0.98696484930647799</v>
       </c>
       <c r="E27">
-        <v>0.98974238098979472</v>
+        <v>0.75673540343979762</v>
       </c>
       <c r="F27">
-        <v>4.375949744936837E-2</v>
+        <v>0.26074996195166977</v>
       </c>
       <c r="G27">
         <v>0.8936170212765957</v>
@@ -3404,10 +3404,10 @@
         <v>0.61047124106769191</v>
       </c>
       <c r="I27">
-        <v>0.93772235757507261</v>
+        <v>0.83281088284070515</v>
       </c>
       <c r="J27">
-        <v>0.11345633708846729</v>
+        <v>0.22604098373904311</v>
       </c>
       <c r="K27">
         <v>2350</v>
@@ -3419,10 +3419,10 @@
         <v>0.98953569948703834</v>
       </c>
       <c r="N27">
-        <v>0.99105120224935217</v>
+        <v>0.75546050873292392</v>
       </c>
       <c r="O27">
-        <v>4.1513904361299828E-2</v>
+        <v>0.27409666361436841</v>
       </c>
       <c r="P27">
         <v>0.9042553191489362</v>
@@ -3431,10 +3431,10 @@
         <v>0.69175664347880672</v>
       </c>
       <c r="R27">
-        <v>0.89867494197493869</v>
+        <v>0.85504090282022693</v>
       </c>
       <c r="S27">
-        <v>0.1362101005408986</v>
+        <v>0.1679913593903363</v>
       </c>
       <c r="T27">
         <v>2350</v>
@@ -3446,10 +3446,10 @@
         <v>0.9817575000602945</v>
       </c>
       <c r="W27">
-        <v>0.98503885983732764</v>
+        <v>0.75454791380999731</v>
       </c>
       <c r="X27">
-        <v>5.3594220075787229E-2</v>
+        <v>0.27165663113311739</v>
       </c>
       <c r="Y27">
         <v>0.88297872340425532</v>
@@ -3458,10 +3458,10 @@
         <v>0.62790560180820854</v>
       </c>
       <c r="AA27">
-        <v>0.91089222361673694</v>
+        <v>0.86486870387393344</v>
       </c>
       <c r="AB27">
-        <v>0.12849372863246031</v>
+        <v>0.1728069376443214</v>
       </c>
       <c r="AC27">
         <v>2350</v>
@@ -3473,10 +3473,10 @@
         <v>0.98681695680864223</v>
       </c>
       <c r="AF27">
-        <v>0.99047064980231669</v>
+        <v>0.76644239930049185</v>
       </c>
       <c r="AG27">
-        <v>4.2086536989216397E-2</v>
+        <v>0.2574080875761402</v>
       </c>
       <c r="AH27">
         <v>0.89787234042553188</v>
@@ -3485,10 +3485,10 @@
         <v>0.6908954368542064</v>
       </c>
       <c r="AJ27">
-        <v>0.92980562953498713</v>
+        <v>0.79922215201867441</v>
       </c>
       <c r="AK27">
-        <v>0.12134003566555911</v>
+        <v>0.24071907350594179</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
@@ -3505,10 +3505,10 @@
         <v>0.99183576869452761</v>
       </c>
       <c r="E28">
-        <v>0.99298055053119716</v>
+        <v>0.74934735073914149</v>
       </c>
       <c r="F28">
-        <v>3.557562367689427E-2</v>
+        <v>0.26739466620087982</v>
       </c>
       <c r="G28">
         <v>0.8833333333333333</v>
@@ -3517,10 +3517,10 @@
         <v>0.61794668537694586</v>
       </c>
       <c r="I28">
-        <v>0.9321959793384782</v>
+        <v>0.89086788581765142</v>
       </c>
       <c r="J28">
-        <v>0.1228990100312719</v>
+        <v>0.16948922450366141</v>
       </c>
       <c r="K28">
         <v>2400</v>
@@ -3532,10 +3532,10 @@
         <v>0.99043641649139258</v>
       </c>
       <c r="N28">
-        <v>0.99221023692976107</v>
+        <v>0.76263875522750735</v>
       </c>
       <c r="O28">
-        <v>3.7500000000000012E-2</v>
+        <v>0.25584668001614619</v>
       </c>
       <c r="P28">
         <v>0.88541666666666663</v>
@@ -3544,10 +3544,10 @@
         <v>0.68556929250037735</v>
       </c>
       <c r="R28">
-        <v>0.90913995641987499</v>
+        <v>0.81064866296194815</v>
       </c>
       <c r="S28">
-        <v>0.1420093893609386</v>
+        <v>0.2386559097368178</v>
       </c>
       <c r="T28">
         <v>2400</v>
@@ -3559,10 +3559,10 @@
         <v>0.98227984709760818</v>
       </c>
       <c r="W28">
-        <v>0.98722667314468726</v>
+        <v>0.75710441446088228</v>
       </c>
       <c r="X28">
-        <v>4.9371044145328738E-2</v>
+        <v>0.27018337699491929</v>
       </c>
       <c r="Y28">
         <v>0.8979166666666667</v>
@@ -3571,10 +3571,10 @@
         <v>0.67099032832008487</v>
       </c>
       <c r="AA28">
-        <v>0.93675639353334117</v>
+        <v>0.87960653241885634</v>
       </c>
       <c r="AB28">
-        <v>0.1070436048222094</v>
+        <v>0.15607625955643981</v>
       </c>
       <c r="AC28">
         <v>2400</v>
@@ -3586,10 +3586,10 @@
         <v>0.98962736460571998</v>
       </c>
       <c r="AF28">
-        <v>0.99074449307980161</v>
+        <v>0.75949862407273094</v>
       </c>
       <c r="AG28">
-        <v>4.220485754033533E-2</v>
+        <v>0.26955838333761778</v>
       </c>
       <c r="AH28">
         <v>0.92291666666666672</v>
@@ -3598,10 +3598,10 @@
         <v>0.6979981043241732</v>
       </c>
       <c r="AJ28">
-        <v>0.95444217378611229</v>
+        <v>0.90603218931810869</v>
       </c>
       <c r="AK28">
-        <v>8.9209491273817582E-2</v>
+        <v>0.135709378303008</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>0.98951147357188241</v>
       </c>
       <c r="E29">
-        <v>0.99023607367424282</v>
+        <v>0.75652881363921098</v>
       </c>
       <c r="F29">
-        <v>4.2318037838853219E-2</v>
+        <v>0.26268790527598562</v>
       </c>
       <c r="G29">
         <v>0.91224489795918362</v>
@@ -3630,10 +3630,10 @@
         <v>0.68047538835234378</v>
       </c>
       <c r="I29">
-        <v>0.9579224905560163</v>
+        <v>0.8798943672483357</v>
       </c>
       <c r="J29">
-        <v>9.3895295572314186E-2</v>
+        <v>0.17669792846316801</v>
       </c>
       <c r="K29">
         <v>2450</v>
@@ -3645,10 +3645,10 @@
         <v>0.98874757574759542</v>
       </c>
       <c r="N29">
-        <v>0.99062265038255648</v>
+        <v>0.75293759309254038</v>
       </c>
       <c r="O29">
-        <v>4.121868013215288E-2</v>
+        <v>0.26536370275909349</v>
       </c>
       <c r="P29">
         <v>0.90204081632653066</v>
@@ -3657,10 +3657,10 @@
         <v>0.70557515020055073</v>
       </c>
       <c r="R29">
-        <v>0.92377100186683259</v>
+        <v>0.87808111843661762</v>
       </c>
       <c r="S29">
-        <v>0.12920478919537159</v>
+        <v>0.17599979840137769</v>
       </c>
       <c r="T29">
         <v>2450</v>
@@ -3672,10 +3672,10 @@
         <v>0.9922106831886317</v>
       </c>
       <c r="W29">
-        <v>0.99290945201399294</v>
+        <v>0.77148763932109887</v>
       </c>
       <c r="X29">
-        <v>3.6491542212699429E-2</v>
+        <v>0.25389082437117588</v>
       </c>
       <c r="Y29">
         <v>0.88979591836734695</v>
@@ -3684,10 +3684,10 @@
         <v>0.62144685396750643</v>
       </c>
       <c r="AA29">
-        <v>0.93807327289115106</v>
+        <v>0.81547022624312537</v>
       </c>
       <c r="AB29">
-        <v>0.10917127528310171</v>
+        <v>0.22143746327024569</v>
       </c>
       <c r="AC29">
         <v>2450</v>
@@ -3699,10 +3699,10 @@
         <v>0.98757187942906877</v>
       </c>
       <c r="AF29">
-        <v>0.9891393278524564</v>
+        <v>0.76175462874107036</v>
       </c>
       <c r="AG29">
-        <v>4.5456864504849488E-2</v>
+        <v>0.26395597200271598</v>
       </c>
       <c r="AH29">
         <v>0.89591836734693875</v>
@@ -3711,10 +3711,10 @@
         <v>0.62828421362898657</v>
       </c>
       <c r="AJ29">
-        <v>0.9371933706596931</v>
+        <v>0.88257962668204648</v>
       </c>
       <c r="AK29">
-        <v>0.1070952275085218</v>
+        <v>0.1622855351420654</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -3731,10 +3731,10 @@
         <v>0.99137651851664244</v>
       </c>
       <c r="E30">
-        <v>0.99156780413865797</v>
+        <v>0.75929489467234568</v>
       </c>
       <c r="F30">
-        <v>3.853569773599539E-2</v>
+        <v>0.25252498471224072</v>
       </c>
       <c r="G30">
         <v>0.878</v>
@@ -3743,10 +3743,10 @@
         <v>0.6155379127093189</v>
       </c>
       <c r="I30">
-        <v>0.94078970818701801</v>
+        <v>0.83710497622521096</v>
       </c>
       <c r="J30">
-        <v>0.11840608092492549</v>
+        <v>0.2284007937994168</v>
       </c>
       <c r="K30">
         <v>2500</v>
@@ -3758,10 +3758,10 @@
         <v>0.98891992529616102</v>
       </c>
       <c r="N30">
-        <v>0.99003275403146029</v>
+        <v>0.75349887225205436</v>
       </c>
       <c r="O30">
-        <v>4.2426406871192847E-2</v>
+        <v>0.26302943328480871</v>
       </c>
       <c r="P30">
         <v>0.878</v>
@@ -3770,10 +3770,10 @@
         <v>0.63542815159416954</v>
       </c>
       <c r="R30">
-        <v>0.90014293123916889</v>
+        <v>0.86760271473948736</v>
       </c>
       <c r="S30">
-        <v>0.1481215716902842</v>
+        <v>0.18507136868215299</v>
       </c>
       <c r="T30">
         <v>2500</v>
@@ -3785,10 +3785,10 @@
         <v>0.98697513435498541</v>
       </c>
       <c r="W30">
-        <v>0.9893513841307543</v>
+        <v>0.7613246003766827</v>
       </c>
       <c r="X30">
-        <v>4.5000000000000012E-2</v>
+        <v>0.26632227076588622</v>
       </c>
       <c r="Y30">
         <v>0.91</v>
@@ -3797,10 +3797,10 @@
         <v>0.68574303531933789</v>
       </c>
       <c r="AA30">
-        <v>0.94754949245318731</v>
+        <v>0.90789279418289159</v>
       </c>
       <c r="AB30">
-        <v>9.7570487341203743E-2</v>
+        <v>0.1333398160960694</v>
       </c>
       <c r="AC30">
         <v>2500</v>
@@ -3812,10 +3812,10 @@
         <v>0.98961549625740997</v>
       </c>
       <c r="AF30">
-        <v>0.99157404520376513</v>
+        <v>0.77932211328535184</v>
       </c>
       <c r="AG30">
-        <v>4.024922359499622E-2</v>
+        <v>0.25131124248527731</v>
       </c>
       <c r="AH30">
         <v>0.91600000000000004</v>
@@ -3824,10 +3824,10 @@
         <v>0.70708112662758271</v>
       </c>
       <c r="AJ30">
-        <v>0.95372260030857769</v>
+        <v>0.80895358556744901</v>
       </c>
       <c r="AK30">
-        <v>8.9442719099991588E-2</v>
+        <v>0.21256766195170751</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>0.98621557000504689</v>
       </c>
       <c r="E31">
-        <v>0.98805368813098782</v>
+        <v>0.7675471873347588</v>
       </c>
       <c r="F31">
-        <v>4.6494781490855001E-2</v>
+        <v>0.2479363117391426</v>
       </c>
       <c r="G31">
         <v>0.89607843137254906</v>
@@ -3856,10 +3856,10 @@
         <v>0.68321902205636686</v>
       </c>
       <c r="I31">
-        <v>0.9523954280155642</v>
+        <v>0.84285074338370269</v>
       </c>
       <c r="J31">
-        <v>0.101169630411735</v>
+        <v>0.22129853536666311</v>
       </c>
       <c r="K31">
         <v>2550</v>
@@ -3871,10 +3871,10 @@
         <v>0.98983395057495971</v>
       </c>
       <c r="N31">
-        <v>0.99001098232335594</v>
+        <v>0.7638352827831052</v>
       </c>
       <c r="O31">
-        <v>4.3045803238766361E-2</v>
+        <v>0.25693229201093298</v>
       </c>
       <c r="P31">
         <v>0.89803921568627454</v>
@@ -3883,10 +3883,10 @@
         <v>0.65627595746605949</v>
       </c>
       <c r="R31">
-        <v>0.91284712954744363</v>
+        <v>0.8518158718665324</v>
       </c>
       <c r="S31">
-        <v>0.13143252947395309</v>
+        <v>0.19368495328516899</v>
       </c>
       <c r="T31">
         <v>2550</v>
@@ -3898,10 +3898,10 @@
         <v>0.98996461688405224</v>
       </c>
       <c r="W31">
-        <v>0.991357726793613</v>
+        <v>0.76287756647381144</v>
       </c>
       <c r="X31">
-        <v>4.0402387815282277E-2</v>
+        <v>0.26277849792612762</v>
       </c>
       <c r="Y31">
         <v>0.90196078431372551</v>
@@ -3910,10 +3910,10 @@
         <v>0.61126625140524049</v>
       </c>
       <c r="AA31">
-        <v>0.93472184314795814</v>
+        <v>0.88783714870221497</v>
       </c>
       <c r="AB31">
-        <v>0.1095445115010332</v>
+        <v>0.15198976144112411</v>
       </c>
       <c r="AC31">
         <v>2550</v>
@@ -3925,10 +3925,10 @@
         <v>0.98725819750953525</v>
       </c>
       <c r="AF31">
-        <v>0.99159299556719271</v>
+        <v>0.76250633466017914</v>
       </c>
       <c r="AG31">
-        <v>3.9852669849304287E-2</v>
+        <v>0.26566486227204122</v>
       </c>
       <c r="AH31">
         <v>0.8784313725490196</v>
@@ -3937,10 +3937,10 @@
         <v>0.59780765446463735</v>
       </c>
       <c r="AJ31">
-        <v>0.9075376027951767</v>
+        <v>0.90303130918139907</v>
       </c>
       <c r="AK31">
-        <v>0.13045921908066621</v>
+        <v>0.1326161832783759</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -3957,10 +3957,10 @@
         <v>0.99281315782376289</v>
       </c>
       <c r="E32">
-        <v>0.99279336019012898</v>
+        <v>0.77950107566632931</v>
       </c>
       <c r="F32">
-        <v>3.6028834606144602E-2</v>
+        <v>0.23721768572328419</v>
       </c>
       <c r="G32">
         <v>0.90192307692307694</v>
@@ -3969,10 +3969,10 @@
         <v>0.70335723381177928</v>
       </c>
       <c r="I32">
-        <v>0.93248918605575637</v>
+        <v>0.78684190486514138</v>
       </c>
       <c r="J32">
-        <v>0.1195343529637465</v>
+        <v>0.26674279067447931</v>
       </c>
       <c r="K32">
         <v>2600</v>
@@ -3984,10 +3984,10 @@
         <v>0.98978695407154915</v>
       </c>
       <c r="N32">
-        <v>0.99103877803277673</v>
+        <v>0.75991136329027631</v>
       </c>
       <c r="O32">
-        <v>4.0549115517243647E-2</v>
+        <v>0.25995358792260592</v>
       </c>
       <c r="P32">
         <v>0.88846153846153841</v>
@@ -3996,10 +3996,10 @@
         <v>0.64990091690627394</v>
       </c>
       <c r="R32">
-        <v>0.91909161954672913</v>
+        <v>0.89296681595010319</v>
       </c>
       <c r="S32">
-        <v>0.12679480697932019</v>
+        <v>0.15684880800781931</v>
       </c>
       <c r="T32">
         <v>2600</v>
@@ -4011,10 +4011,10 @@
         <v>0.98644823974843587</v>
       </c>
       <c r="W32">
-        <v>0.98824201393197264</v>
+        <v>0.75720338366389706</v>
       </c>
       <c r="X32">
-        <v>4.6045546013619043E-2</v>
+        <v>0.26073993619163821</v>
       </c>
       <c r="Y32">
         <v>0.89807692307692311</v>
@@ -4023,10 +4023,10 @@
         <v>0.65047502724233797</v>
       </c>
       <c r="AA32">
-        <v>0.91507087963808531</v>
+        <v>0.87985945689420886</v>
       </c>
       <c r="AB32">
-        <v>0.13373337423625931</v>
+        <v>0.16800529794297939</v>
       </c>
       <c r="AC32">
         <v>2600</v>
@@ -4038,10 +4038,10 @@
         <v>0.98940672159416443</v>
       </c>
       <c r="AF32">
-        <v>0.99094406687005232</v>
+        <v>0.77160053675651041</v>
       </c>
       <c r="AG32">
-        <v>4.2119335957947653E-2</v>
+        <v>0.26001016024042828</v>
       </c>
       <c r="AH32">
         <v>0.91153846153846152</v>
@@ -4050,10 +4050,10 @@
         <v>0.77697182568870915</v>
       </c>
       <c r="AJ32">
-        <v>0.94281062866411491</v>
+        <v>0.90277961248806271</v>
       </c>
       <c r="AK32">
-        <v>9.2091092027238058E-2</v>
+        <v>0.12878302060160349</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -4070,10 +4070,10 @@
         <v>0.98947167626472843</v>
       </c>
       <c r="E33">
-        <v>0.99205954735448509</v>
+        <v>0.77371001207856049</v>
       </c>
       <c r="F33">
-        <v>3.85467126562535E-2</v>
+        <v>0.2494455084232374</v>
       </c>
       <c r="G33">
         <v>0.89245283018867927</v>
@@ -4082,10 +4082,10 @@
         <v>0.66767183167193089</v>
       </c>
       <c r="I33">
-        <v>0.92364143892665795</v>
+        <v>0.82843118288844375</v>
       </c>
       <c r="J33">
-        <v>0.12037676701812459</v>
+        <v>0.20782043298477551</v>
       </c>
       <c r="K33">
         <v>2650</v>
@@ -4097,10 +4097,10 @@
         <v>0.99155529534355646</v>
       </c>
       <c r="N33">
-        <v>0.99214941153987124</v>
+        <v>0.76237790567355135</v>
       </c>
       <c r="O33">
-        <v>3.7992054780112833E-2</v>
+        <v>0.25818133950486682</v>
       </c>
       <c r="P33">
         <v>0.88301886792452833</v>
@@ -4109,10 +4109,10 @@
         <v>0.70472554848117075</v>
       </c>
       <c r="R33">
-        <v>0.90465265220078184</v>
+        <v>0.88066540020878725</v>
       </c>
       <c r="S33">
-        <v>0.13906697178521371</v>
+        <v>0.16553792792378541</v>
       </c>
       <c r="T33">
         <v>2650</v>
@@ -4124,10 +4124,10 @@
         <v>0.98739156990768451</v>
       </c>
       <c r="W33">
-        <v>0.98926791289372074</v>
+        <v>0.76097871590494237</v>
       </c>
       <c r="X33">
-        <v>4.419083828894E-2</v>
+        <v>0.25796277231849041</v>
       </c>
       <c r="Y33">
         <v>0.89811320754716983</v>
@@ -4136,10 +4136,10 @@
         <v>0.6921937719926532</v>
       </c>
       <c r="AA33">
-        <v>0.93306665806533973</v>
+        <v>0.89182913062509162</v>
       </c>
       <c r="AB33">
-        <v>0.1181620249951032</v>
+        <v>0.16006056590840059</v>
       </c>
       <c r="AC33">
         <v>2650</v>
@@ -4151,10 +4151,10 @@
         <v>0.99095992882036943</v>
       </c>
       <c r="AF33">
-        <v>0.99218055457783216</v>
+        <v>0.76941381761377403</v>
       </c>
       <c r="AG33">
-        <v>3.85467126562535E-2</v>
+        <v>0.25922828703493772</v>
       </c>
       <c r="AH33">
         <v>0.90566037735849059</v>
@@ -4163,10 +4163,10 @@
         <v>0.69474061732450987</v>
       </c>
       <c r="AJ33">
-        <v>0.94940267294625103</v>
+        <v>0.92396926134150437</v>
       </c>
       <c r="AK33">
-        <v>9.4868329805051374E-2</v>
+        <v>0.1186990596738018</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.3">
@@ -4183,10 +4183,10 @@
         <v>0.98947065805529699</v>
       </c>
       <c r="E34">
-        <v>0.9905983738691907</v>
+        <v>0.93168936992085394</v>
       </c>
       <c r="F34">
-        <v>4.1833001326703777E-2</v>
+        <v>0.1186096825873249</v>
       </c>
       <c r="G34">
         <v>0.90370370370370368</v>
@@ -4195,10 +4195,10 @@
         <v>0.70222442666150053</v>
       </c>
       <c r="I34">
-        <v>0.91779852937623563</v>
+        <v>0.55288527888945327</v>
       </c>
       <c r="J34">
-        <v>0.12457334593932411</v>
+        <v>0.47942890150570899</v>
       </c>
       <c r="K34">
         <v>2700</v>
@@ -4210,10 +4210,10 @@
         <v>0.98751461392224749</v>
       </c>
       <c r="N34">
-        <v>0.98829585985549284</v>
+        <v>0.76027969222893477</v>
       </c>
       <c r="O34">
-        <v>4.564354645876384E-2</v>
+        <v>0.25353881066994011</v>
       </c>
       <c r="P34">
         <v>0.9018518518518519</v>
@@ -4222,10 +4222,10 @@
         <v>0.73207408456798495</v>
       </c>
       <c r="R34">
-        <v>0.92062469292911397</v>
+        <v>0.88731937351570589</v>
       </c>
       <c r="S34">
-        <v>0.13256724359386099</v>
+        <v>0.17337580535154279</v>
       </c>
       <c r="T34">
         <v>2700</v>
@@ -4237,10 +4237,10 @@
         <v>0.98824366534950447</v>
       </c>
       <c r="W34">
-        <v>0.99038486495214972</v>
+        <v>0.76450768362707966</v>
       </c>
       <c r="X34">
-        <v>4.1833001326703777E-2</v>
+        <v>0.25618666003312812</v>
       </c>
       <c r="Y34">
         <v>0.91296296296296298</v>
@@ -4249,10 +4249,10 @@
         <v>0.66546835925183334</v>
       </c>
       <c r="AA34">
-        <v>0.94258797150193485</v>
+        <v>0.88949989702078791</v>
       </c>
       <c r="AB34">
-        <v>0.1084401183107952</v>
+        <v>0.15743042791818929</v>
       </c>
       <c r="AC34">
         <v>2700</v>
@@ -4264,10 +4264,10 @@
         <v>0.9862976823917009</v>
       </c>
       <c r="AF34">
-        <v>0.98930147150114534</v>
+        <v>0.77475582453554503</v>
       </c>
       <c r="AG34">
-        <v>4.564354645876384E-2</v>
+        <v>0.25781231854298209</v>
       </c>
       <c r="AH34">
         <v>0.91111111111111109</v>
@@ -4276,10 +4276,10 @@
         <v>0.63512685110881839</v>
       </c>
       <c r="AJ34">
-        <v>0.93272270478747954</v>
+        <v>0.90175831980779675</v>
       </c>
       <c r="AK34">
-        <v>0.10147066717183</v>
+        <v>0.1240653789461522</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
@@ -4296,10 +4296,10 @@
         <v>0.99190178592120382</v>
       </c>
       <c r="E35">
-        <v>0.99322589001883477</v>
+        <v>0.90112538077331827</v>
       </c>
       <c r="F35">
-        <v>3.5032452487268537E-2</v>
+        <v>0.14451617191337579</v>
       </c>
       <c r="G35">
         <v>0.9</v>
@@ -4308,10 +4308,10 @@
         <v>0.70485661142587053</v>
       </c>
       <c r="I35">
-        <v>0.92997310190017501</v>
+        <v>0.59143306530259387</v>
       </c>
       <c r="J35">
-        <v>0.1200757336774663</v>
+        <v>0.44442607763540221</v>
       </c>
       <c r="K35">
         <v>2750</v>
@@ -4323,10 +4323,10 @@
         <v>0.98962770254666776</v>
       </c>
       <c r="N35">
-        <v>0.99005973061322283</v>
+        <v>0.76530834433148076</v>
       </c>
       <c r="O35">
-        <v>4.2426406871192847E-2</v>
+        <v>0.25282896283327072</v>
       </c>
       <c r="P35">
         <v>0.91454545454545455</v>
@@ -4335,10 +4335,10 @@
         <v>0.71513102466782874</v>
       </c>
       <c r="R35">
-        <v>0.91838912277550933</v>
+        <v>0.88464932922070405</v>
       </c>
       <c r="S35">
-        <v>0.12982505711358441</v>
+        <v>0.1664285970964742</v>
       </c>
       <c r="T35">
         <v>2750</v>
@@ -4350,10 +4350,10 @@
         <v>0.99173131336884912</v>
       </c>
       <c r="W35">
-        <v>0.99333843519633935</v>
+        <v>0.77517921844009674</v>
       </c>
       <c r="X35">
-        <v>3.4443629837222968E-2</v>
+        <v>0.2390927589432601</v>
       </c>
       <c r="Y35">
         <v>0.91636363636363638</v>
@@ -4362,10 +4362,10 @@
         <v>0.70784368230196004</v>
       </c>
       <c r="AA35">
-        <v>0.93551779122760226</v>
+        <v>0.81759922048530931</v>
       </c>
       <c r="AB35">
-        <v>0.1186285263868993</v>
+        <v>0.23856164705915461</v>
       </c>
       <c r="AC35">
         <v>2750</v>
@@ -4377,10 +4377,10 @@
         <v>0.98941050134750375</v>
       </c>
       <c r="AF35">
-        <v>0.99136225808576917</v>
+        <v>0.77616394934206512</v>
       </c>
       <c r="AG35">
-        <v>4.0954520230039662E-2</v>
+        <v>0.25639284810840057</v>
       </c>
       <c r="AH35">
         <v>0.91636363636363638</v>
@@ -4389,10 +4389,10 @@
         <v>0.68345916389998806</v>
       </c>
       <c r="AJ35">
-        <v>0.94436905233523549</v>
+        <v>0.92391196120381414</v>
       </c>
       <c r="AK35">
-        <v>9.2244733774296886E-2</v>
+        <v>0.1079253670274638</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -4409,10 +4409,10 @@
         <v>0.99273905133847862</v>
       </c>
       <c r="E36">
-        <v>0.99244941083780747</v>
+        <v>0.9286900117063176</v>
       </c>
       <c r="F36">
-        <v>3.6960403522843591E-2</v>
+        <v>0.1190711444710469</v>
       </c>
       <c r="G36">
         <v>0.88571428571428568</v>
@@ -4421,10 +4421,10 @@
         <v>0.65218703112478127</v>
       </c>
       <c r="I36">
-        <v>0.91565534986827235</v>
+        <v>0.57860980493164926</v>
       </c>
       <c r="J36">
-        <v>0.13296078906418771</v>
+        <v>0.47597857620769018</v>
       </c>
       <c r="K36">
         <v>2800</v>
@@ -4436,10 +4436,10 @@
         <v>0.99126714956597761</v>
       </c>
       <c r="N36">
-        <v>0.9920915042251871</v>
+        <v>0.76709825371221685</v>
       </c>
       <c r="O36">
-        <v>3.8031941462783249E-2</v>
+        <v>0.25383276527324938</v>
       </c>
       <c r="P36">
         <v>0.88749999999999996</v>
@@ -4448,10 +4448,10 @@
         <v>0.72909332075419697</v>
       </c>
       <c r="R36">
-        <v>0.91418864488108997</v>
+        <v>0.89935768631284851</v>
       </c>
       <c r="S36">
-        <v>0.13228756555322951</v>
+        <v>0.1529738687010411</v>
       </c>
       <c r="T36">
         <v>2800</v>
@@ -4463,10 +4463,10 @@
         <v>0.99058823941250507</v>
       </c>
       <c r="W36">
-        <v>0.99098260586076947</v>
+        <v>0.77169416921468037</v>
       </c>
       <c r="X36">
-        <v>4.1079191812887467E-2</v>
+        <v>0.25432581159520951</v>
       </c>
       <c r="Y36">
         <v>0.8928571428571429</v>
@@ -4475,10 +4475,10 @@
         <v>0.67137829993598008</v>
       </c>
       <c r="AA36">
-        <v>0.93886299940339146</v>
+        <v>0.89305622659892614</v>
       </c>
       <c r="AB36">
-        <v>0.10682094497669591</v>
+        <v>0.1483236097509846</v>
       </c>
       <c r="AC36">
         <v>2800</v>
@@ -4490,10 +4490,10 @@
         <v>0.9884299979675315</v>
       </c>
       <c r="AF36">
-        <v>0.9912965600041963</v>
+        <v>0.77634875812522097</v>
       </c>
       <c r="AG36">
-        <v>4.1079191812887467E-2</v>
+        <v>0.25701741791546201</v>
       </c>
       <c r="AH36">
         <v>0.89821428571428574</v>
@@ -4502,10 +4502,10 @@
         <v>0.62855336939818995</v>
       </c>
       <c r="AJ36">
-        <v>0.90611078199466977</v>
+        <v>0.90207441995783377</v>
       </c>
       <c r="AK36">
-        <v>0.1223285972873298</v>
+        <v>0.1238512675263204</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.3">
@@ -4522,10 +4522,10 @@
         <v>0.99065227009700085</v>
       </c>
       <c r="E37">
-        <v>0.99237517688630739</v>
+        <v>0.9288099676096111</v>
       </c>
       <c r="F37">
-        <v>3.7696851746252598E-2</v>
+        <v>0.1211241440063278</v>
       </c>
       <c r="G37">
         <v>0.90701754385964917</v>
@@ -4534,10 +4534,10 @@
         <v>0.71059731421301442</v>
       </c>
       <c r="I37">
-        <v>0.91023794222791521</v>
+        <v>0.56436934400344851</v>
       </c>
       <c r="J37">
-        <v>0.130921162831656</v>
+        <v>0.46997831650256888</v>
       </c>
       <c r="K37">
         <v>2850</v>
@@ -4549,10 +4549,10 @@
         <v>0.99049226586262162</v>
       </c>
       <c r="N37">
-        <v>0.9915427827212292</v>
+        <v>0.77422671654823372</v>
       </c>
       <c r="O37">
-        <v>3.9735970711951313E-2</v>
+        <v>0.25207291676162458</v>
       </c>
       <c r="P37">
         <v>0.9</v>
@@ -4561,10 +4561,10 @@
         <v>0.73862486405455163</v>
       </c>
       <c r="R37">
-        <v>0.90923354721082716</v>
+        <v>0.88389201656504546</v>
       </c>
       <c r="S37">
-        <v>0.13118889555061231</v>
+        <v>0.15485557209028761</v>
       </c>
       <c r="T37">
         <v>2850</v>
@@ -4576,10 +4576,10 @@
         <v>0.98753574764240271</v>
       </c>
       <c r="W37">
-        <v>0.98862005875681014</v>
+        <v>0.77024078689113784</v>
       </c>
       <c r="X37">
-        <v>4.5739537198772523E-2</v>
+        <v>0.24992187787914191</v>
       </c>
       <c r="Y37">
         <v>0.89473684210526316</v>
@@ -4588,10 +4588,10 @@
         <v>0.66251904407053652</v>
       </c>
       <c r="AA37">
-        <v>0.93641881536683769</v>
+        <v>0.8829043525220911</v>
       </c>
       <c r="AB37">
-        <v>0.1130905552387578</v>
+        <v>0.16936971632345149</v>
       </c>
       <c r="AC37">
         <v>2850</v>
@@ -4603,10 +4603,10 @@
         <v>0.9899206179207336</v>
       </c>
       <c r="AF37">
-        <v>0.99244861263549822</v>
+        <v>0.77188415555109313</v>
       </c>
       <c r="AG37">
-        <v>3.7169597083751407E-2</v>
+        <v>0.24902898670221491</v>
       </c>
       <c r="AH37">
         <v>0.89473684210526316</v>
@@ -4615,10 +4615,10 @@
         <v>0.69054823034252222</v>
       </c>
       <c r="AJ37">
-        <v>0.91128663477025573</v>
+        <v>0.8726428414174745</v>
       </c>
       <c r="AK37">
-        <v>0.1347512327841274</v>
+        <v>0.17662448966954339</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.3">
@@ -4635,10 +4635,10 @@
         <v>0.99169229049708496</v>
       </c>
       <c r="E38">
-        <v>0.99169369668045004</v>
+        <v>0.89484986401400812</v>
       </c>
       <c r="F38">
-        <v>3.8896414159698051E-2</v>
+        <v>0.1510524952447562</v>
       </c>
       <c r="G38">
         <v>0.8844827586206897</v>
@@ -4647,10 +4647,10 @@
         <v>0.67753926664982222</v>
       </c>
       <c r="I38">
-        <v>0.91455933312947946</v>
+        <v>0.59738929135431407</v>
       </c>
       <c r="J38">
-        <v>0.13409980842898189</v>
+        <v>0.42978893911022042</v>
       </c>
       <c r="K38">
         <v>2900</v>
@@ -4662,10 +4662,10 @@
         <v>0.98930143004689197</v>
       </c>
       <c r="N38">
-        <v>0.99032006346139301</v>
+        <v>0.77301199276399701</v>
       </c>
       <c r="O38">
-        <v>4.2243138598128463E-2</v>
+        <v>0.2495267090397959</v>
       </c>
       <c r="P38">
         <v>0.88275862068965516</v>
@@ -4674,10 +4674,10 @@
         <v>0.691249587290241</v>
       </c>
       <c r="R38">
-        <v>0.90927669239045661</v>
+        <v>0.88997491062130885</v>
       </c>
       <c r="S38">
-        <v>0.13531572276563511</v>
+        <v>0.15919005554293439</v>
       </c>
       <c r="T38">
         <v>2900</v>
@@ -4689,10 +4689,10 @@
         <v>0.99077917258656767</v>
       </c>
       <c r="W38">
-        <v>0.992061567366334</v>
+        <v>0.78518951002779769</v>
       </c>
       <c r="X38">
-        <v>3.788594498737239E-2</v>
+        <v>0.23648153840270281</v>
       </c>
       <c r="Y38">
         <v>0.90517241379310343</v>
@@ -4701,10 +4701,10 @@
         <v>0.65525913045686379</v>
       </c>
       <c r="AA38">
-        <v>0.92709193742369111</v>
+        <v>0.81272099310751011</v>
       </c>
       <c r="AB38">
-        <v>0.1251895115139581</v>
+        <v>0.23090278804969111</v>
       </c>
       <c r="AC38">
         <v>2900</v>
@@ -4716,10 +4716,10 @@
         <v>0.98790041466961998</v>
       </c>
       <c r="AF38">
-        <v>0.99071072185103448</v>
+        <v>0.77962778921358533</v>
       </c>
       <c r="AG38">
-        <v>4.2243138598128463E-2</v>
+        <v>0.25300576378817508</v>
       </c>
       <c r="AH38">
         <v>0.89655172413793105</v>
@@ -4728,10 +4728,10 @@
         <v>0.61179067789348718</v>
       </c>
       <c r="AJ38">
-        <v>0.9097384548454468</v>
+        <v>0.89634127871276126</v>
       </c>
       <c r="AK38">
-        <v>0.123874241011628</v>
+        <v>0.13042750932357811</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.3">
@@ -4748,10 +4748,10 @@
         <v>0.98503784006292461</v>
       </c>
       <c r="E39">
-        <v>0.98982803439695188</v>
+        <v>0.9424996976897787</v>
       </c>
       <c r="F39">
-        <v>4.2784441968737548E-2</v>
+        <v>0.1036362021938161</v>
       </c>
       <c r="G39">
         <v>0.8915254237288136</v>
@@ -4760,10 +4760,10 @@
         <v>0.67051632700934305</v>
       </c>
       <c r="I39">
-        <v>0.92913598931365671</v>
+        <v>0.60528751661146529</v>
       </c>
       <c r="J39">
-        <v>0.12881467439303271</v>
+        <v>0.49290889268069149</v>
       </c>
       <c r="K39">
         <v>2950</v>
@@ -4775,10 +4775,10 @@
         <v>0.99240743455942815</v>
       </c>
       <c r="N39">
-        <v>0.9936731035942995</v>
+        <v>0.77914403564992851</v>
       </c>
       <c r="O39">
-        <v>3.4933350584374918E-2</v>
+        <v>0.25482367462816508</v>
       </c>
       <c r="P39">
         <v>0.9</v>
@@ -4787,10 +4787,10 @@
         <v>0.70939262435721606</v>
       </c>
       <c r="R39">
-        <v>0.90898253198679246</v>
+        <v>0.89180742274728531</v>
       </c>
       <c r="S39">
-        <v>0.1289461850698492</v>
+        <v>0.14301267632757109</v>
       </c>
       <c r="T39">
         <v>2950</v>
@@ -4802,10 +4802,10 @@
         <v>0.98422763279906766</v>
       </c>
       <c r="W39">
-        <v>0.98780183144818789</v>
+        <v>0.78668730280491639</v>
       </c>
       <c r="X39">
-        <v>4.7834460310746049E-2</v>
+        <v>0.2412993104005938</v>
       </c>
       <c r="Y39">
         <v>0.90508474576271192</v>
@@ -4814,10 +4814,10 @@
         <v>0.6821769842145764</v>
       </c>
       <c r="AA39">
-        <v>0.93561403488957806</v>
+        <v>0.82950061699846767</v>
       </c>
       <c r="AB39">
-        <v>0.11446263545478159</v>
+        <v>0.21579505853684081</v>
       </c>
       <c r="AC39">
         <v>2950</v>
@@ -4829,10 +4829,10 @@
         <v>0.98954755275453243</v>
       </c>
       <c r="AF39">
-        <v>0.99195443960755725</v>
+        <v>0.78109724562691674</v>
       </c>
       <c r="AG39">
-        <v>3.9541867963386587E-2</v>
+        <v>0.254810628468159</v>
       </c>
       <c r="AH39">
         <v>0.88644067796610171</v>
@@ -4841,10 +4841,10 @@
         <v>0.65088420837326155</v>
       </c>
       <c r="AJ39">
-        <v>0.92769283911563372</v>
+        <v>0.91103633726928257</v>
       </c>
       <c r="AK39">
-        <v>0.1131221029219822</v>
+        <v>0.1262216627736473</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
@@ -4861,10 +4861,10 @@
         <v>0.99193291961010444</v>
       </c>
       <c r="E40">
-        <v>0.99232879381004302</v>
+        <v>0.9129593522866144</v>
       </c>
       <c r="F40">
-        <v>3.7249161064378353E-2</v>
+        <v>0.13395518987307339</v>
       </c>
       <c r="G40">
         <v>0.89833333333333332</v>
@@ -4873,10 +4873,10 @@
         <v>0.68986620342700977</v>
       </c>
       <c r="I40">
-        <v>0.92043613757997023</v>
+        <v>0.61060421612419602</v>
       </c>
       <c r="J40">
-        <v>0.13472193585307479</v>
+        <v>0.4541703573032958</v>
       </c>
       <c r="K40">
         <v>3000</v>
@@ -4888,10 +4888,10 @@
         <v>0.99041396517773372</v>
       </c>
       <c r="N40">
-        <v>0.99073488468376947</v>
+        <v>0.78064331778645468</v>
       </c>
       <c r="O40">
-        <v>4.1533119314590368E-2</v>
+        <v>0.24713851820028709</v>
       </c>
       <c r="P40">
         <v>0.89500000000000002</v>
@@ -4900,10 +4900,10 @@
         <v>0.67888452342685834</v>
       </c>
       <c r="R40">
-        <v>0.91943004934842465</v>
+        <v>0.86576523291802987</v>
       </c>
       <c r="S40">
-        <v>0.12922847983320079</v>
+        <v>0.18072590163992089</v>
       </c>
       <c r="T40">
         <v>3000</v>
@@ -4915,10 +4915,10 @@
         <v>0.98811114987048754</v>
       </c>
       <c r="W40">
-        <v>0.99071686224091493</v>
+        <v>0.77948720515447489</v>
       </c>
       <c r="X40">
-        <v>4.1982139059366673E-2</v>
+        <v>0.25100701540081732</v>
       </c>
       <c r="Y40">
         <v>0.91166666666666663</v>
@@ -4927,10 +4927,10 @@
         <v>0.65149083188701051</v>
       </c>
       <c r="AA40">
-        <v>0.95777274396135126</v>
+        <v>0.91580683598137647</v>
       </c>
       <c r="AB40">
-        <v>9.0277350426338943E-2</v>
+        <v>0.13440666913349469</v>
       </c>
       <c r="AC40">
         <v>3000</v>
@@ -4942,10 +4942,10 @@
         <v>0.98838195709450039</v>
       </c>
       <c r="AF40">
-        <v>0.9916620512301958</v>
+        <v>0.78340292338629225</v>
       </c>
       <c r="AG40">
-        <v>4.0155946010522532E-2</v>
+        <v>0.25019880515475362</v>
       </c>
       <c r="AH40">
         <v>0.90333333333333332</v>
@@ -4954,10 +4954,10 @@
         <v>0.66532633973050348</v>
       </c>
       <c r="AJ40">
-        <v>0.91680656593919041</v>
+        <v>0.87415437624047232</v>
       </c>
       <c r="AK40">
-        <v>0.1219289410544792</v>
+        <v>0.15906070067322331</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
@@ -4974,10 +4974,10 @@
         <v>0.98825446056909172</v>
       </c>
       <c r="E41">
-        <v>0.990256343183611</v>
+        <v>0.78054140735021482</v>
       </c>
       <c r="F41">
-        <v>4.2513257334393088E-2</v>
+        <v>0.24548549808171249</v>
       </c>
       <c r="G41">
         <v>0.88688524590163931</v>
@@ -4986,10 +4986,10 @@
         <v>0.65794540657521527</v>
       </c>
       <c r="I41">
-        <v>0.92211243719588543</v>
+        <v>0.87913940724490858</v>
       </c>
       <c r="J41">
-        <v>0.12848422751961219</v>
+        <v>0.17498925744609189</v>
       </c>
       <c r="K41">
         <v>3050</v>
@@ -5001,10 +5001,10 @@
         <v>0.9873583109136439</v>
       </c>
       <c r="N41">
-        <v>0.98892337833775013</v>
+        <v>0.77918953056831042</v>
       </c>
       <c r="O41">
-        <v>4.5852579168389682E-2</v>
+        <v>0.25125197665034238</v>
       </c>
       <c r="P41">
         <v>0.90327868852459015</v>
@@ -5013,10 +5013,10 @@
         <v>0.67884457160376954</v>
       </c>
       <c r="R41">
-        <v>0.91220335795658869</v>
+        <v>0.89874475355150252</v>
       </c>
       <c r="S41">
-        <v>0.1310111996213664</v>
+        <v>0.1454254154637365</v>
       </c>
       <c r="T41">
         <v>3050</v>
@@ -5028,10 +5028,10 @@
         <v>0.98883330412979564</v>
       </c>
       <c r="W41">
-        <v>0.99097226037178621</v>
+        <v>0.78308018877177177</v>
       </c>
       <c r="X41">
-        <v>4.1191277128482071E-2</v>
+        <v>0.2439534977841844</v>
       </c>
       <c r="Y41">
         <v>0.91147540983606556</v>
@@ -5040,10 +5040,10 @@
         <v>0.75311680350301047</v>
       </c>
       <c r="AA41">
-        <v>0.95450163349248873</v>
+        <v>0.88919291842003512</v>
       </c>
       <c r="AB41">
-        <v>9.5984971501263477E-2</v>
+        <v>0.1678653818315653</v>
       </c>
       <c r="AC41">
         <v>3050</v>
@@ -5055,10 +5055,10 @@
         <v>0.98788320959216802</v>
       </c>
       <c r="AF41">
-        <v>0.99120154881170219</v>
+        <v>0.78395535767346869</v>
       </c>
       <c r="AG41">
-        <v>4.1191277128482071E-2</v>
+        <v>0.25191127182528078</v>
       </c>
       <c r="AH41">
         <v>0.88688524590163931</v>
@@ -5067,10 +5067,10 @@
         <v>0.69499866588525561</v>
       </c>
       <c r="AJ41">
-        <v>0.92355240980305675</v>
+        <v>0.90771273785004691</v>
       </c>
       <c r="AK41">
-        <v>0.11839085033322019</v>
+        <v>0.1277753254737469</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
@@ -5087,10 +5087,10 @@
         <v>0.99213867992992699</v>
       </c>
       <c r="E42">
-        <v>0.9931481593278193</v>
+        <v>0.78268481588186944</v>
       </c>
       <c r="F42">
-        <v>3.563932224836186E-2</v>
+        <v>0.24175418286900741</v>
       </c>
       <c r="G42">
         <v>0.89838709677419359</v>
@@ -5099,10 +5099,10 @@
         <v>0.66211239042254721</v>
       </c>
       <c r="I42">
-        <v>0.91344863661073405</v>
+        <v>0.83133779168646771</v>
       </c>
       <c r="J42">
-        <v>0.13350123836564701</v>
+        <v>0.2109782452108985</v>
       </c>
       <c r="K42">
         <v>3100</v>
@@ -5114,10 +5114,10 @@
         <v>0.98739797228877857</v>
       </c>
       <c r="N42">
-        <v>0.98929829799940283</v>
+        <v>0.78290436544648878</v>
       </c>
       <c r="O42">
-        <v>4.5080573027814652E-2</v>
+        <v>0.24860068598901189</v>
       </c>
       <c r="P42">
         <v>0.91935483870967738</v>
@@ -5126,10 +5126,10 @@
         <v>0.734975049084716</v>
       </c>
       <c r="R42">
-        <v>0.91705681019318153</v>
+        <v>0.89121431387864836</v>
       </c>
       <c r="S42">
-        <v>0.1247578299307593</v>
+        <v>0.14765731516133551</v>
       </c>
       <c r="T42">
         <v>3100</v>
@@ -5141,10 +5141,10 @@
         <v>0.98796670334105485</v>
       </c>
       <c r="W42">
-        <v>0.99136558813565268</v>
+        <v>0.77980289730815255</v>
       </c>
       <c r="X42">
-        <v>3.9959657074959833E-2</v>
+        <v>0.24534500454169489</v>
       </c>
       <c r="Y42">
         <v>0.91290322580645167</v>
@@ -5153,10 +5153,10 @@
         <v>0.71122251629273892</v>
       </c>
       <c r="AA42">
-        <v>0.95375117580959579</v>
+        <v>0.90536841437052173</v>
       </c>
       <c r="AB42">
-        <v>9.7963126703614289E-2</v>
+        <v>0.1525478285204194</v>
       </c>
       <c r="AC42">
         <v>3100</v>
@@ -5168,10 +5168,10 @@
         <v>0.99337571493901433</v>
       </c>
       <c r="AF42">
-        <v>0.99422007809477098</v>
+        <v>0.78698702640806673</v>
       </c>
       <c r="AG42">
-        <v>3.3541019662496847E-2</v>
+        <v>0.24994262348548521</v>
       </c>
       <c r="AH42">
         <v>0.89032258064516134</v>
@@ -5180,10 +5180,10 @@
         <v>0.63250578190926166</v>
       </c>
       <c r="AJ42">
-        <v>0.92606853065749517</v>
+        <v>0.91253536564935089</v>
       </c>
       <c r="AK42">
-        <v>0.1117312443667479</v>
+        <v>0.1207048645939085</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>0.98949332353277453</v>
       </c>
       <c r="E43">
-        <v>0.9904779432357389</v>
+        <v>0.78477855863346702</v>
       </c>
       <c r="F43">
-        <v>4.2678197846541872E-2</v>
+        <v>0.2468850868361131</v>
       </c>
       <c r="G43">
         <v>0.90952380952380951</v>
@@ -5212,10 +5212,10 @@
         <v>0.7362274035683336</v>
       </c>
       <c r="I43">
-        <v>0.91124034333575987</v>
+        <v>0.88867362494720548</v>
       </c>
       <c r="J43">
-        <v>0.1271169939808606</v>
+        <v>0.14885547632731611</v>
       </c>
       <c r="K43">
         <v>3150</v>
@@ -5227,10 +5227,10 @@
         <v>0.98876363975688686</v>
       </c>
       <c r="N43">
-        <v>0.99040411179240229</v>
+        <v>0.78150692031993629</v>
       </c>
       <c r="O43">
-        <v>4.2257712736425833E-2</v>
+        <v>0.24781328769002939</v>
       </c>
       <c r="P43">
         <v>0.9</v>
@@ -5239,10 +5239,10 @@
         <v>0.707051040334431</v>
       </c>
       <c r="R43">
-        <v>0.92478472612586615</v>
+        <v>0.91015046908223429</v>
       </c>
       <c r="S43">
-        <v>0.12344267996967349</v>
+        <v>0.13655267374067109</v>
       </c>
       <c r="T43">
         <v>3150</v>
@@ -5254,10 +5254,10 @@
         <v>0.99251873927306211</v>
       </c>
       <c r="W43">
-        <v>0.99266030793935911</v>
+        <v>0.79374778696683612</v>
       </c>
       <c r="X43">
-        <v>3.6839419880650363E-2</v>
+        <v>0.23326605033317729</v>
       </c>
       <c r="Y43">
         <v>0.89047619047619042</v>
@@ -5266,10 +5266,10 @@
         <v>0.67366686612765314</v>
       </c>
       <c r="AA43">
-        <v>0.93130842549698512</v>
+        <v>0.83506495499007682</v>
       </c>
       <c r="AB43">
-        <v>0.11945644088889169</v>
+        <v>0.21347793015830621</v>
       </c>
       <c r="AC43">
         <v>3150</v>
@@ -5281,10 +5281,10 @@
         <v>0.99159210237701101</v>
       </c>
       <c r="AF43">
-        <v>0.99226274489534039</v>
+        <v>0.7849306158954199</v>
       </c>
       <c r="AG43">
-        <v>3.8265986388511072E-2</v>
+        <v>0.24511304002884141</v>
       </c>
       <c r="AH43">
         <v>0.88412698412698409</v>
@@ -5293,10 +5293,10 @@
         <v>0.6598448249290132</v>
       </c>
       <c r="AJ43">
-        <v>0.92811071972581871</v>
+        <v>0.89611457751236678</v>
       </c>
       <c r="AK43">
-        <v>0.1170402182944508</v>
+        <v>0.14930487868040501</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -5313,10 +5313,10 @@
         <v>0.98913294355721781</v>
       </c>
       <c r="E44">
-        <v>0.9897580628830045</v>
+        <v>0.79283889339830316</v>
       </c>
       <c r="F44">
-        <v>4.3571062644833437E-2</v>
+        <v>0.23136682024864089</v>
       </c>
       <c r="G44">
         <v>0.90156250000000004</v>
@@ -5325,10 +5325,10 @@
         <v>0.70333936433776156</v>
       </c>
       <c r="I44">
-        <v>0.92723094599770206</v>
+        <v>0.84076965464429032</v>
       </c>
       <c r="J44">
-        <v>0.1206104265807894</v>
+        <v>0.21353619595743301</v>
       </c>
       <c r="K44">
         <v>3200</v>
@@ -5340,10 +5340,10 @@
         <v>0.98657264943338863</v>
       </c>
       <c r="N44">
-        <v>0.99190373366735662</v>
+        <v>0.7838058940129129</v>
       </c>
       <c r="O44">
-        <v>3.8880827537489483E-2</v>
+        <v>0.24480594216452251</v>
       </c>
       <c r="P44">
         <v>0.90312499999999996</v>
@@ -5352,10 +5352,10 @@
         <v>0.67184555162123694</v>
       </c>
       <c r="R44">
-        <v>0.92241898566437774</v>
+        <v>0.89674618480506585</v>
       </c>
       <c r="S44">
-        <v>0.1228566237530561</v>
+        <v>0.14771995003512281</v>
       </c>
       <c r="T44">
         <v>3200</v>
@@ -5367,10 +5367,10 @@
         <v>0.98767561633865797</v>
       </c>
       <c r="W44">
-        <v>0.99047039826513605</v>
+        <v>0.7956338228531068</v>
       </c>
       <c r="X44">
-        <v>4.1926274578121057E-2</v>
+        <v>0.23016702198809641</v>
       </c>
       <c r="Y44">
         <v>0.90468749999999998</v>
@@ -5379,10 +5379,10 @@
         <v>0.72365361490810698</v>
       </c>
       <c r="AA44">
-        <v>0.93548970584640201</v>
+        <v>0.83384738907569833</v>
       </c>
       <c r="AB44">
-        <v>0.1143596301148268</v>
+        <v>0.21649318772111811</v>
       </c>
       <c r="AC44">
         <v>3200</v>
@@ -5394,10 +5394,10 @@
         <v>0.99011979930870542</v>
       </c>
       <c r="AF44">
-        <v>0.99217516880427337</v>
+        <v>0.78896965263782526</v>
       </c>
       <c r="AG44">
-        <v>3.8880827537489483E-2</v>
+        <v>0.24671596844227139</v>
       </c>
       <c r="AH44">
         <v>0.9140625</v>
@@ -5406,10 +5406,10 @@
         <v>0.71853146902530085</v>
       </c>
       <c r="AJ44">
-        <v>0.93391723434820895</v>
+        <v>0.90782305163919497</v>
       </c>
       <c r="AK44">
-        <v>0.10554915916292271</v>
+        <v>0.1237670161053409</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
@@ -5426,10 +5426,10 @@
         <v>0.99119427072292621</v>
       </c>
       <c r="E45">
-        <v>0.99208963152557106</v>
+        <v>0.78389885925263991</v>
       </c>
       <c r="F45">
-        <v>3.8129334558134553E-2</v>
+        <v>0.24089724109775151</v>
       </c>
       <c r="G45">
         <v>0.89230769230769236</v>
@@ -5438,10 +5438,10 @@
         <v>0.66043870108244251</v>
       </c>
       <c r="I45">
-        <v>0.93433803721593278</v>
+        <v>0.90581563666427345</v>
       </c>
       <c r="J45">
-        <v>0.11495818637828541</v>
+        <v>0.14874848109936831</v>
       </c>
       <c r="K45">
         <v>3250</v>
@@ -5453,10 +5453,10 @@
         <v>0.9907151647352872</v>
       </c>
       <c r="N45">
-        <v>0.99067234116329528</v>
+        <v>0.78354930044198778</v>
       </c>
       <c r="O45">
-        <v>4.1184388379018652E-2</v>
+        <v>0.24022963379663981</v>
       </c>
       <c r="P45">
         <v>0.9046153846153846</v>
@@ -5465,10 +5465,10 @@
         <v>0.76506874542370062</v>
       </c>
       <c r="R45">
-        <v>0.93407054197017736</v>
+        <v>0.89314836026151911</v>
       </c>
       <c r="S45">
-        <v>0.11734236561971451</v>
+        <v>0.16100333453971519</v>
       </c>
       <c r="T45">
         <v>3250</v>
@@ -5480,10 +5480,10 @@
         <v>0.99209131181727217</v>
       </c>
       <c r="W45">
-        <v>0.99414115822964111</v>
+        <v>0.7886192029028869</v>
       </c>
       <c r="X45">
-        <v>3.3282011773513753E-2</v>
+        <v>0.24113581942295539</v>
       </c>
       <c r="Y45">
         <v>0.91384615384615386</v>
@@ -5492,10 +5492,10 @@
         <v>0.70593468729512532</v>
       </c>
       <c r="AA45">
-        <v>0.94911298441181235</v>
+        <v>0.90435289613765124</v>
       </c>
       <c r="AB45">
-        <v>9.5756100428279603E-2</v>
+        <v>0.1413273128194498</v>
       </c>
       <c r="AC45">
         <v>3250</v>
@@ -5507,10 +5507,10 @@
         <v>0.99149138129641745</v>
       </c>
       <c r="AF45">
-        <v>0.99221815214828524</v>
+        <v>0.78750339414110726</v>
       </c>
       <c r="AG45">
-        <v>3.812933455813456E-2</v>
+        <v>0.2432832151837433</v>
       </c>
       <c r="AH45">
         <v>0.88461538461538458</v>
@@ -5519,10 +5519,10 @@
         <v>0.62091307135799956</v>
       </c>
       <c r="AJ45">
-        <v>0.92256772821122446</v>
+        <v>0.90266805566373443</v>
       </c>
       <c r="AK45">
-        <v>0.12102129501105929</v>
+        <v>0.1377154175970739</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
@@ -5539,10 +5539,10 @@
         <v>0.99191628297410683</v>
       </c>
       <c r="E46">
-        <v>0.99301957667483753</v>
+        <v>0.78942815788413534</v>
       </c>
       <c r="F46">
-        <v>3.5992423445143917E-2</v>
+        <v>0.23789835465000991</v>
       </c>
       <c r="G46">
         <v>0.87878787878787878</v>
@@ -5551,10 +5551,10 @@
         <v>0.70644704788606294</v>
       </c>
       <c r="I46">
-        <v>0.91207237653283113</v>
+        <v>0.87372183971229611</v>
       </c>
       <c r="J46">
-        <v>0.1314833783711036</v>
+        <v>0.1706583090355708</v>
       </c>
       <c r="K46">
         <v>3300</v>
@@ -5566,10 +5566,10 @@
         <v>0.99093035656378903</v>
       </c>
       <c r="N46">
-        <v>0.99076511314521865</v>
+        <v>0.78154138140535523</v>
       </c>
       <c r="O46">
-        <v>4.0451991747794527E-2</v>
+        <v>0.23854055011909819</v>
       </c>
       <c r="P46">
         <v>0.91515151515151516</v>
@@ -5578,10 +5578,10 @@
         <v>0.76335064538867614</v>
       </c>
       <c r="R46">
-        <v>0.93769161348958963</v>
+        <v>0.89742403080192867</v>
       </c>
       <c r="S46">
-        <v>0.1195952770933297</v>
+        <v>0.1641453763538524</v>
       </c>
       <c r="T46">
         <v>3300</v>
@@ -5593,10 +5593,10 @@
         <v>0.98983056305090378</v>
       </c>
       <c r="W46">
-        <v>0.9891977266124643</v>
+        <v>0.80164670277567085</v>
       </c>
       <c r="X46">
-        <v>4.5226701686664553E-2</v>
+        <v>0.23066756392039589</v>
       </c>
       <c r="Y46">
         <v>0.91212121212121211</v>
@@ -5605,10 +5605,10 @@
         <v>0.69995899377781612</v>
       </c>
       <c r="AA46">
-        <v>0.94815777014559022</v>
+        <v>0.84146042567702195</v>
       </c>
       <c r="AB46">
-        <v>9.6922336919511978E-2</v>
+        <v>0.19177474813849571</v>
       </c>
       <c r="AC46">
         <v>3300</v>
@@ -5620,10 +5620,10 @@
         <v>0.98572540852393398</v>
       </c>
       <c r="AF46">
-        <v>0.98842191300333404</v>
+        <v>0.79288481698522495</v>
       </c>
       <c r="AG46">
-        <v>4.7434164902525687E-2</v>
+        <v>0.2435930512715091</v>
       </c>
       <c r="AH46">
         <v>0.92575757575757578</v>
@@ -5632,10 +5632,10 @@
         <v>0.66574358208802487</v>
       </c>
       <c r="AJ46">
-        <v>0.94092316059391257</v>
+        <v>0.91695437895051723</v>
       </c>
       <c r="AK46">
-        <v>9.7855799908628693E-2</v>
+        <v>0.1151038131659108</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
@@ -5652,10 +5652,10 @@
         <v>0.99268072312011846</v>
       </c>
       <c r="E47">
-        <v>0.99229532519175445</v>
+        <v>0.81270504495936957</v>
       </c>
       <c r="F47">
-        <v>3.8439718265077173E-2</v>
+        <v>0.2199481648781173</v>
       </c>
       <c r="G47">
         <v>0.91343283582089552</v>
@@ -5664,10 +5664,10 @@
         <v>0.66054887933034157</v>
       </c>
       <c r="I47">
-        <v>0.94551875285571563</v>
+        <v>0.80278757868282857</v>
       </c>
       <c r="J47">
-        <v>9.6968990273318137E-2</v>
+        <v>0.22929918480265141</v>
       </c>
       <c r="K47">
         <v>3350</v>
@@ -5679,10 +5679,10 @@
         <v>0.99114683348480859</v>
       </c>
       <c r="N47">
-        <v>0.99146799490707849</v>
+        <v>0.78770901166131679</v>
       </c>
       <c r="O47">
-        <v>3.9728556592899568E-2</v>
+        <v>0.24030354522964309</v>
       </c>
       <c r="P47">
         <v>0.91044776119402981</v>
@@ -5691,10 +5691,10 @@
         <v>0.70607705940763033</v>
       </c>
       <c r="R47">
-        <v>0.93082803773474254</v>
+        <v>0.9083301505631215</v>
       </c>
       <c r="S47">
-        <v>0.1175623048531631</v>
+        <v>0.13931220691664581</v>
       </c>
       <c r="T47">
         <v>3350</v>
@@ -5706,10 +5706,10 @@
         <v>0.98639566032926818</v>
       </c>
       <c r="W47">
-        <v>0.98981177239300266</v>
+        <v>0.79209738361116666</v>
       </c>
       <c r="X47">
-        <v>4.4133447565648562E-2</v>
+        <v>0.23996643581774241</v>
       </c>
       <c r="Y47">
         <v>0.90895522388059702</v>
@@ -5718,10 +5718,10 @@
         <v>0.66953953511190478</v>
       </c>
       <c r="AA47">
-        <v>0.94780111046165871</v>
+        <v>0.91441197324694834</v>
       </c>
       <c r="AB47">
-        <v>9.5495565263914881E-2</v>
+        <v>0.12800978935013901</v>
       </c>
       <c r="AC47">
         <v>3350</v>
@@ -5733,10 +5733,10 @@
         <v>0.9902582658298249</v>
       </c>
       <c r="AF47">
-        <v>0.99113029762989202</v>
+        <v>0.78757699338445497</v>
       </c>
       <c r="AG47">
-        <v>4.0565038987528432E-2</v>
+        <v>0.2403524519975043</v>
       </c>
       <c r="AH47">
         <v>0.89850746268656712</v>
@@ -5745,10 +5745,10 @@
         <v>0.7607578874038502</v>
       </c>
       <c r="AJ47">
-        <v>0.94647148812035065</v>
+        <v>0.93266742000638159</v>
       </c>
       <c r="AK47">
-        <v>0.1028692838131908</v>
+        <v>0.1194645007458231</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
@@ -5765,10 +5765,10 @@
         <v>0.98924500251526415</v>
       </c>
       <c r="E48">
-        <v>0.98847976137585425</v>
+        <v>0.80631862488405992</v>
       </c>
       <c r="F48">
-        <v>4.529316270956682E-2</v>
+        <v>0.21484893066642541</v>
       </c>
       <c r="G48">
         <v>0.87352941176470589</v>
@@ -5777,10 +5777,10 @@
         <v>0.63372816770165419</v>
       </c>
       <c r="I48">
-        <v>0.93729362824704932</v>
+        <v>0.80468541499213608</v>
       </c>
       <c r="J48">
-        <v>0.1180727592232359</v>
+        <v>0.2556994932703674</v>
       </c>
       <c r="K48">
         <v>3400</v>
@@ -5792,10 +5792,10 @@
         <v>0.99178415151864441</v>
       </c>
       <c r="N48">
-        <v>0.99155505925429932</v>
+        <v>0.79114651478533116</v>
       </c>
       <c r="O48">
-        <v>3.9852669849304287E-2</v>
+        <v>0.23876448188486421</v>
       </c>
       <c r="P48">
         <v>0.90441176470588236</v>
@@ -5804,10 +5804,10 @@
         <v>0.73270900130537941</v>
       </c>
       <c r="R48">
-        <v>0.91887055080532909</v>
+        <v>0.89799527761912412</v>
       </c>
       <c r="S48">
-        <v>0.12175191748701419</v>
+        <v>0.14180816519856579</v>
       </c>
       <c r="T48">
         <v>3400</v>
@@ -5819,10 +5819,10 @@
         <v>0.98844208109634357</v>
       </c>
       <c r="W48">
-        <v>0.98991367749959647</v>
+        <v>0.80320763757657199</v>
       </c>
       <c r="X48">
-        <v>4.3428440125851932E-2</v>
+        <v>0.22632947530394379</v>
       </c>
       <c r="Y48">
         <v>0.90735294117647058</v>
@@ -5831,10 +5831,10 @@
         <v>0.68859270295331865</v>
       </c>
       <c r="AA48">
-        <v>0.9394354633848977</v>
+        <v>0.83890235910084021</v>
       </c>
       <c r="AB48">
-        <v>0.10648114994738581</v>
+        <v>0.199889346302321</v>
       </c>
       <c r="AC48">
         <v>3400</v>
@@ -5846,10 +5846,10 @@
         <v>0.99159617982553383</v>
       </c>
       <c r="AF48">
-        <v>0.9925109948874079</v>
+        <v>0.79116000835966083</v>
       </c>
       <c r="AG48">
-        <v>3.7278759131078143E-2</v>
+        <v>0.23684277275859411</v>
       </c>
       <c r="AH48">
         <v>0.9</v>
@@ -5858,10 +5858,10 @@
         <v>0.68755996075357795</v>
       </c>
       <c r="AJ48">
-        <v>0.94625550897849142</v>
+        <v>0.91186134119341811</v>
       </c>
       <c r="AK48">
-        <v>0.1018216433712574</v>
+        <v>0.13761035260272711</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.3">
@@ -5878,10 +5878,10 @@
         <v>0.99096640696624849</v>
       </c>
       <c r="E49">
-        <v>0.99203796952580914</v>
+        <v>0.79367290590062622</v>
       </c>
       <c r="F49">
-        <v>3.8306543884143687E-2</v>
+        <v>0.2336519775995298</v>
       </c>
       <c r="G49">
         <v>0.91159420289855075</v>
@@ -5890,10 +5890,10 @@
         <v>0.74513044065368172</v>
       </c>
       <c r="I49">
-        <v>0.95047609406894473</v>
+        <v>0.89993670810752202</v>
       </c>
       <c r="J49">
-        <v>9.8907071009368061E-2</v>
+        <v>0.15048779753965211</v>
       </c>
       <c r="K49">
         <v>3450</v>
@@ -5905,10 +5905,10 @@
         <v>0.9908563141279586</v>
       </c>
       <c r="N49">
-        <v>0.99258113139538218</v>
+        <v>0.79201131084151255</v>
       </c>
       <c r="O49">
-        <v>3.7007637284637671E-2</v>
+        <v>0.23756147442300651</v>
       </c>
       <c r="P49">
         <v>0.89855072463768115</v>
@@ -5917,10 +5917,10 @@
         <v>0.64597767751145696</v>
       </c>
       <c r="R49">
-        <v>0.92738542504327981</v>
+        <v>0.90227854959065013</v>
       </c>
       <c r="S49">
-        <v>0.11941888278332451</v>
+        <v>0.13963396592013569</v>
       </c>
       <c r="T49">
         <v>3450</v>
@@ -5932,10 +5932,10 @@
         <v>0.99267612438016994</v>
       </c>
       <c r="W49">
-        <v>0.99267912276792813</v>
+        <v>0.80198410300667289</v>
       </c>
       <c r="X49">
-        <v>3.6564416059047498E-2</v>
+        <v>0.2251326083596096</v>
       </c>
       <c r="Y49">
         <v>0.89130434782608692</v>
@@ -5944,10 +5944,10 @@
         <v>0.59986474166102333</v>
       </c>
       <c r="AA49">
-        <v>0.91836897613709645</v>
+        <v>0.81705262221294239</v>
       </c>
       <c r="AB49">
-        <v>0.12909944487358049</v>
+        <v>0.21841944973527491</v>
       </c>
       <c r="AC49">
         <v>3450</v>
@@ -5959,10 +5959,10 @@
         <v>0.98841882219493216</v>
       </c>
       <c r="AF49">
-        <v>0.99196765325778891</v>
+        <v>0.79595256789708657</v>
       </c>
       <c r="AG49">
-        <v>3.9148546533072898E-2</v>
+        <v>0.23877242350962299</v>
       </c>
       <c r="AH49">
         <v>0.90724637681159426</v>
@@ -5971,10 +5971,10 @@
         <v>0.70959059027170568</v>
       </c>
       <c r="AJ49">
-        <v>0.94071964432521948</v>
+        <v>0.9221577502545556</v>
       </c>
       <c r="AK49">
-        <v>0.1007939496688917</v>
+        <v>0.1138724301491895</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
@@ -5991,10 +5991,10 @@
         <v>0.99236794627129521</v>
       </c>
       <c r="E50">
-        <v>0.99321532879978991</v>
+        <v>0.90888670972079988</v>
       </c>
       <c r="F50">
-        <v>3.4948942350643053E-2</v>
+        <v>0.13737159187010081</v>
       </c>
       <c r="G50">
         <v>0.88857142857142857</v>
@@ -6003,10 +6003,10 @@
         <v>0.68155974254391716</v>
       </c>
       <c r="I50">
-        <v>0.94013170055093986</v>
+        <v>0.63064823542491188</v>
       </c>
       <c r="J50">
-        <v>0.1121860699272164</v>
+        <v>0.40532889340146572</v>
       </c>
       <c r="K50">
         <v>3500</v>
@@ -6018,10 +6018,10 @@
         <v>0.99264727043711021</v>
       </c>
       <c r="N50">
-        <v>0.99213805955662537</v>
+        <v>0.79256502265389472</v>
       </c>
       <c r="O50">
-        <v>3.8031941462783249E-2</v>
+        <v>0.2343980723447425</v>
       </c>
       <c r="P50">
         <v>0.9157142857142857</v>
@@ -6030,10 +6030,10 @@
         <v>0.77582423583838311</v>
       </c>
       <c r="R50">
-        <v>0.93296516446743893</v>
+        <v>0.89274747780362751</v>
       </c>
       <c r="S50">
-        <v>0.11439280696667201</v>
+        <v>0.15220086577600639</v>
       </c>
       <c r="T50">
         <v>3500</v>
@@ -6045,10 +6045,10 @@
         <v>0.9910238394206583</v>
       </c>
       <c r="W50">
-        <v>0.99144851411644919</v>
+        <v>0.79896937986500149</v>
       </c>
       <c r="X50">
-        <v>4.0488093487909688E-2</v>
+        <v>0.235427705431246</v>
       </c>
       <c r="Y50">
         <v>0.90857142857142859</v>
@@ -6057,10 +6057,10 @@
         <v>0.63819042599968934</v>
       </c>
       <c r="AA50">
-        <v>0.9390440461734828</v>
+        <v>0.90615435378263853</v>
       </c>
       <c r="AB50">
-        <v>0.1000714030794298</v>
+        <v>0.12719096608145869</v>
       </c>
       <c r="AC50">
         <v>3500</v>
@@ -6072,10 +6072,10 @@
         <v>0.99093775646606697</v>
       </c>
       <c r="AF50">
-        <v>0.99263696383722522</v>
+        <v>0.79483815995647478</v>
       </c>
       <c r="AG50">
-        <v>3.7177181941923161E-2</v>
+        <v>0.23674154566499969</v>
       </c>
       <c r="AH50">
         <v>0.90714285714285714</v>
@@ -6084,10 +6084,10 @@
         <v>0.6527334718700718</v>
       </c>
       <c r="AJ50">
-        <v>0.94254288763030458</v>
+        <v>0.92902477190676658</v>
       </c>
       <c r="AK50">
-        <v>0.1017700489198215</v>
+        <v>0.11383499770323691</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
@@ -6104,10 +6104,10 @@
         <v>0.99397271403105925</v>
       </c>
       <c r="E51">
-        <v>0.99376200905285583</v>
+        <v>0.94513833725166996</v>
       </c>
       <c r="F51">
-        <v>3.3776398126836082E-2</v>
+        <v>0.1021958878630282</v>
       </c>
       <c r="G51">
         <v>0.88450704225352117</v>
@@ -6116,10 +6116,10 @@
         <v>0.6477773797131855</v>
       </c>
       <c r="I51">
-        <v>0.93107679378006103</v>
+        <v>0.61712232635839237</v>
       </c>
       <c r="J51">
-        <v>0.11997652352515931</v>
+        <v>0.44645449355523709</v>
       </c>
       <c r="K51">
         <v>3550</v>
@@ -6131,10 +6131,10 @@
         <v>0.99092482116021929</v>
       </c>
       <c r="N51">
-        <v>0.99297891471532007</v>
+        <v>0.79506658735392544</v>
       </c>
       <c r="O51">
-        <v>3.6045745583187593E-2</v>
+        <v>0.23478577025150091</v>
       </c>
       <c r="P51">
         <v>0.89718309859154932</v>
@@ -6143,10 +6143,10 @@
         <v>0.64031052770522734</v>
       </c>
       <c r="R51">
-        <v>0.91590670144628628</v>
+        <v>0.88668398667622994</v>
       </c>
       <c r="S51">
-        <v>0.1300054170052318</v>
+        <v>0.15413617462815021</v>
       </c>
       <c r="T51">
         <v>3550</v>
@@ -6158,10 +6158,10 @@
         <v>0.99106366792784806</v>
       </c>
       <c r="W51">
-        <v>0.99197004916302844</v>
+        <v>0.79787999825425382</v>
       </c>
       <c r="X51">
-        <v>3.9001625101569563E-2</v>
+        <v>0.23450872088368269</v>
       </c>
       <c r="Y51">
         <v>0.90845070422535212</v>
@@ -6170,10 +6170,10 @@
         <v>0.70608522992324985</v>
       </c>
       <c r="AA51">
-        <v>0.94801051838705952</v>
+        <v>0.91933049893696084</v>
       </c>
       <c r="AB51">
-        <v>9.7648406375145894E-2</v>
+        <v>0.12604425432757291</v>
       </c>
       <c r="AC51">
         <v>3550</v>
@@ -6185,10 +6185,10 @@
         <v>0.98958366042786639</v>
       </c>
       <c r="AF51">
-        <v>0.99066914363910608</v>
+        <v>0.7981477748951622</v>
       </c>
       <c r="AG51">
-        <v>4.2126569849964567E-2</v>
+        <v>0.23628054429884199</v>
       </c>
       <c r="AH51">
         <v>0.9</v>
@@ -6197,10 +6197,10 @@
         <v>0.72929361963461259</v>
       </c>
       <c r="AJ51">
-        <v>0.92570518901858678</v>
+        <v>0.91373361025126676</v>
       </c>
       <c r="AK51">
-        <v>0.11579486475757619</v>
+        <v>0.12427031854654071</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
@@ -6217,10 +6217,10 @@
         <v>0.99511369841761277</v>
       </c>
       <c r="E52">
-        <v>0.99441024032784053</v>
+        <v>0.90776731084387219</v>
       </c>
       <c r="F52">
-        <v>3.2113081446662833E-2</v>
+        <v>0.1409384177705871</v>
       </c>
       <c r="G52">
         <v>0.88888888888888884</v>
@@ -6229,10 +6229,10 @@
         <v>0.72827167999042997</v>
       </c>
       <c r="I52">
-        <v>0.93958361110956246</v>
+        <v>0.63137164722059147</v>
       </c>
       <c r="J52">
-        <v>0.1110555416597179</v>
+        <v>0.40037431915047028</v>
       </c>
       <c r="K52">
         <v>3600</v>
@@ -6244,10 +6244,10 @@
         <v>0.99231220069633108</v>
       </c>
       <c r="N52">
-        <v>0.99278523321803536</v>
+        <v>0.79489543069537349</v>
       </c>
       <c r="O52">
-        <v>3.6657195746537953E-2</v>
+        <v>0.2360547183747646</v>
       </c>
       <c r="P52">
         <v>0.9194444444444444</v>
@@ -6256,10 +6256,10 @@
         <v>0.74822610862628036</v>
       </c>
       <c r="R52">
-        <v>0.93095663419071317</v>
+        <v>0.90338789283589205</v>
       </c>
       <c r="S52">
-        <v>0.1166666666666667</v>
+        <v>0.14251245480738081</v>
       </c>
       <c r="T52">
         <v>3600</v>
@@ -6271,10 +6271,10 @@
         <v>0.99142459578083675</v>
       </c>
       <c r="W52">
-        <v>0.9921657309067472</v>
+        <v>0.7991692603943279</v>
       </c>
       <c r="X52">
-        <v>3.8324274291889733E-2</v>
+        <v>0.23113906693207839</v>
       </c>
       <c r="Y52">
         <v>0.91527777777777775</v>
@@ -6283,10 +6283,10 @@
         <v>0.66400532322925354</v>
       </c>
       <c r="AA52">
-        <v>0.9477842406627317</v>
+        <v>0.88297315647908536</v>
       </c>
       <c r="AB52">
-        <v>0.1002081167703827</v>
+        <v>0.16507917843538561</v>
       </c>
       <c r="AC52">
         <v>3600</v>
@@ -6298,10 +6298,10 @@
         <v>0.98908972313592403</v>
       </c>
       <c r="AF52">
-        <v>0.99133648312864653</v>
+        <v>0.80247342730451809</v>
       </c>
       <c r="AG52">
-        <v>4.069705149024927E-2</v>
+        <v>0.23222396491081751</v>
       </c>
       <c r="AH52">
         <v>0.91805555555555551</v>
@@ -6310,10 +6310,10 @@
         <v>0.69429144520045449</v>
       </c>
       <c r="AJ52">
-        <v>0.9529795228603819</v>
+        <v>0.89601727228702577</v>
       </c>
       <c r="AK52">
-        <v>9.1363133824438295E-2</v>
+        <v>0.1459556739143848</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
@@ -6330,10 +6330,10 @@
         <v>0.98829827765344869</v>
       </c>
       <c r="E53">
-        <v>0.9893106777731423</v>
+        <v>0.9039507313440398</v>
       </c>
       <c r="F53">
-        <v>4.4413992611856322E-2</v>
+        <v>0.1443236716514345</v>
       </c>
       <c r="G53">
         <v>0.87808219178082192</v>
@@ -6342,10 +6342,10 @@
         <v>0.66040949872736976</v>
       </c>
       <c r="I53">
-        <v>0.92728898123079428</v>
+        <v>0.6251631750321891</v>
       </c>
       <c r="J53">
-        <v>0.1221384796826049</v>
+        <v>0.399515437746291</v>
       </c>
       <c r="K53">
         <v>3650</v>
@@ -6357,10 +6357,10 @@
         <v>0.99123143785550916</v>
       </c>
       <c r="N53">
-        <v>0.99229434132231942</v>
+        <v>0.79661703961786567</v>
       </c>
       <c r="O53">
-        <v>3.7653794220212158E-2</v>
+        <v>0.23182662620831471</v>
       </c>
       <c r="P53">
         <v>0.88630136986301367</v>
@@ -6369,10 +6369,10 @@
         <v>0.69056113200598102</v>
       </c>
       <c r="R53">
-        <v>0.9210339850794379</v>
+        <v>0.8898663020884221</v>
       </c>
       <c r="S53">
-        <v>0.12778406443405871</v>
+        <v>0.1615822601818804</v>
       </c>
       <c r="T53">
         <v>3650</v>
@@ -6384,10 +6384,10 @@
         <v>0.99136561947862789</v>
       </c>
       <c r="W53">
-        <v>0.99194559271169558</v>
+        <v>0.80031261844923485</v>
       </c>
       <c r="X53">
-        <v>3.9256794194266031E-2</v>
+        <v>0.23505612112337321</v>
       </c>
       <c r="Y53">
         <v>0.90821917808219177</v>
@@ -6396,10 +6396,10 @@
         <v>0.72614405989627384</v>
       </c>
       <c r="AA53">
-        <v>0.93463366063796816</v>
+        <v>0.90835333018711328</v>
       </c>
       <c r="AB53">
-        <v>0.10803348035082611</v>
+        <v>0.13126703017476549</v>
       </c>
       <c r="AC53">
         <v>3650</v>
@@ -6411,10 +6411,10 @@
         <v>0.98735918201716133</v>
       </c>
       <c r="AF53">
-        <v>0.9918013980099456</v>
+        <v>0.8041751876031803</v>
       </c>
       <c r="AG53">
-        <v>4.0034231927531687E-2</v>
+        <v>0.2340360805391683</v>
       </c>
       <c r="AH53">
         <v>0.90821917808219177</v>
@@ -6423,10 +6423,10 @@
         <v>0.72167694921383696</v>
       </c>
       <c r="AJ53">
-        <v>0.94536402300045108</v>
+        <v>0.91063835193228326</v>
       </c>
       <c r="AK53">
-        <v>9.4070798170809364E-2</v>
+        <v>0.12539172957934169</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.3">
@@ -6443,10 +6443,10 @@
         <v>0.99473603883309791</v>
       </c>
       <c r="E54">
-        <v>0.9934386927857165</v>
+        <v>0.91517881498873488</v>
       </c>
       <c r="F54">
-        <v>3.4435603825267988E-2</v>
+        <v>0.1314117592369449</v>
       </c>
       <c r="G54">
         <v>0.9027027027027027</v>
@@ -6455,10 +6455,10 @@
         <v>0.66488848592786121</v>
       </c>
       <c r="I54">
-        <v>0.95144617400371545</v>
+        <v>0.6506452010886532</v>
       </c>
       <c r="J54">
-        <v>0.1025354256513987</v>
+        <v>0.40491086190134218</v>
       </c>
       <c r="K54">
         <v>3700</v>
@@ -6470,10 +6470,10 @@
         <v>0.99139507573352359</v>
       </c>
       <c r="N54">
-        <v>0.99286899478374369</v>
+        <v>0.79698082508578738</v>
       </c>
       <c r="O54">
-        <v>3.6158435149110539E-2</v>
+        <v>0.23194043041125889</v>
       </c>
       <c r="P54">
         <v>0.89189189189189189</v>
@@ -6482,10 +6482,10 @@
         <v>0.69859512171525606</v>
       </c>
       <c r="R54">
-        <v>0.92711842523412447</v>
+        <v>0.90322758972942452</v>
       </c>
       <c r="S54">
-        <v>0.1228050531577633</v>
+        <v>0.14812857679732069</v>
       </c>
       <c r="T54">
         <v>3700</v>
@@ -6497,10 +6497,10 @@
         <v>0.99045059491692855</v>
       </c>
       <c r="W54">
-        <v>0.99110145737867739</v>
+        <v>0.81085368519040468</v>
       </c>
       <c r="X54">
-        <v>4.08937317604703E-2</v>
+        <v>0.22221148788088019</v>
       </c>
       <c r="Y54">
         <v>0.91216216216216217</v>
@@ -6509,10 +6509,10 @@
         <v>0.68864371926195056</v>
       </c>
       <c r="AA54">
-        <v>0.94958501214746116</v>
+        <v>0.84865719689599195</v>
       </c>
       <c r="AB54">
-        <v>9.7537241674723996E-2</v>
+        <v>0.19159157829887249</v>
       </c>
       <c r="AC54">
         <v>3700</v>
@@ -6524,10 +6524,10 @@
         <v>0.99035267969158303</v>
       </c>
       <c r="AF54">
-        <v>0.99350845522184372</v>
+        <v>0.80349522388251726</v>
       </c>
       <c r="AG54">
-        <v>3.4874291623145787E-2</v>
+        <v>0.22977783070734131</v>
       </c>
       <c r="AH54">
         <v>0.91081081081081083</v>
@@ -6536,10 +6536,10 @@
         <v>0.72196869374341521</v>
       </c>
       <c r="AJ54">
-        <v>0.94805318345449485</v>
+        <v>0.89504972901015811</v>
       </c>
       <c r="AK54">
-        <v>9.9661589554012386E-2</v>
+        <v>0.14922507572786761</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
@@ -6556,10 +6556,10 @@
         <v>0.98985914230267369</v>
       </c>
       <c r="E55">
-        <v>0.99136282225160799</v>
+        <v>0.90754039154338995</v>
       </c>
       <c r="F55">
-        <v>3.9874804074753772E-2</v>
+        <v>0.14022159728825609</v>
       </c>
       <c r="G55">
         <v>0.88400000000000001</v>
@@ -6568,10 +6568,10 @@
         <v>0.65045261380589448</v>
       </c>
       <c r="I55">
-        <v>0.93724180242604882</v>
+        <v>0.64230225067579094</v>
       </c>
       <c r="J55">
-        <v>0.1123090972866105</v>
+        <v>0.39109136936375571</v>
       </c>
       <c r="K55">
         <v>3750</v>
@@ -6583,10 +6583,10 @@
         <v>0.99096910019657192</v>
       </c>
       <c r="N55">
-        <v>0.99466875892249906</v>
+        <v>0.79951283141285501</v>
       </c>
       <c r="O55">
-        <v>3.1464265445104549E-2</v>
+        <v>0.2328636345018141</v>
       </c>
       <c r="P55">
         <v>0.92266666666666663</v>
@@ -6595,10 +6595,10 @@
         <v>0.7804636182449286</v>
       </c>
       <c r="R55">
-        <v>0.96067930505404731</v>
+        <v>0.93891099774748721</v>
       </c>
       <c r="S55">
-        <v>8.7635609200826581E-2</v>
+        <v>0.11003682718563</v>
       </c>
       <c r="T55">
         <v>3750</v>
@@ -6610,10 +6610,10 @@
         <v>0.99008327676498364</v>
       </c>
       <c r="W55">
-        <v>0.99259140727830075</v>
+        <v>0.80239439444071048</v>
       </c>
       <c r="X55">
-        <v>3.7549966711037178E-2</v>
+        <v>0.23121816696390771</v>
       </c>
       <c r="Y55">
         <v>0.90800000000000003</v>
@@ -6622,10 +6622,10 @@
         <v>0.69003892255246801</v>
       </c>
       <c r="AA55">
-        <v>0.94855884305167248</v>
+        <v>0.91923125253003024</v>
       </c>
       <c r="AB55">
-        <v>9.5358970911673183E-2</v>
+        <v>0.12636711239455931</v>
       </c>
       <c r="AC55">
         <v>3750</v>
@@ -6637,10 +6637,10 @@
         <v>0.99172851358201775</v>
       </c>
       <c r="AF55">
-        <v>0.99337966029881064</v>
+        <v>0.80364496962249987</v>
       </c>
       <c r="AG55">
-        <v>3.5496478698597698E-2</v>
+        <v>0.23193735159256501</v>
       </c>
       <c r="AH55">
         <v>0.90533333333333332</v>
@@ -6649,10 +6649,10 @@
         <v>0.69095301366079953</v>
       </c>
       <c r="AJ55">
-        <v>0.94416572825642009</v>
+        <v>0.92114045747326201</v>
       </c>
       <c r="AK55">
-        <v>9.9062269978702447E-2</v>
+        <v>0.1200142040695347</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.3">
@@ -6669,10 +6669,10 @@
         <v>0.99516184151972664</v>
       </c>
       <c r="E56">
-        <v>0.995125021809113</v>
+        <v>0.9146878466002315</v>
       </c>
       <c r="F56">
-        <v>2.9801978033963492E-2</v>
+        <v>0.13279289709724171</v>
       </c>
       <c r="G56">
         <v>0.88421052631578945</v>
@@ -6681,10 +6681,10 @@
         <v>0.6913716044396</v>
       </c>
       <c r="I56">
-        <v>0.941939469626766</v>
+        <v>0.64702963738790886</v>
       </c>
       <c r="J56">
-        <v>0.1101434471376687</v>
+        <v>0.39748386218487841</v>
       </c>
       <c r="K56">
         <v>3800</v>
@@ -6696,10 +6696,10 @@
         <v>0.99368341320947329</v>
       </c>
       <c r="N56">
-        <v>0.99328365102301464</v>
+        <v>0.80376378714442143</v>
       </c>
       <c r="O56">
-        <v>3.5262175948622049E-2</v>
+        <v>0.22615387709468679</v>
       </c>
       <c r="P56">
         <v>0.9118421052631579</v>
@@ -6708,10 +6708,10 @@
         <v>0.72229726526261817</v>
       </c>
       <c r="R56">
-        <v>0.9540963011282646</v>
+        <v>0.90377472989326235</v>
       </c>
       <c r="S56">
-        <v>9.5283510474903535E-2</v>
+        <v>0.15013141074622019</v>
       </c>
       <c r="T56">
         <v>3800</v>
@@ -6723,10 +6723,10 @@
         <v>0.99204862041171538</v>
       </c>
       <c r="W56">
-        <v>0.99219751394230826</v>
+        <v>0.81274881275545496</v>
       </c>
       <c r="X56">
-        <v>3.8087503130775607E-2</v>
+        <v>0.2192592622407826</v>
       </c>
       <c r="Y56">
         <v>0.91052631578947374</v>
@@ -6735,10 +6735,10 @@
         <v>0.66839074172691748</v>
       </c>
       <c r="AA56">
-        <v>0.94727378855453204</v>
+        <v>0.85620548762271531</v>
       </c>
       <c r="AB56">
-        <v>0.10137216476663451</v>
+        <v>0.18960391461807</v>
       </c>
       <c r="AC56">
         <v>3800</v>
@@ -6750,10 +6750,10 @@
         <v>0.9894537060224019</v>
       </c>
       <c r="AF56">
-        <v>0.99147640334196363</v>
+        <v>0.80956977426875132</v>
       </c>
       <c r="AG56">
-        <v>4.0352069013672782E-2</v>
+        <v>0.22531880462617521</v>
       </c>
       <c r="AH56">
         <v>0.9118421052631579</v>
@@ -6762,10 +6762,10 @@
         <v>0.72098380045712873</v>
       </c>
       <c r="AJ56">
-        <v>0.94587984965611072</v>
+        <v>0.88497411180971053</v>
       </c>
       <c r="AK56">
-        <v>9.7197574152098218E-2</v>
+        <v>0.1556436416328561</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.3">
@@ -6782,10 +6782,10 @@
         <v>0.99116233952142463</v>
       </c>
       <c r="E57">
-        <v>0.99234045004783644</v>
+        <v>0.93971643564047369</v>
       </c>
       <c r="F57">
-        <v>3.7451267035941559E-2</v>
+        <v>0.1082873597935374</v>
       </c>
       <c r="G57">
         <v>0.90259740259740262</v>
@@ -6794,10 +6794,10 @@
         <v>0.70046846857851419</v>
       </c>
       <c r="I57">
-        <v>0.95306846298136438</v>
+        <v>0.63731486684059802</v>
       </c>
       <c r="J57">
-        <v>9.9479163125269082E-2</v>
+        <v>0.42320561086292718</v>
       </c>
       <c r="K57">
         <v>3850</v>
@@ -6809,10 +6809,10 @@
         <v>0.99334694823116132</v>
       </c>
       <c r="N57">
-        <v>0.99484094547947666</v>
+        <v>0.80695239005962183</v>
       </c>
       <c r="O57">
-        <v>3.1052950170405939E-2</v>
+        <v>0.22579045203984899</v>
       </c>
       <c r="P57">
         <v>0.89610389610389607</v>
@@ -6821,10 +6821,10 @@
         <v>0.71143058040218254</v>
       </c>
       <c r="R57">
-        <v>0.92666644217618355</v>
+        <v>0.88360130807364035</v>
       </c>
       <c r="S57">
-        <v>0.1206045378311054</v>
+        <v>0.1606181844374627</v>
       </c>
       <c r="T57">
         <v>3850</v>
@@ -6836,10 +6836,10 @@
         <v>0.99095923405885566</v>
       </c>
       <c r="W57">
-        <v>0.99179298319055864</v>
+        <v>0.81666763712615786</v>
       </c>
       <c r="X57">
-        <v>3.9353542390759423E-2</v>
+        <v>0.21748858918493341</v>
       </c>
       <c r="Y57">
         <v>0.91298701298701301</v>
@@ -6848,10 +6848,10 @@
         <v>0.74772070437477034</v>
       </c>
       <c r="AA57">
-        <v>0.95643903088250926</v>
+        <v>0.85659533457627024</v>
       </c>
       <c r="AB57">
-        <v>9.1239658727306328E-2</v>
+        <v>0.1878010287991782</v>
       </c>
       <c r="AC57">
         <v>3850</v>
@@ -6863,10 +6863,10 @@
         <v>0.98796104584958366</v>
       </c>
       <c r="AF57">
-        <v>0.99224773453021309</v>
+        <v>0.8116709429287563</v>
       </c>
       <c r="AG57">
-        <v>3.8603882450599973E-2</v>
+        <v>0.22539591495881051</v>
       </c>
       <c r="AH57">
         <v>0.91688311688311686</v>
@@ -6875,10 +6875,10 @@
         <v>0.75870068153120251</v>
       </c>
       <c r="AJ57">
-        <v>0.9565123434714371</v>
+        <v>0.89933594419159546</v>
       </c>
       <c r="AK57">
-        <v>8.7757043599352755E-2</v>
+        <v>0.14152725130253829</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
@@ -6895,10 +6895,10 @@
         <v>0.99050639642726845</v>
       </c>
       <c r="E58">
-        <v>0.99062608906409388</v>
+        <v>0.93681122703094477</v>
       </c>
       <c r="F58">
-        <v>4.1602514716892178E-2</v>
+        <v>0.1118653979470875</v>
       </c>
       <c r="G58">
         <v>0.89615384615384619</v>
@@ -6907,10 +6907,10 @@
         <v>0.6324404183654736</v>
       </c>
       <c r="I58">
-        <v>0.93984674399708279</v>
+        <v>0.62909585172765525</v>
       </c>
       <c r="J58">
-        <v>0.1114013303792033</v>
+        <v>0.42109300449379289</v>
       </c>
       <c r="K58">
         <v>3900</v>
@@ -6922,10 +6922,10 @@
         <v>0.99167535640030524</v>
       </c>
       <c r="N58">
-        <v>0.99246071269970693</v>
+        <v>0.81141063617950504</v>
       </c>
       <c r="O58">
-        <v>3.7210420376762539E-2</v>
+        <v>0.21795105672654991</v>
       </c>
       <c r="P58">
         <v>0.90512820512820513</v>
@@ -6934,10 +6934,10 @@
         <v>0.68313465095163317</v>
       </c>
       <c r="R58">
-        <v>0.94912462238608897</v>
+        <v>0.86829322967504419</v>
       </c>
       <c r="S58">
-        <v>0.10340361547019369</v>
+        <v>0.1866581447657554</v>
       </c>
       <c r="T58">
         <v>3900</v>
@@ -6949,10 +6949,10 @@
         <v>0.99236009891033294</v>
       </c>
       <c r="W58">
-        <v>0.99377104773051539</v>
+        <v>0.80638028446845422</v>
       </c>
       <c r="X58">
-        <v>3.4390293800610483E-2</v>
+        <v>0.2287251943078516</v>
       </c>
       <c r="Y58">
         <v>0.91025641025641024</v>
@@ -6961,10 +6961,10 @@
         <v>0.671754781482228</v>
       </c>
       <c r="AA58">
-        <v>0.95060509290386119</v>
+        <v>0.92760576033265729</v>
       </c>
       <c r="AB58">
-        <v>9.5943359359197983E-2</v>
+        <v>0.11800284829857199</v>
       </c>
       <c r="AC58">
         <v>3900</v>
@@ -6976,10 +6976,10 @@
         <v>0.98956025562630501</v>
       </c>
       <c r="AF58">
-        <v>0.9926904013077632</v>
+        <v>0.81353205251978866</v>
       </c>
       <c r="AG58">
-        <v>3.7596030887070232E-2</v>
+        <v>0.22278753565775911</v>
       </c>
       <c r="AH58">
         <v>0.91923076923076918</v>
@@ -6988,10 +6988,10 @@
         <v>0.71699684658763951</v>
       </c>
       <c r="AJ58">
-        <v>0.9564708184770444</v>
+        <v>0.88771490909447692</v>
       </c>
       <c r="AK58">
-        <v>8.652848945393353E-2</v>
+        <v>0.15284537539028351</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
@@ -7008,10 +7008,10 @@
         <v>0.994245302326344</v>
       </c>
       <c r="E59">
-        <v>0.99346911062944332</v>
+        <v>0.93510031276378258</v>
       </c>
       <c r="F59">
-        <v>3.4995478912336633E-2</v>
+        <v>0.11528532232939059</v>
       </c>
       <c r="G59">
         <v>0.91265822784810124</v>
@@ -7020,10 +7020,10 @@
         <v>0.69972293099522009</v>
       </c>
       <c r="I59">
-        <v>0.94925204723441814</v>
+        <v>0.62201768357876452</v>
       </c>
       <c r="J59">
-        <v>9.9492382508487506E-2</v>
+        <v>0.4116688718373247</v>
       </c>
       <c r="K59">
         <v>3950</v>
@@ -7035,10 +7035,10 @@
         <v>0.99028140598777303</v>
       </c>
       <c r="N59">
-        <v>0.99196252029985921</v>
+        <v>0.81131767663254406</v>
       </c>
       <c r="O59">
-        <v>3.8852202909051073E-2</v>
+        <v>0.2206670124215937</v>
       </c>
       <c r="P59">
         <v>0.92405063291139244</v>
@@ -7047,10 +7047,10 @@
         <v>0.70370169978684805</v>
       </c>
       <c r="R59">
-        <v>0.96218540749086234</v>
+        <v>0.89089679081935369</v>
       </c>
       <c r="S59">
-        <v>8.5610244270476379E-2</v>
+        <v>0.1605499768646631</v>
       </c>
       <c r="T59">
         <v>3950</v>
@@ -7062,10 +7062,10 @@
         <v>0.99299423884463101</v>
       </c>
       <c r="W59">
-        <v>0.99281888928028239</v>
+        <v>0.80983727251711257</v>
       </c>
       <c r="X59">
-        <v>3.6586986688393851E-2</v>
+        <v>0.22125495235318909</v>
       </c>
       <c r="Y59">
         <v>0.91518987341772151</v>
@@ -7074,10 +7074,10 @@
         <v>0.67623410803233752</v>
       </c>
       <c r="AA59">
-        <v>0.94996020081428778</v>
+        <v>0.8924007075200443</v>
       </c>
       <c r="AB59">
-        <v>9.9936688819231442E-2</v>
+        <v>0.16032537796446961</v>
       </c>
       <c r="AC59">
         <v>3950</v>
@@ -7089,10 +7089,10 @@
         <v>0.99355945196432249</v>
       </c>
       <c r="AF59">
-        <v>0.99352283951698805</v>
+        <v>0.81110149443373036</v>
       </c>
       <c r="AG59">
-        <v>3.4995478912336633E-2</v>
+        <v>0.222971424216419</v>
       </c>
       <c r="AH59">
         <v>0.91139240506329111</v>
@@ -7101,10 +7101,10 @@
         <v>0.68408597530054593</v>
       </c>
       <c r="AJ59">
-        <v>0.95037962168976842</v>
+        <v>0.90116351969465758</v>
       </c>
       <c r="AK59">
-        <v>9.6718304264223107E-2</v>
+        <v>0.1459343500734252</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
@@ -7121,10 +7121,10 @@
         <v>0.99159355981833031</v>
       </c>
       <c r="E60">
-        <v>0.99335891367424201</v>
+        <v>0.90569970078665141</v>
       </c>
       <c r="F60">
-        <v>3.5178118198675723E-2</v>
+        <v>0.14319796065635729</v>
       </c>
       <c r="G60">
         <v>0.91249999999999998</v>
@@ -7133,10 +7133,10 @@
         <v>0.69869125881431493</v>
       </c>
       <c r="I60">
-        <v>0.95412420001206533</v>
+        <v>0.5960206068798316</v>
       </c>
       <c r="J60">
-        <v>9.6824583655185426E-2</v>
+        <v>0.44422658045515773</v>
       </c>
       <c r="K60">
         <v>4000</v>
@@ -7148,10 +7148,10 @@
         <v>0.98898793404413576</v>
       </c>
       <c r="N60">
-        <v>0.99301512176599516</v>
+        <v>0.78177547576748962</v>
       </c>
       <c r="O60">
-        <v>3.6357598930622473E-2</v>
+        <v>0.24770392170739369</v>
       </c>
       <c r="P60">
         <v>0.91374999999999995</v>
@@ -7160,10 +7160,10 @@
         <v>0.77779653676379157</v>
       </c>
       <c r="R60">
-        <v>0.94772476148815898</v>
+        <v>0.87242849245113441</v>
       </c>
       <c r="S60">
-        <v>0.10049875621120891</v>
+        <v>0.1733381337158062</v>
       </c>
       <c r="T60">
         <v>4000</v>
@@ -7175,10 +7175,10 @@
         <v>0.9903708884972946</v>
       </c>
       <c r="W60">
-        <v>0.99110607706572273</v>
+        <v>0.81322947792710432</v>
       </c>
       <c r="X60">
-        <v>4.1758232721225169E-2</v>
+        <v>0.22625583240842451</v>
       </c>
       <c r="Y60">
         <v>0.92749999999999999</v>
@@ -7187,10 +7187,10 @@
         <v>0.66889773335773883</v>
       </c>
       <c r="AA60">
-        <v>0.9556551680253399</v>
+        <v>0.74253264312238687</v>
       </c>
       <c r="AB60">
-        <v>8.5732140997411235E-2</v>
+        <v>0.26057670021449653</v>
       </c>
       <c r="AC60">
         <v>4000</v>
@@ -7202,10 +7202,10 @@
         <v>0.98997382079649232</v>
       </c>
       <c r="AF60">
-        <v>0.99186168981500988</v>
+        <v>0.81409690425096182</v>
       </c>
       <c r="AG60">
-        <v>4.0039043445117418E-2</v>
+        <v>0.22712295905172719</v>
       </c>
       <c r="AH60">
         <v>0.92749999999999999</v>
@@ -7214,10 +7214,10 @@
         <v>0.690286213008523</v>
       </c>
       <c r="AJ60">
-        <v>0.95321217977293426</v>
+        <v>0.71936583968619772</v>
       </c>
       <c r="AK60">
-        <v>8.7034475927646043E-2</v>
+        <v>0.26471198075551677</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
@@ -7234,10 +7234,10 @@
         <v>0.98985050184621914</v>
       </c>
       <c r="E61">
-        <v>0.99174588975880762</v>
+        <v>0.86967334162558763</v>
       </c>
       <c r="F61">
-        <v>3.9086797998528579E-2</v>
+        <v>0.1735341198283081</v>
       </c>
       <c r="G61">
         <v>0.9135802469135802</v>
@@ -7246,10 +7246,10 @@
         <v>0.67979432767282222</v>
       </c>
       <c r="I61">
-        <v>0.95153403087032762</v>
+        <v>0.63883996292692569</v>
       </c>
       <c r="J61">
-        <v>9.9938252541194927E-2</v>
+        <v>0.39220262847183351</v>
       </c>
       <c r="K61">
         <v>4050</v>
@@ -7261,10 +7261,10 @@
         <v>0.99235640571758899</v>
       </c>
       <c r="N61">
-        <v>0.99319075268305201</v>
+        <v>0.77901092043148945</v>
       </c>
       <c r="O61">
-        <v>3.5355339059327383E-2</v>
+        <v>0.24406169849176221</v>
       </c>
       <c r="P61">
         <v>0.91851851851851851</v>
@@ -7273,10 +7273,10 @@
         <v>0.71870231058807066</v>
       </c>
       <c r="R61">
-        <v>0.96085202119779112</v>
+        <v>0.87923646185828885</v>
       </c>
       <c r="S61">
-        <v>9.1354687960419845E-2</v>
+        <v>0.18219769431201799</v>
       </c>
       <c r="T61">
         <v>4050</v>
@@ -7288,10 +7288,10 @@
         <v>0.98730237170892765</v>
       </c>
       <c r="W61">
-        <v>0.99065926336291044</v>
+        <v>0.7748102469454623</v>
       </c>
       <c r="X61">
-        <v>4.1833001326703777E-2</v>
+        <v>0.25206967467412689</v>
       </c>
       <c r="Y61">
         <v>0.91728395061728396</v>
@@ -7300,10 +7300,10 @@
         <v>0.68566224177454205</v>
       </c>
       <c r="AA61">
-        <v>0.95421248030672268</v>
+        <v>0.91367529417103477</v>
       </c>
       <c r="AB61">
-        <v>9.5193111069350647E-2</v>
+        <v>0.13920936440831941</v>
       </c>
       <c r="AC61">
         <v>4050</v>
@@ -7315,10 +7315,10 @@
         <v>0.99035692555981036</v>
       </c>
       <c r="AF61">
-        <v>0.99394766141470925</v>
+        <v>0.78505781522526219</v>
       </c>
       <c r="AG61">
-        <v>3.4156502553198673E-2</v>
+        <v>0.2475917512006412</v>
       </c>
       <c r="AH61">
         <v>0.92222222222222228</v>
@@ -7327,10 +7327,10 @@
         <v>0.76093706678135453</v>
       </c>
       <c r="AJ61">
-        <v>0.95378836814360446</v>
+        <v>0.88175424717937356</v>
       </c>
       <c r="AK61">
-        <v>9.0335451663012642E-2</v>
+        <v>0.15845522168742229</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.3">
@@ -7347,10 +7347,10 @@
         <v>0.9896777395928732</v>
       </c>
       <c r="E62">
-        <v>0.99146896099876292</v>
+        <v>0.87139834060989085</v>
       </c>
       <c r="F62">
-        <v>3.9893149971318972E-2</v>
+        <v>0.1733198480237236</v>
       </c>
       <c r="G62">
         <v>0.90121951219512197</v>
@@ -7359,10 +7359,10 @@
         <v>0.68705818765795768</v>
       </c>
       <c r="I62">
-        <v>0.94642254536712578</v>
+        <v>0.63763621258843828</v>
       </c>
       <c r="J62">
-        <v>0.10429788483228131</v>
+        <v>0.38882394019426292</v>
       </c>
       <c r="K62">
         <v>4100</v>
@@ -7374,10 +7374,10 @@
         <v>0.9912594021748895</v>
       </c>
       <c r="N62">
-        <v>0.99135072712134031</v>
+        <v>0.81940798288538863</v>
       </c>
       <c r="O62">
-        <v>4.0235586723998323E-2</v>
+        <v>0.2142776346541328</v>
       </c>
       <c r="P62">
         <v>0.92073170731707321</v>
@@ -7386,10 +7386,10 @@
         <v>0.73642980968420702</v>
       </c>
       <c r="R62">
-        <v>0.96557170878763365</v>
+        <v>0.73755214337684394</v>
       </c>
       <c r="S62">
-        <v>8.3007493049959191E-2</v>
+        <v>0.29634960615300038</v>
       </c>
       <c r="T62">
         <v>4100</v>
@@ -7401,10 +7401,10 @@
         <v>0.99092365294145213</v>
       </c>
       <c r="W62">
-        <v>0.99047446573011821</v>
+        <v>0.78028492022639417</v>
       </c>
       <c r="X62">
-        <v>4.2231937977860477E-2</v>
+        <v>0.24687950774079279</v>
       </c>
       <c r="Y62">
         <v>0.89634146341463417</v>
@@ -7413,10 +7413,10 @@
         <v>0.70895020131330155</v>
       </c>
       <c r="AA62">
-        <v>0.94540118664703254</v>
+        <v>0.89276093512663757</v>
       </c>
       <c r="AB62">
-        <v>0.10464807457471501</v>
+        <v>0.16152066852544711</v>
       </c>
       <c r="AC62">
         <v>4100</v>
@@ -7428,10 +7428,10 @@
         <v>0.99091743102797913</v>
       </c>
       <c r="AF62">
-        <v>0.99314678653083543</v>
+        <v>0.78378468856677963</v>
       </c>
       <c r="AG62">
-        <v>3.6291502734548037E-2</v>
+        <v>0.24943993124584901</v>
       </c>
       <c r="AH62">
         <v>0.92195121951219516</v>
@@ -7440,10 +7440,10 @@
         <v>0.75845691824946671</v>
       </c>
       <c r="AJ62">
-        <v>0.95460968407892677</v>
+        <v>0.9034159047684962</v>
       </c>
       <c r="AK62">
-        <v>9.0594244150336234E-2</v>
+        <v>0.13947024789438689</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.3">
@@ -7460,10 +7460,10 @@
         <v>0.99071594479532676</v>
       </c>
       <c r="E63">
-        <v>0.99311385126607232</v>
+        <v>0.82598750347563821</v>
       </c>
       <c r="F63">
-        <v>3.6072216722529103E-2</v>
+        <v>0.21050648913357231</v>
       </c>
       <c r="G63">
         <v>0.90963855421686746</v>
@@ -7472,10 +7472,10 @@
         <v>0.71365306446871957</v>
       </c>
       <c r="I63">
-        <v>0.94812426277784156</v>
+        <v>0.72658655403514438</v>
       </c>
       <c r="J63">
-        <v>0.1006006060007137</v>
+        <v>0.30204830688136519</v>
       </c>
       <c r="K63">
         <v>4150</v>
@@ -7487,10 +7487,10 @@
         <v>0.98773009433996484</v>
       </c>
       <c r="N63">
-        <v>0.99176912932590988</v>
+        <v>0.78005835919937461</v>
       </c>
       <c r="O63">
-        <v>3.9308786840750592E-2</v>
+        <v>0.24719955093064869</v>
       </c>
       <c r="P63">
         <v>0.91927710843373489</v>
@@ -7499,10 +7499,10 @@
         <v>0.69333873942757274</v>
       </c>
       <c r="R63">
-        <v>0.95830262741507144</v>
+        <v>0.90895102143399598</v>
       </c>
       <c r="S63">
-        <v>9.130908715779805E-2</v>
+        <v>0.14816312934229869</v>
       </c>
       <c r="T63">
         <v>4150</v>
@@ -7514,10 +7514,10 @@
         <v>0.99136167811987885</v>
       </c>
       <c r="W63">
-        <v>0.99224897227978615</v>
+        <v>0.77998147565869036</v>
       </c>
       <c r="X63">
-        <v>3.8260363585396667E-2</v>
+        <v>0.25046066659486138</v>
       </c>
       <c r="Y63">
         <v>0.91445783132530123</v>
@@ -7526,10 +7526,10 @@
         <v>0.73220679879429995</v>
       </c>
       <c r="AA63">
-        <v>0.95955904744503318</v>
+        <v>0.93231465757189858</v>
       </c>
       <c r="AB63">
-        <v>8.8902274761849184E-2</v>
+        <v>0.11987112909621531</v>
       </c>
       <c r="AC63">
         <v>4150</v>
@@ -7541,10 +7541,10 @@
         <v>0.98808387956082588</v>
       </c>
       <c r="AF63">
-        <v>0.99071469129174006</v>
+        <v>0.78147575765810151</v>
       </c>
       <c r="AG63">
-        <v>4.1976757768687721E-2</v>
+        <v>0.25155879976016071</v>
       </c>
       <c r="AH63">
         <v>0.90722891566265063</v>
@@ -7553,10 +7553,10 @@
         <v>0.67890592606984823</v>
       </c>
       <c r="AJ63">
-        <v>0.94507810439239193</v>
+        <v>0.9238701107901589</v>
       </c>
       <c r="AK63">
-        <v>0.1027337182597315</v>
+        <v>0.1216480545325665</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
@@ -7573,10 +7573,10 @@
         <v>0.99243972195550934</v>
       </c>
       <c r="E64">
-        <v>0.99344277297623573</v>
+        <v>0.78353198923938594</v>
       </c>
       <c r="F64">
-        <v>3.548138344862798E-2</v>
+        <v>0.24989703664022439</v>
       </c>
       <c r="G64">
         <v>0.90119047619047621</v>
@@ -7585,10 +7585,10 @@
         <v>0.70990056094887288</v>
       </c>
       <c r="I64">
-        <v>0.94422024413700945</v>
+        <v>0.92772201111969299</v>
       </c>
       <c r="J64">
-        <v>0.1008889063701824</v>
+        <v>0.1182154764001884</v>
       </c>
       <c r="K64">
         <v>4200</v>
@@ -7600,10 +7600,10 @@
         <v>0.99310560090704669</v>
       </c>
       <c r="N64">
-        <v>0.99296872697550187</v>
+        <v>0.77930748403085404</v>
       </c>
       <c r="O64">
-        <v>3.5856858280031809E-2</v>
+        <v>0.2447758967295886</v>
       </c>
       <c r="P64">
         <v>0.90119047619047621</v>
@@ -7612,10 +7612,10 @@
         <v>0.66989422879886851</v>
       </c>
       <c r="R64">
-        <v>0.95317029658812158</v>
+        <v>0.90472397107553049</v>
       </c>
       <c r="S64">
-        <v>0.1012422836565829</v>
+        <v>0.15770410177502439</v>
       </c>
       <c r="T64">
         <v>4200</v>
@@ -7627,10 +7627,10 @@
         <v>0.99184798889068393</v>
       </c>
       <c r="W64">
-        <v>0.99271074177390595</v>
+        <v>0.82420183223349797</v>
       </c>
       <c r="X64">
-        <v>3.6960403522843591E-2</v>
+        <v>0.21089812412491779</v>
       </c>
       <c r="Y64">
         <v>0.919047619047619</v>
@@ -7639,10 +7639,10 @@
         <v>0.7560652652332347</v>
       </c>
       <c r="AA64">
-        <v>0.95858022059510284</v>
+        <v>0.74631683908005209</v>
       </c>
       <c r="AB64">
-        <v>9.1221864546985512E-2</v>
+        <v>0.2915705223472812</v>
       </c>
       <c r="AC64">
         <v>4200</v>
@@ -7654,10 +7654,10 @@
         <v>0.9923236455730079</v>
       </c>
       <c r="AF64">
-        <v>0.99262587323198548</v>
+        <v>0.78235833627860363</v>
       </c>
       <c r="AG64">
-        <v>3.7321001364608947E-2</v>
+        <v>0.2491902815555665</v>
       </c>
       <c r="AH64">
         <v>0.90357142857142858</v>
@@ -7666,10 +7666,10 @@
         <v>0.73390561942885524</v>
       </c>
       <c r="AJ64">
-        <v>0.95184599087140187</v>
+        <v>0.92712269369762734</v>
       </c>
       <c r="AK64">
-        <v>9.691675367477566E-2</v>
+        <v>0.1225291655920626</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.3">
@@ -7686,10 +7686,10 @@
         <v>0.9922701078879026</v>
       </c>
       <c r="E65">
-        <v>0.99233344690126879</v>
+        <v>0.7951920720205522</v>
       </c>
       <c r="F65">
-        <v>3.8156026430187631E-2</v>
+        <v>0.23628543019436959</v>
       </c>
       <c r="G65">
         <v>0.91411764705882348</v>
@@ -7698,10 +7698,10 @@
         <v>0.7349548269862336</v>
       </c>
       <c r="I65">
-        <v>0.95492133431047599</v>
+        <v>0.85242675704583337</v>
       </c>
       <c r="J65">
-        <v>9.1136613679361475E-2</v>
+        <v>0.1905502952957098</v>
       </c>
       <c r="K65">
         <v>4250</v>
@@ -7713,10 +7713,10 @@
         <v>0.99163033517710808</v>
       </c>
       <c r="N65">
-        <v>0.99257045710663494</v>
+        <v>0.78342383105290614</v>
       </c>
       <c r="O65">
-        <v>3.7455856370807873E-2</v>
+        <v>0.24716148985379571</v>
       </c>
       <c r="P65">
         <v>0.91176470588235292</v>
@@ -7725,10 +7725,10 @@
         <v>0.68688423532114862</v>
       </c>
       <c r="R65">
-        <v>0.95512348541763281</v>
+        <v>0.92049145129868637</v>
       </c>
       <c r="S65">
-        <v>9.1907882270942404E-2</v>
+        <v>0.12862392894035041</v>
       </c>
       <c r="T65">
         <v>4250</v>
@@ -7740,10 +7740,10 @@
         <v>0.98889524815794627</v>
       </c>
       <c r="W65">
-        <v>0.99081717095402755</v>
+        <v>0.82433850131554187</v>
       </c>
       <c r="X65">
-        <v>4.1479973906622912E-2</v>
+        <v>0.21078279708283271</v>
       </c>
       <c r="Y65">
         <v>0.92588235294117649</v>
@@ -7752,10 +7752,10 @@
         <v>0.67907756130755415</v>
       </c>
       <c r="AA65">
-        <v>0.95840907056184821</v>
+        <v>0.74092619391378323</v>
       </c>
       <c r="AB65">
-        <v>8.9901907327800734E-2</v>
+        <v>0.28999527766909111</v>
       </c>
       <c r="AC65">
         <v>4250</v>
@@ -7767,10 +7767,10 @@
         <v>0.98987314706109064</v>
       </c>
       <c r="AF65">
-        <v>0.9902380240893025</v>
+        <v>0.78561283415649119</v>
       </c>
       <c r="AG65">
-        <v>4.3045803238766361E-2</v>
+        <v>0.24495171462486071</v>
       </c>
       <c r="AH65">
         <v>0.91176470588235292</v>
@@ -7779,10 +7779,10 @@
         <v>0.72687490733562321</v>
       </c>
       <c r="AJ65">
-        <v>0.94905821262771262</v>
+        <v>0.90551552158059367</v>
       </c>
       <c r="AK65">
-        <v>9.6953597148326576E-2</v>
+        <v>0.14312488403498411</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.3">
@@ -7799,10 +7799,10 @@
         <v>0.99197991042354672</v>
       </c>
       <c r="E66">
-        <v>0.9921358679873945</v>
+        <v>0.82752229941222255</v>
       </c>
       <c r="F66">
-        <v>3.8617082615954333E-2</v>
+        <v>0.21014769934525021</v>
       </c>
       <c r="G66">
         <v>0.91627906976744189</v>
@@ -7811,10 +7811,10 @@
         <v>0.70527273046389261</v>
       </c>
       <c r="I66">
-        <v>0.94703686767223683</v>
+        <v>0.73086645944347972</v>
       </c>
       <c r="J66">
-        <v>0.1001742667601327</v>
+        <v>0.2892649241219083</v>
       </c>
       <c r="K66">
         <v>4300</v>
@@ -7826,10 +7826,10 @@
         <v>0.99219748874601732</v>
       </c>
       <c r="N66">
-        <v>0.99276926197769921</v>
+        <v>0.8136676502964385</v>
       </c>
       <c r="O66">
-        <v>3.6528103229998068E-2</v>
+        <v>0.21913926959093269</v>
       </c>
       <c r="P66">
         <v>0.9081395348837209</v>
@@ -7838,10 +7838,10 @@
         <v>0.68578467734402604</v>
       </c>
       <c r="R66">
-        <v>0.95962148365636857</v>
+        <v>0.78015792781699689</v>
       </c>
       <c r="S66">
-        <v>9.2006066534059405E-2</v>
+        <v>0.25854235321427022</v>
       </c>
       <c r="T66">
         <v>4300</v>
@@ -7853,10 +7853,10 @@
         <v>0.99240021816584534</v>
       </c>
       <c r="W66">
-        <v>0.99269991873672403</v>
+        <v>0.81760018013045088</v>
       </c>
       <c r="X66">
-        <v>3.7237453014092467E-2</v>
+        <v>0.2191748248821935</v>
       </c>
       <c r="Y66">
         <v>0.93023255813953487</v>
@@ -7865,10 +7865,10 @@
         <v>0.79536157364439963</v>
       </c>
       <c r="AA66">
-        <v>0.95926196838716093</v>
+        <v>0.76573484355735388</v>
       </c>
       <c r="AB66">
-        <v>8.7537367436280711E-2</v>
+        <v>0.25682872733881262</v>
       </c>
       <c r="AC66">
         <v>4300</v>
@@ -7880,10 +7880,10 @@
         <v>0.98915513230281449</v>
       </c>
       <c r="AF66">
-        <v>0.99201705156916287</v>
+        <v>0.78604617624029161</v>
       </c>
       <c r="AG66">
-        <v>3.8617082615954333E-2</v>
+        <v>0.24201589561996481</v>
       </c>
       <c r="AH66">
         <v>0.91279069767441856</v>
@@ -7892,10 +7892,10 @@
         <v>0.73584278298477357</v>
       </c>
       <c r="AJ66">
-        <v>0.94971260879347486</v>
+        <v>0.89616959336616286</v>
       </c>
       <c r="AK66">
-        <v>0.1004061519471651</v>
+        <v>0.15784855684837629</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.3">
@@ -7912,10 +7912,10 @@
         <v>0.99113614178112552</v>
       </c>
       <c r="E67">
-        <v>0.99170819988253678</v>
+        <v>0.79682230536107079</v>
       </c>
       <c r="F67">
-        <v>3.9718839445489228E-2</v>
+        <v>0.23453535158223279</v>
       </c>
       <c r="G67">
         <v>0.92413793103448272</v>
@@ -7924,10 +7924,10 @@
         <v>0.73418842271815099</v>
       </c>
       <c r="I67">
-        <v>0.95085671483501488</v>
+        <v>0.84885185818090481</v>
       </c>
       <c r="J67">
-        <v>9.5110341243706265E-2</v>
+        <v>0.19221292500503009</v>
       </c>
       <c r="K67">
         <v>4350</v>
@@ -7939,10 +7939,10 @@
         <v>0.9926581506818184</v>
       </c>
       <c r="N67">
-        <v>0.99388221176718328</v>
+        <v>0.78729257301165434</v>
       </c>
       <c r="O67">
-        <v>3.4114411961050653E-2</v>
+        <v>0.24429406622046521</v>
       </c>
       <c r="P67">
         <v>0.92183908045977014</v>
@@ -7951,10 +7951,10 @@
         <v>0.69442109463601365</v>
       </c>
       <c r="R67">
-        <v>0.94984538614791658</v>
+        <v>0.9124800641955908</v>
       </c>
       <c r="S67">
-        <v>9.6191858092139954E-2</v>
+        <v>0.13405515908249729</v>
       </c>
       <c r="T67">
         <v>4350</v>
@@ -7966,10 +7966,10 @@
         <v>0.99196202445695858</v>
       </c>
       <c r="W67">
-        <v>0.99315264522181845</v>
+        <v>0.79763146715061728</v>
       </c>
       <c r="X67">
-        <v>3.6317564858362683E-2</v>
+        <v>0.23631524764392439</v>
       </c>
       <c r="Y67">
         <v>0.93448275862068964</v>
@@ -7978,10 +7978,10 @@
         <v>0.70001942422377028</v>
       </c>
       <c r="AA67">
-        <v>0.95879292715030073</v>
+        <v>0.85719931561454787</v>
       </c>
       <c r="AB67">
-        <v>8.4893442336402739E-2</v>
+        <v>0.17874463590030731</v>
       </c>
       <c r="AC67">
         <v>4350</v>
@@ -7993,10 +7993,10 @@
         <v>0.99282202161554278</v>
       </c>
       <c r="AF67">
-        <v>0.99288914733268974</v>
+        <v>0.81852410871602133</v>
       </c>
       <c r="AG67">
-        <v>3.6671890954883907E-2</v>
+        <v>0.2178140177419802</v>
       </c>
       <c r="AH67">
         <v>0.9264367816091954</v>
@@ -8005,10 +8005,10 @@
         <v>0.82922044062555711</v>
       </c>
       <c r="AJ67">
-        <v>0.95287264261732985</v>
+        <v>0.76507669897053354</v>
       </c>
       <c r="AK67">
-        <v>9.4321533724478476E-2</v>
+        <v>0.25730183853751498</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.3">
@@ -8025,10 +8025,10 @@
         <v>0.99269736130604103</v>
       </c>
       <c r="E68">
-        <v>0.99469686895769438</v>
+        <v>0.7897605534914105</v>
       </c>
       <c r="F68">
-        <v>3.1980107453341573E-2</v>
+        <v>0.24655826852923859</v>
       </c>
       <c r="G68">
         <v>0.90568181818181814</v>
@@ -8037,10 +8037,10 @@
         <v>0.71677538328654544</v>
       </c>
       <c r="I68">
-        <v>0.94587842499849506</v>
+        <v>0.927156417571117</v>
       </c>
       <c r="J68">
-        <v>9.8280674138362056E-2</v>
+        <v>0.1145693951301289</v>
       </c>
       <c r="K68">
         <v>4400</v>
@@ -8052,10 +8052,10 @@
         <v>0.99464264091072219</v>
       </c>
       <c r="N68">
-        <v>0.99330419891498278</v>
+        <v>0.78533871639225217</v>
       </c>
       <c r="O68">
-        <v>3.5395492779320213E-2</v>
+        <v>0.24542772879305769</v>
       </c>
       <c r="P68">
         <v>0.92954545454545456</v>
@@ -8064,10 +8064,10 @@
         <v>0.69907643517344309</v>
       </c>
       <c r="R68">
-        <v>0.9648753032903904</v>
+        <v>0.92981384884229568</v>
       </c>
       <c r="S68">
-        <v>8.4140034790493479E-2</v>
+        <v>0.1226463150704688</v>
       </c>
       <c r="T68">
         <v>4400</v>
@@ -8079,10 +8079,10 @@
         <v>0.9936612992767776</v>
       </c>
       <c r="W68">
-        <v>0.99476956520943993</v>
+        <v>0.79196272843922111</v>
       </c>
       <c r="X68">
-        <v>3.1577825937025669E-2</v>
+        <v>0.2390957110528984</v>
       </c>
       <c r="Y68">
         <v>0.9170454545454545</v>
@@ -8091,10 +8091,10 @@
         <v>0.73402388105760052</v>
       </c>
       <c r="AA68">
-        <v>0.95098384908727895</v>
+        <v>0.88423901370971991</v>
       </c>
       <c r="AB68">
-        <v>9.5821804313100792E-2</v>
+        <v>0.16581009198192351</v>
       </c>
       <c r="AC68">
         <v>4400</v>
@@ -8106,10 +8106,10 @@
         <v>0.99375614025648873</v>
       </c>
       <c r="AF68">
-        <v>0.99380933779147285</v>
+        <v>0.82000636390418347</v>
       </c>
       <c r="AG68">
-        <v>3.3920026264998411E-2</v>
+        <v>0.21575469842120251</v>
       </c>
       <c r="AH68">
         <v>0.90454545454545454</v>
@@ -8118,10 +8118,10 @@
         <v>0.77233619771958195</v>
       </c>
       <c r="AJ68">
-        <v>0.94631592000992071</v>
+        <v>0.76668864914304402</v>
       </c>
       <c r="AK68">
-        <v>0.1053133851459969</v>
+        <v>0.26558041193590731</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.3">
@@ -8138,10 +8138,10 @@
         <v>0.99415019146091432</v>
       </c>
       <c r="E69">
-        <v>0.99313798359149785</v>
+        <v>0.7875216614398759</v>
       </c>
       <c r="F69">
-        <v>3.5907183719927543E-2</v>
+        <v>0.24358287019220129</v>
       </c>
       <c r="G69">
         <v>0.898876404494382</v>
@@ -8150,10 +8150,10 @@
         <v>0.6586837735328458</v>
       </c>
       <c r="I69">
-        <v>0.93374955319145525</v>
+        <v>0.90900991550074128</v>
       </c>
       <c r="J69">
-        <v>0.1142144641462924</v>
+        <v>0.13968594327356379</v>
       </c>
       <c r="K69">
         <v>4450</v>
@@ -8165,10 +8165,10 @@
         <v>0.99275390990852075</v>
       </c>
       <c r="N69">
-        <v>0.99376067396653889</v>
+        <v>0.78863969044535631</v>
       </c>
       <c r="O69">
-        <v>3.4470309647448939E-2</v>
+        <v>0.24414304068021919</v>
       </c>
       <c r="P69">
         <v>0.92359550561797754</v>
@@ -8177,10 +8177,10 @@
         <v>0.76498804321902081</v>
       </c>
       <c r="R69">
-        <v>0.95499777760135407</v>
+        <v>0.92483472104479036</v>
       </c>
       <c r="S69">
-        <v>9.1737289784899631E-2</v>
+        <v>0.1236641499557025</v>
       </c>
       <c r="T69">
         <v>4450</v>
@@ -8192,10 +8192,10 @@
         <v>0.9934860317445644</v>
       </c>
       <c r="W69">
-        <v>0.9938768712187912</v>
+        <v>0.81663547687042914</v>
       </c>
       <c r="X69">
-        <v>3.3728926004813767E-2</v>
+        <v>0.2178046400977123</v>
       </c>
       <c r="Y69">
         <v>0.9213483146067416</v>
@@ -8204,10 +8204,10 @@
         <v>0.73007347802250921</v>
       </c>
       <c r="AA69">
-        <v>0.95324382593615575</v>
+        <v>0.77841500856638235</v>
       </c>
       <c r="AB69">
-        <v>9.8013986619429519E-2</v>
+        <v>0.25635279144813322</v>
       </c>
       <c r="AC69">
         <v>4450</v>
@@ -8219,10 +8219,10 @@
         <v>0.99135267601261901</v>
       </c>
       <c r="AF69">
-        <v>0.99210362215192893</v>
+        <v>0.82202284389860281</v>
       </c>
       <c r="AG69">
-        <v>3.8620888567041857E-2</v>
+        <v>0.214382847187606</v>
       </c>
       <c r="AH69">
         <v>0.93595505617977526</v>
@@ -8231,10 +8231,10 @@
         <v>0.81919037812920759</v>
       </c>
       <c r="AJ69">
-        <v>0.96544114993779329</v>
+        <v>0.76695393634021181</v>
       </c>
       <c r="AK69">
-        <v>8.1695515809441996E-2</v>
+        <v>0.26374717114684298</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
@@ -8251,10 +8251,10 @@
         <v>0.99586016758137963</v>
       </c>
       <c r="E70">
-        <v>0.9948841236185535</v>
+        <v>0.78349926825633054</v>
       </c>
       <c r="F70">
-        <v>3.122498999199199E-2</v>
+        <v>0.25023984733009108</v>
       </c>
       <c r="G70">
         <v>0.90666666666666662</v>
@@ -8263,10 +8263,10 @@
         <v>0.68634397439810568</v>
       </c>
       <c r="I70">
-        <v>0.93464220870612602</v>
+        <v>0.90601229134304995</v>
       </c>
       <c r="J70">
-        <v>0.11200198410940961</v>
+        <v>0.13948085026829929</v>
       </c>
       <c r="K70">
         <v>4500</v>
@@ -8278,10 +8278,10 @@
         <v>0.99382450562665137</v>
       </c>
       <c r="N70">
-        <v>0.9944854761186751</v>
+        <v>0.78281468971474055</v>
       </c>
       <c r="O70">
-        <v>3.2403703492039297E-2</v>
+        <v>0.25082962736310649</v>
       </c>
       <c r="P70">
         <v>0.90777777777777779</v>
@@ -8290,10 +8290,10 @@
         <v>0.68374421016445197</v>
       </c>
       <c r="R70">
-        <v>0.94258556896946122</v>
+        <v>0.91687831774718709</v>
       </c>
       <c r="S70">
-        <v>0.105251022692313</v>
+        <v>0.13063778259805139</v>
       </c>
       <c r="T70">
         <v>4500</v>
@@ -8305,10 +8305,10 @@
         <v>0.99216771883696675</v>
       </c>
       <c r="W70">
-        <v>0.99274662436596928</v>
+        <v>0.78468819757134467</v>
       </c>
       <c r="X70">
-        <v>3.7416573867739417E-2</v>
+        <v>0.25085651174195711</v>
       </c>
       <c r="Y70">
         <v>0.93222222222222217</v>
@@ -8317,10 +8317,10 @@
         <v>0.69627541248466951</v>
       </c>
       <c r="AA70">
-        <v>0.96317517006883235</v>
+        <v>0.92368884668110174</v>
       </c>
       <c r="AB70">
-        <v>8.198915917499229E-2</v>
+        <v>0.1219649166624362</v>
       </c>
       <c r="AC70">
         <v>4500</v>
@@ -8332,10 +8332,10 @@
         <v>0.99275768175646673</v>
       </c>
       <c r="AF70">
-        <v>0.99248644943029618</v>
+        <v>0.82244589266133339</v>
       </c>
       <c r="AG70">
-        <v>3.8078865529319543E-2</v>
+        <v>0.21753988416131129</v>
       </c>
       <c r="AH70">
         <v>0.92888888888888888</v>
@@ -8344,10 +8344,10 @@
         <v>0.75020635273954406</v>
       </c>
       <c r="AJ70">
-        <v>0.95392783490076205</v>
+        <v>0.73936242485183667</v>
       </c>
       <c r="AK70">
-        <v>9.1651513899116799E-2</v>
+        <v>0.27860832031733501</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
@@ -8364,10 +8364,10 @@
         <v>0.99428240779553401</v>
       </c>
       <c r="E71">
-        <v>0.99486359771019939</v>
+        <v>0.78552587384968253</v>
       </c>
       <c r="F71">
-        <v>3.1448545101657552E-2</v>
+        <v>0.25043328204874887</v>
       </c>
       <c r="G71">
         <v>0.90989010989010988</v>
@@ -8376,10 +8376,10 @@
         <v>0.70022138784830856</v>
       </c>
       <c r="I71">
-        <v>0.95056448637346891</v>
+        <v>0.92594452738299915</v>
       </c>
       <c r="J71">
-        <v>9.6134063899110403E-2</v>
+        <v>0.1190440195238084</v>
       </c>
       <c r="K71">
         <v>4550</v>
@@ -8391,10 +8391,10 @@
         <v>0.99316737030631741</v>
       </c>
       <c r="N71">
-        <v>0.99357787967698852</v>
+        <v>0.79052700864561865</v>
       </c>
       <c r="O71">
-        <v>3.4807161066919293E-2</v>
+        <v>0.23881649375537811</v>
       </c>
       <c r="P71">
         <v>0.91978021978021973</v>
@@ -8403,10 +8403,10 @@
         <v>0.70115998810559632</v>
       </c>
       <c r="R71">
-        <v>0.95938858299081198</v>
+        <v>0.86527265514609986</v>
       </c>
       <c r="S71">
-        <v>9.0541715235587392E-2</v>
+        <v>0.19129817122769169</v>
       </c>
       <c r="T71">
         <v>4550</v>
@@ -8418,10 +8418,10 @@
         <v>0.99222061010042084</v>
       </c>
       <c r="W71">
-        <v>0.99434063817549567</v>
+        <v>0.78614221005299467</v>
       </c>
       <c r="X71">
-        <v>3.2983512364696523E-2</v>
+        <v>0.2473404212496183</v>
       </c>
       <c r="Y71">
         <v>0.91428571428571426</v>
@@ -8430,10 +8430,10 @@
         <v>0.71570470980494505</v>
       </c>
       <c r="AA71">
-        <v>0.95231766850762312</v>
+        <v>0.90427183088573293</v>
       </c>
       <c r="AB71">
-        <v>9.4694418880063719E-2</v>
+        <v>0.1440817325029824</v>
       </c>
       <c r="AC71">
         <v>4550</v>
@@ -8445,10 +8445,10 @@
         <v>0.99288299682535608</v>
       </c>
       <c r="AF71">
-        <v>0.99383915521829369</v>
+        <v>0.78825006299899958</v>
       </c>
       <c r="AG71">
-        <v>3.4450155105792878E-2</v>
+        <v>0.24599981467731349</v>
       </c>
       <c r="AH71">
         <v>0.93076923076923079</v>
@@ -8457,10 +8457,10 @@
         <v>0.7998624084559689</v>
       </c>
       <c r="AJ71">
-        <v>0.96246595083452025</v>
+        <v>0.90207377031321723</v>
       </c>
       <c r="AK71">
-        <v>8.3666002653407553E-2</v>
+        <v>0.1460587830679341</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
@@ -8477,10 +8477,10 @@
         <v>0.9907368675559225</v>
       </c>
       <c r="E72">
-        <v>0.99190291180846935</v>
+        <v>0.78747681362562694</v>
       </c>
       <c r="F72">
-        <v>3.925252691948912E-2</v>
+        <v>0.24628402211353051</v>
       </c>
       <c r="G72">
         <v>0.91195652173913044</v>
@@ -8489,10 +8489,10 @@
         <v>0.70115359325575499</v>
       </c>
       <c r="I72">
-        <v>0.95362716466322661</v>
+        <v>0.91065178182904094</v>
       </c>
       <c r="J72">
-        <v>9.4466465179333672E-2</v>
+        <v>0.137524175979408</v>
       </c>
       <c r="K72">
         <v>4600</v>
@@ -8504,10 +8504,10 @@
         <v>0.99402971235806381</v>
       </c>
       <c r="N72">
-        <v>0.99467916621956309</v>
+        <v>0.78605976904265606</v>
       </c>
       <c r="O72">
-        <v>3.204955402253639E-2</v>
+        <v>0.24813639454236761</v>
       </c>
       <c r="P72">
         <v>0.93260869565217386</v>
@@ -8516,10 +8516,10 @@
         <v>0.74331411179865658</v>
       </c>
       <c r="R72">
-        <v>0.96594037848549452</v>
+        <v>0.93153325236328544</v>
       </c>
       <c r="S72">
-        <v>7.8643388842900536E-2</v>
+        <v>0.1176411817526081</v>
       </c>
       <c r="T72">
         <v>4600</v>
@@ -8531,10 +8531,10 @@
         <v>0.99201674919798322</v>
       </c>
       <c r="W72">
-        <v>0.99285689567297319</v>
+        <v>0.79134335235656872</v>
       </c>
       <c r="X72">
-        <v>3.6675723519136942E-2</v>
+        <v>0.2395659500932838</v>
       </c>
       <c r="Y72">
         <v>0.92717391304347829</v>
@@ -8543,10 +8543,10 @@
         <v>0.75020140553517201</v>
       </c>
       <c r="AA72">
-        <v>0.955494409372595</v>
+        <v>0.86430448586095876</v>
       </c>
       <c r="AB72">
-        <v>9.4466465179333672E-2</v>
+        <v>0.1853115845543068</v>
       </c>
       <c r="AC72">
         <v>4600</v>
@@ -8558,10 +8558,10 @@
         <v>0.99249752219330356</v>
       </c>
       <c r="AF72">
-        <v>0.99234084536296607</v>
+        <v>0.78420698105726683</v>
       </c>
       <c r="AG72">
-        <v>3.7985981395887297E-2</v>
+        <v>0.24781593020212711</v>
       </c>
       <c r="AH72">
         <v>0.92500000000000004</v>
@@ -8570,10 +8570,10 @@
         <v>0.77992174436598405</v>
       </c>
       <c r="AJ72">
-        <v>0.95678233788478484</v>
+        <v>0.92258838962816692</v>
       </c>
       <c r="AK72">
-        <v>9.3017062483414722E-2</v>
+        <v>0.12899459492277601</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.3">
@@ -8590,10 +8590,10 @@
         <v>0.99412327469847706</v>
       </c>
       <c r="E73">
-        <v>0.99567121764808275</v>
+        <v>0.78718820265635825</v>
       </c>
       <c r="F73">
-        <v>2.868066674889708E-2</v>
+        <v>0.24615123339204489</v>
       </c>
       <c r="G73">
         <v>0.91827956989247317</v>
@@ -8602,10 +8602,10 @@
         <v>0.70818316371605616</v>
       </c>
       <c r="I73">
-        <v>0.9387292878884077</v>
+        <v>0.90387564695099543</v>
       </c>
       <c r="J73">
-        <v>0.1077631812160649</v>
+        <v>0.14057003611800559</v>
       </c>
       <c r="K73">
         <v>4650</v>
@@ -8617,10 +8617,10 @@
         <v>0.99324028166355838</v>
       </c>
       <c r="N73">
-        <v>0.99436168959760862</v>
+        <v>0.78419939419592366</v>
       </c>
       <c r="O73">
-        <v>3.262692337674912E-2</v>
+        <v>0.24678522396929989</v>
       </c>
       <c r="P73">
         <v>0.92473118279569888</v>
@@ -8629,10 +8629,10 @@
         <v>0.73865714920537795</v>
       </c>
       <c r="R73">
-        <v>0.95478285409859365</v>
+        <v>0.92551082860968081</v>
       </c>
       <c r="S73">
-        <v>9.3785387586399538E-2</v>
+        <v>0.12671216258935969</v>
       </c>
       <c r="T73">
         <v>4650</v>
@@ -8644,10 +8644,10 @@
         <v>0.99254856120314905</v>
       </c>
       <c r="W73">
-        <v>0.99432338005816734</v>
+        <v>0.78696685369960129</v>
       </c>
       <c r="X73">
-        <v>3.262692337674912E-2</v>
+        <v>0.24170748523138399</v>
       </c>
       <c r="Y73">
         <v>0.93225806451612903</v>
@@ -8656,10 +8656,10 @@
         <v>0.74332655441737017</v>
       </c>
       <c r="AA73">
-        <v>0.96443107451533427</v>
+        <v>0.89818811310275137</v>
       </c>
       <c r="AB73">
-        <v>8.4242353917423199E-2</v>
+        <v>0.15868223667069811</v>
       </c>
       <c r="AC73">
         <v>4650</v>
@@ -8671,10 +8671,10 @@
         <v>0.99362192119867887</v>
       </c>
       <c r="AF73">
-        <v>0.99382058785822125</v>
+        <v>0.78761621367898071</v>
       </c>
       <c r="AG73">
-        <v>3.4430856378657532E-2</v>
+        <v>0.24812313864550639</v>
       </c>
       <c r="AH73">
         <v>0.91720430107526885</v>
@@ -8683,10 +8683,10 @@
         <v>0.67912271898568999</v>
       </c>
       <c r="AJ73">
-        <v>0.94346876194469387</v>
+        <v>0.92215495586615082</v>
       </c>
       <c r="AK73">
-        <v>0.1014942129819095</v>
+        <v>0.1197884003153062</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
@@ -8703,10 +8703,10 @@
         <v>0.99129731493855822</v>
       </c>
       <c r="E74">
-        <v>0.99331339550661613</v>
+        <v>0.78678447860941159</v>
       </c>
       <c r="F74">
-        <v>3.5617650417687517E-2</v>
+        <v>0.2465846462737557</v>
       </c>
       <c r="G74">
         <v>0.90638297872340423</v>
@@ -8715,10 +8715,10 @@
         <v>0.71793111435088497</v>
       </c>
       <c r="I74">
-        <v>0.9314489848404246</v>
+        <v>0.91200308846610834</v>
       </c>
       <c r="J74">
-        <v>0.1149467962034906</v>
+        <v>0.13281084612751851</v>
       </c>
       <c r="K74">
         <v>4700</v>
@@ -8730,10 +8730,10 @@
         <v>0.99132394003216429</v>
       </c>
       <c r="N74">
-        <v>0.99243809181793652</v>
+        <v>0.78121858544068734</v>
       </c>
       <c r="O74">
-        <v>3.7259869462203242E-2</v>
+        <v>0.24507427661906231</v>
       </c>
       <c r="P74">
         <v>0.92872340425531918</v>
@@ -8742,10 +8742,10 @@
         <v>0.74846111451978115</v>
       </c>
       <c r="R74">
-        <v>0.96441936609945</v>
+        <v>0.92784057745684723</v>
       </c>
       <c r="S74">
-        <v>8.7761766502130453E-2</v>
+        <v>0.1323547619943774</v>
       </c>
       <c r="T74">
         <v>4700</v>
@@ -8757,10 +8757,10 @@
         <v>0.99282921843423466</v>
       </c>
       <c r="W74">
-        <v>0.99451226083279476</v>
+        <v>0.78383351763977216</v>
       </c>
       <c r="X74">
-        <v>3.2082009275432491E-2</v>
+        <v>0.24530518526585279</v>
       </c>
       <c r="Y74">
         <v>0.92340425531914894</v>
@@ -8769,10 +8769,10 @@
         <v>0.68184620010676256</v>
       </c>
       <c r="AA74">
-        <v>0.96323366399095811</v>
+        <v>0.92753286287543135</v>
       </c>
       <c r="AB74">
-        <v>8.6047982655893418E-2</v>
+        <v>0.1285256334193382</v>
       </c>
       <c r="AC74">
         <v>4700</v>
@@ -8784,10 +8784,10 @@
         <v>0.9931724332565629</v>
       </c>
       <c r="AF74">
-        <v>0.99273642706229959</v>
+        <v>0.78545781350674693</v>
       </c>
       <c r="AG74">
-        <v>3.6937267117745178E-2</v>
+        <v>0.24641177165543759</v>
       </c>
       <c r="AH74">
         <v>0.91702127659574473</v>
@@ -8796,10 +8796,10 @@
         <v>0.74765084393770653</v>
       </c>
       <c r="AJ74">
-        <v>0.9528941685446175</v>
+        <v>0.92964598186501801</v>
       </c>
       <c r="AK74">
-        <v>9.713995168192105E-2</v>
+        <v>0.1213488498084199</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
@@ -8816,10 +8816,10 @@
         <v>0.99297385737828936</v>
       </c>
       <c r="E75">
-        <v>0.99372639916018779</v>
+        <v>0.79995016805975949</v>
       </c>
       <c r="F75">
-        <v>3.4754780057455491E-2</v>
+        <v>0.23575466802181311</v>
       </c>
       <c r="G75">
         <v>0.91894736842105262</v>
@@ -8828,10 +8828,10 @@
         <v>0.74025252596847479</v>
       </c>
       <c r="I75">
-        <v>0.95568657870180085</v>
+        <v>0.85715752018486635</v>
       </c>
       <c r="J75">
-        <v>8.9970755482574799E-2</v>
+        <v>0.18051538620219301</v>
       </c>
       <c r="K75">
         <v>4750</v>
@@ -8843,10 +8843,10 @@
         <v>0.99389027265261343</v>
       </c>
       <c r="N75">
-        <v>0.99484007832527066</v>
+        <v>0.81661772545103783</v>
       </c>
       <c r="O75">
-        <v>3.116171740419561E-2</v>
+        <v>0.21880225305440809</v>
       </c>
       <c r="P75">
         <v>0.93263157894736837</v>
@@ -8855,10 +8855,10 @@
         <v>0.7126123752620166</v>
       </c>
       <c r="R75">
-        <v>0.96793113677925846</v>
+        <v>0.78759060666759706</v>
       </c>
       <c r="S75">
-        <v>8.0065762444314931E-2</v>
+        <v>0.25038722477979852</v>
       </c>
       <c r="T75">
         <v>4750</v>
@@ -8870,10 +8870,10 @@
         <v>0.9918571832116696</v>
       </c>
       <c r="W75">
-        <v>0.99407279300480722</v>
+        <v>0.78641735346061792</v>
       </c>
       <c r="X75">
-        <v>3.336402096176122E-2</v>
+        <v>0.24240230233374341</v>
       </c>
       <c r="Y75">
         <v>0.93052631578947365</v>
@@ -8882,10 +8882,10 @@
         <v>0.75783076149634898</v>
       </c>
       <c r="AA75">
-        <v>0.96691931431800404</v>
+        <v>0.92157803957201201</v>
       </c>
       <c r="AB75">
-        <v>8.1628168512694457E-2</v>
+        <v>0.1369036836769417</v>
       </c>
       <c r="AC75">
         <v>4750</v>
@@ -8897,10 +8897,10 @@
         <v>0.99276870280267393</v>
       </c>
       <c r="AF75">
-        <v>0.99363995169251229</v>
+        <v>0.79120078421843165</v>
       </c>
       <c r="AG75">
-        <v>3.4754780057455477E-2</v>
+        <v>0.2418592548801197</v>
       </c>
       <c r="AH75">
         <v>0.92421052631578948</v>
@@ -8909,10 +8909,10 @@
         <v>0.74202344830607447</v>
       </c>
       <c r="AJ75">
-        <v>0.96347975455870494</v>
+        <v>0.91121879063756028</v>
       </c>
       <c r="AK75">
-        <v>8.3979947481213443E-2</v>
+        <v>0.13937673774630019</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.3">
@@ -8929,10 +8929,10 @@
         <v>0.99402182224623981</v>
       </c>
       <c r="E76">
-        <v>0.99459973058101891</v>
+        <v>0.79030430419997</v>
       </c>
       <c r="F76">
-        <v>3.2113081446662833E-2</v>
+        <v>0.244249947532827</v>
       </c>
       <c r="G76">
         <v>0.9135416666666667</v>
@@ -8941,10 +8941,10 @@
         <v>0.76101006704823715</v>
       </c>
       <c r="I76">
-        <v>0.93154187649500153</v>
+        <v>0.90838912780417347</v>
       </c>
       <c r="J76">
-        <v>0.1132383180141186</v>
+        <v>0.13351274770445781</v>
       </c>
       <c r="K76">
         <v>4800</v>
@@ -8956,10 +8956,10 @@
         <v>0.99455325906238912</v>
       </c>
       <c r="N76">
-        <v>0.99496517220516911</v>
+        <v>0.79226055054732303</v>
       </c>
       <c r="O76">
-        <v>3.0618621784789728E-2</v>
+        <v>0.2364990955479416</v>
       </c>
       <c r="P76">
         <v>0.91041666666666665</v>
@@ -8968,10 +8968,10 @@
         <v>0.72390202129601611</v>
       </c>
       <c r="R76">
-        <v>0.95205544946411025</v>
+        <v>0.88144026526849861</v>
       </c>
       <c r="S76">
-        <v>9.9425432695395721E-2</v>
+        <v>0.17408387389438831</v>
       </c>
       <c r="T76">
         <v>4800</v>
@@ -8983,10 +8983,10 @@
         <v>0.99326721723614353</v>
       </c>
       <c r="W76">
-        <v>0.99368022688643787</v>
+        <v>0.7912892249662693</v>
       </c>
       <c r="X76">
-        <v>3.491060010942236E-2</v>
+        <v>0.24210795314025721</v>
       </c>
       <c r="Y76">
         <v>0.92604166666666665</v>
@@ -8995,10 +8995,10 @@
         <v>0.78580323213422187</v>
       </c>
       <c r="AA76">
-        <v>0.95763788212590994</v>
+        <v>0.91753441736617491</v>
       </c>
       <c r="AB76">
-        <v>8.7261579938328712E-2</v>
+        <v>0.1313835139291222</v>
       </c>
       <c r="AC76">
         <v>4800</v>
@@ -9010,10 +9010,10 @@
         <v>0.99171612500019801</v>
       </c>
       <c r="AF76">
-        <v>0.99262872036227467</v>
+        <v>0.79176201396589618</v>
       </c>
       <c r="AG76">
-        <v>3.7811208655635427E-2</v>
+        <v>0.2449453735100155</v>
       </c>
       <c r="AH76">
         <v>0.92708333333333337</v>
@@ -9022,10 +9022,10 @@
         <v>0.79406114181560938</v>
       </c>
       <c r="AJ76">
-        <v>0.95736343829232928</v>
+        <v>0.93189527269600125</v>
       </c>
       <c r="AK76">
-        <v>8.6361642720210768E-2</v>
+        <v>0.1105125851245778</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.3">
@@ -9042,10 +9042,10 @@
         <v>0.99308949022438076</v>
       </c>
       <c r="E77">
-        <v>0.99472994561731787</v>
+        <v>0.81963101917772785</v>
       </c>
       <c r="F77">
-        <v>3.1581999309929241E-2</v>
+        <v>0.2182345312379555</v>
       </c>
       <c r="G77">
         <v>0.92474226804123716</v>
@@ -9054,10 +9054,10 @@
         <v>0.75819833197145359</v>
       </c>
       <c r="I77">
-        <v>0.95032871532725394</v>
+        <v>0.77607359304762058</v>
       </c>
       <c r="J77">
-        <v>9.8650690635629076E-2</v>
+        <v>0.2510543533712018</v>
       </c>
       <c r="K77">
         <v>4850</v>
@@ -9069,10 +9069,10 @@
         <v>0.99174796670281462</v>
       </c>
       <c r="N77">
-        <v>0.99387680760736408</v>
+        <v>0.79166123345962847</v>
       </c>
       <c r="O77">
-        <v>3.4394617176553219E-2</v>
+        <v>0.24404212614410711</v>
       </c>
       <c r="P77">
         <v>0.92474226804123716</v>
@@ -9081,10 +9081,10 @@
         <v>0.70023523751763173</v>
       </c>
       <c r="R77">
-        <v>0.9470701553898716</v>
+        <v>0.9216683305335468</v>
       </c>
       <c r="S77">
-        <v>9.7652867209451683E-2</v>
+        <v>0.12329052351782881</v>
       </c>
       <c r="T77">
         <v>4850</v>
@@ -9096,10 +9096,10 @@
         <v>0.99259885771714418</v>
       </c>
       <c r="W77">
-        <v>0.99341832382374529</v>
+        <v>0.79754251655603936</v>
       </c>
       <c r="X77">
-        <v>3.5391769093782652E-2</v>
+        <v>0.23544006388340269</v>
       </c>
       <c r="Y77">
         <v>0.92783505154639179</v>
@@ -9108,10 +9108,10 @@
         <v>0.75703747500281138</v>
       </c>
       <c r="AA77">
-        <v>0.96230636256759094</v>
+        <v>0.87213520839282777</v>
       </c>
       <c r="AB77">
-        <v>8.5010611830002372E-2</v>
+        <v>0.1760760463047375</v>
       </c>
       <c r="AC77">
         <v>4850</v>
@@ -9123,10 +9123,10 @@
         <v>0.99282860298076214</v>
       </c>
       <c r="AF77">
-        <v>0.99414767157855288</v>
+        <v>0.8215393235582964</v>
       </c>
       <c r="AG77">
-        <v>3.3713468201066618E-2</v>
+        <v>0.22076760061499301</v>
       </c>
       <c r="AH77">
         <v>0.9257731958762887</v>
@@ -9135,10 +9135,10 @@
         <v>0.75657160731651041</v>
       </c>
       <c r="AJ77">
-        <v>0.95812589149806504</v>
+        <v>0.76837058265763047</v>
       </c>
       <c r="AK77">
-        <v>8.5795248949274802E-2</v>
+        <v>0.2381551957210408</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.3">
@@ -9155,10 +9155,10 @@
         <v>0.99293340810151043</v>
       </c>
       <c r="E78">
-        <v>0.99408996831765273</v>
+        <v>0.82333832032517629</v>
       </c>
       <c r="F78">
-        <v>3.3197000110349303E-2</v>
+        <v>0.21260826443668571</v>
       </c>
       <c r="G78">
         <v>0.9285714285714286</v>
@@ -9167,10 +9167,10 @@
         <v>0.75477996843013107</v>
       </c>
       <c r="I78">
-        <v>0.94158461533099658</v>
+        <v>0.75270002538353897</v>
       </c>
       <c r="J78">
-        <v>0.1089373532759793</v>
+        <v>0.27521722707353452</v>
       </c>
       <c r="K78">
         <v>4900</v>
@@ -9182,10 +9182,10 @@
         <v>0.99413983699740704</v>
       </c>
       <c r="N78">
-        <v>0.99428077993142316</v>
+        <v>0.79092591705759097</v>
       </c>
       <c r="O78">
-        <v>3.2849377964476907E-2</v>
+        <v>0.241545993050712</v>
       </c>
       <c r="P78">
         <v>0.92448979591836733</v>
@@ -9194,10 +9194,10 @@
         <v>0.76245598694175842</v>
       </c>
       <c r="R78">
-        <v>0.95603062694261243</v>
+        <v>0.91961380507774426</v>
       </c>
       <c r="S78">
-        <v>9.2637101924991291E-2</v>
+        <v>0.13124669207645259</v>
       </c>
       <c r="T78">
         <v>4900</v>
@@ -9209,10 +9209,10 @@
         <v>0.9924147424526133</v>
       </c>
       <c r="W78">
-        <v>0.99439428981301869</v>
+        <v>0.7964283346296861</v>
       </c>
       <c r="X78">
-        <v>3.319700011034929E-2</v>
+        <v>0.2416981103754138</v>
       </c>
       <c r="Y78">
         <v>0.93877551020408168</v>
@@ -9221,10 +9221,10 @@
         <v>0.75337904583831794</v>
       </c>
       <c r="AA78">
-        <v>0.96016285291163705</v>
+        <v>0.91586680294534373</v>
       </c>
       <c r="AB78">
-        <v>8.0685835693959651E-2</v>
+        <v>0.123891886694005</v>
       </c>
       <c r="AC78">
         <v>4900</v>
@@ -9236,10 +9236,10 @@
         <v>0.99313809134228204</v>
       </c>
       <c r="AF78">
-        <v>0.99389855401990146</v>
+        <v>0.82887041979715814</v>
       </c>
       <c r="AG78">
-        <v>3.4218684477152823E-2</v>
+        <v>0.21109037745635531</v>
       </c>
       <c r="AH78">
         <v>0.92142857142857137</v>
@@ -9248,10 +9248,10 @@
         <v>0.76796665572895106</v>
       </c>
       <c r="AJ78">
-        <v>0.95628533802002091</v>
+        <v>0.74338356773821768</v>
       </c>
       <c r="AK78">
-        <v>8.9214257119977103E-2</v>
+        <v>0.27227844170059889</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
@@ -9268,10 +9268,10 @@
         <v>0.99346269275881716</v>
       </c>
       <c r="E79">
-        <v>0.99420528298733413</v>
+        <v>0.79999919976627587</v>
       </c>
       <c r="F79">
-        <v>3.2683050931359182E-2</v>
+        <v>0.22915729068161911</v>
       </c>
       <c r="G79">
         <v>0.91919191919191923</v>
@@ -9280,10 +9280,10 @@
         <v>0.72886251215853737</v>
       </c>
       <c r="I79">
-        <v>0.95089493054480456</v>
+        <v>0.8557435864066375</v>
       </c>
       <c r="J79">
-        <v>0.1012547542218401</v>
+        <v>0.19789111224987579</v>
       </c>
       <c r="K79">
         <v>4950</v>
@@ -9295,10 +9295,10 @@
         <v>0.99398729360564775</v>
       </c>
       <c r="N79">
-        <v>0.99343857863745</v>
+        <v>0.78991069175075113</v>
       </c>
       <c r="O79">
-        <v>3.5032452487268537E-2</v>
+        <v>0.24038654456810671</v>
       </c>
       <c r="P79">
         <v>0.92121212121212126</v>
@@ -9307,10 +9307,10 @@
         <v>0.74986561324985712</v>
       </c>
       <c r="R79">
-        <v>0.95741138806592863</v>
+        <v>0.92019348746403717</v>
       </c>
       <c r="S79">
-        <v>9.2058391658487448E-2</v>
+        <v>0.13335773218547389</v>
       </c>
       <c r="T79">
         <v>4950</v>
@@ -9322,10 +9322,10 @@
         <v>0.98916400638083102</v>
       </c>
       <c r="W79">
-        <v>0.99291840193526593</v>
+        <v>0.79761478492292603</v>
       </c>
       <c r="X79">
-        <v>3.692744729379982E-2</v>
+        <v>0.2364400258231171</v>
       </c>
       <c r="Y79">
         <v>0.9303030303030303</v>
@@ -9334,10 +9334,10 @@
         <v>0.74956365602766428</v>
       </c>
       <c r="AA79">
-        <v>0.96023423896396831</v>
+        <v>0.88947374047834704</v>
       </c>
       <c r="AB79">
-        <v>8.3907115552878109E-2</v>
+        <v>0.15529624960976041</v>
       </c>
       <c r="AC79">
         <v>4950</v>
@@ -9349,10 +9349,10 @@
         <v>0.99240728828260172</v>
       </c>
       <c r="AF79">
-        <v>0.99334006232279337</v>
+        <v>0.80402627405615124</v>
       </c>
       <c r="AG79">
-        <v>3.5675303400633802E-2</v>
+        <v>0.23079682678360849</v>
       </c>
       <c r="AH79">
         <v>0.92525252525252522</v>
@@ -9361,10 +9361,10 @@
         <v>0.79185641169830112</v>
       </c>
       <c r="AJ79">
-        <v>0.96053292950930869</v>
+        <v>0.85333193171565724</v>
       </c>
       <c r="AK79">
-        <v>8.4983658559879743E-2</v>
+        <v>0.18603013980976479</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
@@ -9381,10 +9381,10 @@
         <v>0.99442229844591679</v>
       </c>
       <c r="E80">
-        <v>0.99468105432047094</v>
+        <v>0.79937088088560171</v>
       </c>
       <c r="F80">
-        <v>3.1847684079335033E-2</v>
+        <v>0.2355134605205402</v>
       </c>
       <c r="G80">
         <v>0.91591591591591592</v>
@@ -9393,10 +9393,10 @@
         <v>0.73564084107449346</v>
       </c>
       <c r="I80">
-        <v>0.93183373584201001</v>
+        <v>0.85809693081688687</v>
       </c>
       <c r="J80">
-        <v>0.113016692451924</v>
+        <v>0.17768567127857959</v>
       </c>
       <c r="K80">
         <v>4992</v>
@@ -9408,10 +9408,10 @@
         <v>0.99536804579099969</v>
       </c>
       <c r="N80">
-        <v>0.99589256618991961</v>
+        <v>0.83080655458061703</v>
       </c>
       <c r="O80">
-        <v>2.8087017302423849E-2</v>
+        <v>0.20846683853312811</v>
       </c>
       <c r="P80">
         <v>0.93493493493493496</v>
@@ -9420,10 +9420,10 @@
         <v>0.70618193535528584</v>
       </c>
       <c r="R80">
-        <v>0.96085803504728651</v>
+        <v>0.75382296402355498</v>
       </c>
       <c r="S80">
-        <v>8.4244270411091435E-2</v>
+        <v>0.27198693501784699</v>
       </c>
       <c r="T80">
         <v>4992</v>
@@ -9435,10 +9435,10 @@
         <v>0.99221103548724021</v>
       </c>
       <c r="W80">
-        <v>0.99297104762841359</v>
+        <v>0.7937618754589767</v>
       </c>
       <c r="X80">
-        <v>3.677453795254048E-2</v>
+        <v>0.24121295734790049</v>
       </c>
       <c r="Y80">
         <v>0.94594594594594594</v>
@@ -9447,10 +9447,10 @@
         <v>0.7937402678020401</v>
       </c>
       <c r="AA80">
-        <v>0.96765076111779136</v>
+        <v>0.926708756491463</v>
       </c>
       <c r="AB80">
-        <v>7.6458131325882181E-2</v>
+        <v>0.12105864664713049</v>
       </c>
       <c r="AC80">
         <v>4992</v>
@@ -9462,10 +9462,10 @@
         <v>0.99122135691515145</v>
       </c>
       <c r="AF80">
-        <v>0.99288395868241885</v>
+        <v>0.80316567122221538</v>
       </c>
       <c r="AG80">
-        <v>3.7079726073015802E-2</v>
+        <v>0.23468079965480901</v>
       </c>
       <c r="AH80">
         <v>0.9169169169169169</v>
@@ -9474,10 +9474,10 @@
         <v>0.74666464950249034</v>
       </c>
       <c r="AJ80">
-        <v>0.95633737313869749</v>
+        <v>0.87279535883020531</v>
       </c>
       <c r="AK80">
-        <v>8.8021291445580074E-2</v>
+        <v>0.16310430066309881</v>
       </c>
     </row>
   </sheetData>
